--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\Radium Sorption\Sorption Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Dropbox (Personal)\work\MIT Graduate Work\Research\RadiumSorption\Sorption Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
   <si>
     <t>Mineral</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Ferrihydrite</t>
-  </si>
-  <si>
-    <t>Sample</t>
   </si>
   <si>
     <t>sfSorb</t>
@@ -96,6 +93,9 @@
   </si>
   <si>
     <t>One sample close to detection</t>
+  </si>
+  <si>
+    <t>Total Activity</t>
   </si>
 </sst>
 </file>
@@ -698,10 +698,10 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -712,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
@@ -745,13 +745,13 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1050,7 +1050,10 @@
         <v>42466</v>
       </c>
       <c r="M8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1261,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1554,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1639,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1847,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2055,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2099,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2266,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2310,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -2441,7 +2444,7 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C42">
         <v>0.13246464006479999</v>
@@ -2477,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2485,7 +2488,7 @@
         <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43">
         <v>0.53340735532888128</v>
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2529,7 +2532,7 @@
         <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C44">
         <v>1.0549142130593641</v>
@@ -2565,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2573,7 +2576,7 @@
         <v>250</v>
       </c>
       <c r="B45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C45">
         <v>2.5786452833352511</v>
@@ -2609,7 +2612,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2617,7 +2620,7 @@
         <v>500</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46">
         <v>5.163905449696899</v>
@@ -2653,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2661,7 +2664,7 @@
         <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47">
         <v>0.11618094895573838</v>
@@ -2697,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="N47" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2705,7 +2708,7 @@
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C48">
         <v>0.47181442750076047</v>
@@ -2746,7 +2749,7 @@
         <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49">
         <v>0.9961157116073317</v>
@@ -2787,7 +2790,7 @@
         <v>250</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C50">
         <v>2.2707584867574684</v>
@@ -2828,7 +2831,7 @@
         <v>500</v>
       </c>
       <c r="B51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C51">
         <v>4.6275272163134469</v>
@@ -2869,7 +2872,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52">
         <v>9.3730667323600692E-2</v>
@@ -2910,7 +2913,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53">
         <v>0.4088531733731397</v>
@@ -2951,7 +2954,7 @@
         <v>100</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54">
         <v>0.8648749751347049</v>
@@ -2992,7 +2995,7 @@
         <v>250</v>
       </c>
       <c r="B55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C55">
         <v>2.0579849634753948</v>
@@ -3033,7 +3036,7 @@
         <v>500</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C56">
         <v>4.2838693295416412</v>
@@ -3074,7 +3077,7 @@
         <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C57">
         <v>2.8620228688234051E-2</v>
@@ -3110,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3118,7 +3121,7 @@
         <v>50</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58">
         <v>5.1055914839843765E-2</v>
@@ -3154,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3162,7 +3165,7 @@
         <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C59">
         <v>0.11718803711216974</v>
@@ -3203,7 +3206,7 @@
         <v>250</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C60">
         <v>0.44600961792727273</v>
@@ -3244,7 +3247,7 @@
         <v>500</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C61">
         <v>0.90169779132976757</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
   <si>
     <t>Mineral</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Total Activity</t>
+  </si>
+  <si>
+    <t>Negative Cs, Counts below detection</t>
+  </si>
+  <si>
+    <t>Negative Cs, counts below detection</t>
+  </si>
+  <si>
+    <t>Negative Cs, setting to 0</t>
   </si>
 </sst>
 </file>
@@ -698,10 +707,10 @@
   <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P21" sqref="P21"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -795,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -839,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -865,10 +874,10 @@
         <v>49.953426443216358</v>
       </c>
       <c r="H4">
-        <v>-1.8069919853127718E-2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.5804691940665017E-2</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>3.05</v>
@@ -877,13 +886,13 @@
         <v>2.8284271247461926E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>42466</v>
+        <v>42488</v>
       </c>
       <c r="M4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1009,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1053,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>Mineral</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Need solid counts</t>
-  </si>
-  <si>
-    <t>Need one more solid count to constrain uncertainty</t>
   </si>
   <si>
     <t>Counts at detection</t>
@@ -710,7 +707,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -721,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -804,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -892,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1533,10 +1530,10 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.14045071753731236</v>
+        <v>0.21067607630596855</v>
       </c>
       <c r="D20">
-        <v>0.12163388936706508</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3295.8495237487973</v>
@@ -1560,13 +1557,10 @@
         <v>5.0332229568471415E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>42481</v>
+        <v>42488</v>
       </c>
       <c r="M20" t="b">
-        <v>0</v>
-      </c>
-      <c r="N20" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1859,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2278,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3122,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3166,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
   <si>
     <t>Mineral</t>
   </si>
@@ -80,9 +80,6 @@
     <t>Counts close to detection</t>
   </si>
   <si>
-    <t>Need solid counts</t>
-  </si>
-  <si>
     <t>Counts at detection</t>
   </si>
   <si>
@@ -102,6 +99,9 @@
   </si>
   <si>
     <t>Negative Cs, setting to 0</t>
+  </si>
+  <si>
+    <t>Pyrite</t>
   </si>
 </sst>
 </file>
@@ -701,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1106105993106226</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4.3930737446564849E-3</v>
       </c>
       <c r="E19">
         <v>1665.1142147738785</v>
@@ -1501,10 +1501,10 @@
         <v>49.953426443216358</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0.77857254809866328</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.7943391624000951E-3</v>
       </c>
       <c r="J19">
         <v>8.9166666666666661</v>
@@ -1513,13 +1513,10 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>42481</v>
+        <v>42507</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1571,31 +1568,31 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>4.4084674528744358E-2</v>
+        <v>1.0694639980429503</v>
       </c>
       <c r="D21">
-        <v>2.9860179390728075E-2</v>
+        <v>0.23245961239056712</v>
       </c>
       <c r="E21">
-        <v>13998.532901237906</v>
+        <v>13107.312902868782</v>
       </c>
       <c r="F21">
-        <v>1891.3936416951028</v>
+        <v>774.8653746352262</v>
       </c>
       <c r="G21">
         <v>500.16578689035845</v>
       </c>
       <c r="H21">
-        <v>0.83963357359586033</v>
+        <v>0.78617809812781381</v>
       </c>
       <c r="I21">
-        <v>0.11344600278165595</v>
+        <v>4.6476512085286893E-2</v>
       </c>
       <c r="J21">
-        <v>8.9350000000000005</v>
+        <v>8.913333333333334</v>
       </c>
       <c r="K21">
-        <v>4.7258156262525892E-2</v>
+        <v>2.3094010767584539E-2</v>
       </c>
       <c r="L21" s="1">
         <v>42481</v>
@@ -1853,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2061,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2272,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3116,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3160,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3283,6 +3280,627 @@
         <v>42481</v>
       </c>
       <c r="M61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>10</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>0.11242018013969272</v>
+      </c>
+      <c r="D62">
+        <v>7.6718982935510445E-3</v>
+      </c>
+      <c r="E62">
+        <v>-32.109879793362857</v>
+      </c>
+      <c r="F62">
+        <v>22.510987453477643</v>
+      </c>
+      <c r="G62">
+        <v>9.9964568335816697</v>
+      </c>
+      <c r="H62">
+        <v>-0.12460026598657603</v>
+      </c>
+      <c r="I62">
+        <v>7.6746175382645498E-2</v>
+      </c>
+      <c r="J62">
+        <v>2.9933333333333336</v>
+      </c>
+      <c r="K62">
+        <v>1.1547005383792526E-2</v>
+      </c>
+      <c r="L62" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M62" t="b">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63">
+        <v>0.41953747054964391</v>
+      </c>
+      <c r="D63">
+        <v>9.7009736427505835E-3</v>
+      </c>
+      <c r="E63">
+        <v>190.9178399471227</v>
+      </c>
+      <c r="F63">
+        <v>9.482450595268654</v>
+      </c>
+      <c r="G63">
+        <v>50.054201123545624</v>
+      </c>
+      <c r="H63">
+        <v>0.1618336500584116</v>
+      </c>
+      <c r="I63">
+        <v>1.9380937913295773E-2</v>
+      </c>
+      <c r="J63">
+        <v>3.0033333333333334</v>
+      </c>
+      <c r="K63">
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="L63" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64">
+        <v>0.833696393431821</v>
+      </c>
+      <c r="D64">
+        <v>1.0256407414719036E-2</v>
+      </c>
+      <c r="E64">
+        <v>420.22702885612733</v>
+      </c>
+      <c r="F64">
+        <v>82.872614278368118</v>
+      </c>
+      <c r="G64">
+        <v>99.964568335816708</v>
+      </c>
+      <c r="H64">
+        <v>0.16600810936217236</v>
+      </c>
+      <c r="I64">
+        <v>1.026004271860013E-2</v>
+      </c>
+      <c r="J64">
+        <v>3.0033333333333334</v>
+      </c>
+      <c r="K64">
+        <v>8.3333333333332742E-3</v>
+      </c>
+      <c r="L64" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>250</v>
+      </c>
+      <c r="B65" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65">
+        <v>2.0538866741721384</v>
+      </c>
+      <c r="D65">
+        <v>7.088982575508887E-2</v>
+      </c>
+      <c r="E65">
+        <v>1112.8077588728913</v>
+      </c>
+      <c r="F65">
+        <v>323.28915521995827</v>
+      </c>
+      <c r="G65">
+        <v>250.27100561772809</v>
+      </c>
+      <c r="H65">
+        <v>0.17933494968677652</v>
+      </c>
+      <c r="I65">
+        <v>2.8325225121510159E-2</v>
+      </c>
+      <c r="J65">
+        <v>2.9933333333333336</v>
+      </c>
+      <c r="K65">
+        <v>1.1547005383792526E-2</v>
+      </c>
+      <c r="L65" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>500</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>4.1755059952216032</v>
+      </c>
+      <c r="D66">
+        <v>1.7745760664004854E-2</v>
+      </c>
+      <c r="E66">
+        <v>2084.8448916576158</v>
+      </c>
+      <c r="F66">
+        <v>332.61036931889845</v>
+      </c>
+      <c r="G66">
+        <v>500.54201123545619</v>
+      </c>
+      <c r="H66">
+        <v>0.16580308915220415</v>
+      </c>
+      <c r="I66">
+        <v>3.5453089382456219E-3</v>
+      </c>
+      <c r="J66">
+        <v>2.9933333333333336</v>
+      </c>
+      <c r="K66">
+        <v>1.1547005383792526E-2</v>
+      </c>
+      <c r="L66" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67">
+        <v>0.10124247463533986</v>
+      </c>
+      <c r="D67">
+        <v>3.7540433112101287E-3</v>
+      </c>
+      <c r="E67">
+        <v>-3.4943104645756319E-3</v>
+      </c>
+      <c r="F67">
+        <v>1.0620510693609002E-2</v>
+      </c>
+      <c r="G67">
+        <v>9.9964568335816697</v>
+      </c>
+      <c r="H67">
+        <v>-1.2783592434773757E-2</v>
+      </c>
+      <c r="I67">
+        <v>3.7553739026801571E-2</v>
+      </c>
+      <c r="J67">
+        <v>5.0233333333333334</v>
+      </c>
+      <c r="K67">
+        <v>4.6188021535170098E-2</v>
+      </c>
+      <c r="L67" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M67" t="b">
+        <v>0</v>
+      </c>
+      <c r="N67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>50</v>
+      </c>
+      <c r="B68" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68">
+        <v>0.41857660141488501</v>
+      </c>
+      <c r="D68">
+        <v>7.2824632120762371E-3</v>
+      </c>
+      <c r="E68">
+        <v>0.22811155763969623</v>
+      </c>
+      <c r="F68">
+        <v>2.5486046404292424E-2</v>
+      </c>
+      <c r="G68">
+        <v>50.054201123545624</v>
+      </c>
+      <c r="H68">
+        <v>0.16375330737626048</v>
+      </c>
+      <c r="I68">
+        <v>1.4549154813401913E-2</v>
+      </c>
+      <c r="J68">
+        <v>4.99</v>
+      </c>
+      <c r="K68">
+        <v>2.6457513110645845E-2</v>
+      </c>
+      <c r="L68" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>0.80130253525997552</v>
+      </c>
+      <c r="D69">
+        <v>5.3444980326268288E-3</v>
+      </c>
+      <c r="E69">
+        <v>0.4851895891200817</v>
+      </c>
+      <c r="F69">
+        <v>8.9480519409142076E-2</v>
+      </c>
+      <c r="G69">
+        <v>99.964568335816708</v>
+      </c>
+      <c r="H69">
+        <v>0.19841344928523677</v>
+      </c>
+      <c r="I69">
+        <v>5.3463923484096433E-3</v>
+      </c>
+      <c r="J69">
+        <v>4.9933333333333332</v>
+      </c>
+      <c r="K69">
+        <v>3.4278273002005234E-2</v>
+      </c>
+      <c r="L69" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>250</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>2.001963252193812</v>
+      </c>
+      <c r="D70">
+        <v>3.2713806966716524E-2</v>
+      </c>
+      <c r="E70">
+        <v>1.3872217128592321</v>
+      </c>
+      <c r="F70">
+        <v>0.10820692302913817</v>
+      </c>
+      <c r="G70">
+        <v>250.27100561772809</v>
+      </c>
+      <c r="H70">
+        <v>0.20008182839538591</v>
+      </c>
+      <c r="I70">
+        <v>1.307135314615092E-2</v>
+      </c>
+      <c r="J70">
+        <v>5.0366666666666662</v>
+      </c>
+      <c r="K70">
+        <v>1.5275252316519626E-2</v>
+      </c>
+      <c r="L70" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>500</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>3.8313040213701197</v>
+      </c>
+      <c r="D71">
+        <v>2.1103755052666741E-2</v>
+      </c>
+      <c r="E71">
+        <v>2.9951701716397268</v>
+      </c>
+      <c r="F71">
+        <v>0.63458368877856852</v>
+      </c>
+      <c r="G71">
+        <v>500.54201123545619</v>
+      </c>
+      <c r="H71">
+        <v>0.23456894019473931</v>
+      </c>
+      <c r="I71">
+        <v>4.2161805760474614E-3</v>
+      </c>
+      <c r="J71">
+        <v>5.0133333333333328</v>
+      </c>
+      <c r="K71">
+        <v>4.1633319989322265E-2</v>
+      </c>
+      <c r="L71" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>10</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72">
+        <v>9.5388065223556875E-2</v>
+      </c>
+      <c r="D72">
+        <v>3.7561378736788659E-3</v>
+      </c>
+      <c r="E72">
+        <v>12.043120616528645</v>
+      </c>
+      <c r="F72">
+        <v>10.865681430578073</v>
+      </c>
+      <c r="G72">
+        <v>9.9964568335816697</v>
+      </c>
+      <c r="H72">
+        <v>4.5781252182130312E-2</v>
+      </c>
+      <c r="I72">
+        <v>3.757469207550275E-2</v>
+      </c>
+      <c r="J72">
+        <v>6.9733333333333336</v>
+      </c>
+      <c r="K72">
+        <v>3.2145502536643E-2</v>
+      </c>
+      <c r="L72" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>50</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>0.38653546735579836</v>
+      </c>
+      <c r="D73">
+        <v>3.1693400658234991E-3</v>
+      </c>
+      <c r="E73">
+        <v>314.73106445421786</v>
+      </c>
+      <c r="F73">
+        <v>23.973608419002769</v>
+      </c>
+      <c r="G73">
+        <v>50.054201123545624</v>
+      </c>
+      <c r="H73">
+        <v>0.22776618409764002</v>
+      </c>
+      <c r="I73">
+        <v>6.3318163004956254E-3</v>
+      </c>
+      <c r="J73">
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="K73">
+        <v>3.0550504633038766E-2</v>
+      </c>
+      <c r="L73" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>100</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>0.75381451764209861</v>
+      </c>
+      <c r="D74">
+        <v>1.3275739434652094E-2</v>
+      </c>
+      <c r="E74">
+        <v>672.4359494534325</v>
+      </c>
+      <c r="F74">
+        <v>100.49085293808112</v>
+      </c>
+      <c r="G74">
+        <v>99.964568335816708</v>
+      </c>
+      <c r="H74">
+        <v>0.24591829866181578</v>
+      </c>
+      <c r="I74">
+        <v>1.3280444917297251E-2</v>
+      </c>
+      <c r="J74">
+        <v>6.9733333333333336</v>
+      </c>
+      <c r="K74">
+        <v>2.5385910352879595E-2</v>
+      </c>
+      <c r="L74" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>250</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>1.8424670844240463</v>
+      </c>
+      <c r="D75">
+        <v>9.4925630835149488E-2</v>
+      </c>
+      <c r="E75">
+        <v>1876.8884527803277</v>
+      </c>
+      <c r="F75">
+        <v>497.14252966044381</v>
+      </c>
+      <c r="G75">
+        <v>250.27100561772809</v>
+      </c>
+      <c r="H75">
+        <v>0.263811211420036</v>
+      </c>
+      <c r="I75">
+        <v>3.7929136298010542E-2</v>
+      </c>
+      <c r="J75">
+        <v>7.0166666666666666</v>
+      </c>
+      <c r="K75">
+        <v>2.5166114784235707E-2</v>
+      </c>
+      <c r="L75" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>500</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>3.647052296904814</v>
+      </c>
+      <c r="D76">
+        <v>2.8331988697368707E-2</v>
+      </c>
+      <c r="E76">
+        <v>3631.7808435077154</v>
+      </c>
+      <c r="F76">
+        <v>410.3670277910162</v>
+      </c>
+      <c r="G76">
+        <v>500.54201123545619</v>
+      </c>
+      <c r="H76">
+        <v>0.27137938174199899</v>
+      </c>
+      <c r="I76">
+        <v>5.6602618883954767E-3</v>
+      </c>
+      <c r="J76">
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="K76">
+        <v>3.2145502536643007E-2</v>
+      </c>
+      <c r="L76" s="1">
+        <v>42507</v>
+      </c>
+      <c r="M76" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
   <si>
     <t>Mineral</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Counts close to detection</t>
   </si>
   <si>
+    <t>Need solid counts</t>
+  </si>
+  <si>
     <t>Counts at detection</t>
   </si>
   <si>
@@ -99,9 +102,6 @@
   </si>
   <si>
     <t>Negative Cs, setting to 0</t>
-  </si>
-  <si>
-    <t>Pyrite</t>
   </si>
 </sst>
 </file>
@@ -701,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -845,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1106105993106226</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>4.3930737446564849E-3</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>1665.1142147738785</v>
@@ -1501,10 +1501,10 @@
         <v>49.953426443216358</v>
       </c>
       <c r="H19">
-        <v>0.77857254809866328</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>8.7943391624000951E-3</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>8.9166666666666661</v>
@@ -1513,10 +1513,13 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>42507</v>
+        <v>42481</v>
       </c>
       <c r="M19" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1568,31 +1571,31 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1.0694639980429503</v>
+        <v>4.4084674528744358E-2</v>
       </c>
       <c r="D21">
-        <v>0.23245961239056712</v>
+        <v>2.9860179390728075E-2</v>
       </c>
       <c r="E21">
-        <v>13107.312902868782</v>
+        <v>13998.532901237906</v>
       </c>
       <c r="F21">
-        <v>774.8653746352262</v>
+        <v>1891.3936416951028</v>
       </c>
       <c r="G21">
         <v>500.16578689035845</v>
       </c>
       <c r="H21">
-        <v>0.78617809812781381</v>
+        <v>0.83963357359586033</v>
       </c>
       <c r="I21">
-        <v>4.6476512085286893E-2</v>
+        <v>0.11344600278165595</v>
       </c>
       <c r="J21">
-        <v>8.913333333333334</v>
+        <v>8.9350000000000005</v>
       </c>
       <c r="K21">
-        <v>2.3094010767584539E-2</v>
+        <v>4.7258156262525892E-2</v>
       </c>
       <c r="L21" s="1">
         <v>42481</v>
@@ -1850,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2269,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -3113,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3157,7 +3160,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3280,627 +3283,6 @@
         <v>42481</v>
       </c>
       <c r="M61" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>10</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62">
-        <v>0.11242018013969272</v>
-      </c>
-      <c r="D62">
-        <v>7.6718982935510445E-3</v>
-      </c>
-      <c r="E62">
-        <v>-32.109879793362857</v>
-      </c>
-      <c r="F62">
-        <v>22.510987453477643</v>
-      </c>
-      <c r="G62">
-        <v>9.9964568335816697</v>
-      </c>
-      <c r="H62">
-        <v>-0.12460026598657603</v>
-      </c>
-      <c r="I62">
-        <v>7.6746175382645498E-2</v>
-      </c>
-      <c r="J62">
-        <v>2.9933333333333336</v>
-      </c>
-      <c r="K62">
-        <v>1.1547005383792526E-2</v>
-      </c>
-      <c r="L62" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>50</v>
-      </c>
-      <c r="B63" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63">
-        <v>0.41953747054964391</v>
-      </c>
-      <c r="D63">
-        <v>9.7009736427505835E-3</v>
-      </c>
-      <c r="E63">
-        <v>190.9178399471227</v>
-      </c>
-      <c r="F63">
-        <v>9.482450595268654</v>
-      </c>
-      <c r="G63">
-        <v>50.054201123545624</v>
-      </c>
-      <c r="H63">
-        <v>0.1618336500584116</v>
-      </c>
-      <c r="I63">
-        <v>1.9380937913295773E-2</v>
-      </c>
-      <c r="J63">
-        <v>3.0033333333333334</v>
-      </c>
-      <c r="K63">
-        <v>5.7735026918961348E-3</v>
-      </c>
-      <c r="L63" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>100</v>
-      </c>
-      <c r="B64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64">
-        <v>0.833696393431821</v>
-      </c>
-      <c r="D64">
-        <v>1.0256407414719036E-2</v>
-      </c>
-      <c r="E64">
-        <v>420.22702885612733</v>
-      </c>
-      <c r="F64">
-        <v>82.872614278368118</v>
-      </c>
-      <c r="G64">
-        <v>99.964568335816708</v>
-      </c>
-      <c r="H64">
-        <v>0.16600810936217236</v>
-      </c>
-      <c r="I64">
-        <v>1.026004271860013E-2</v>
-      </c>
-      <c r="J64">
-        <v>3.0033333333333334</v>
-      </c>
-      <c r="K64">
-        <v>8.3333333333332742E-3</v>
-      </c>
-      <c r="L64" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>250</v>
-      </c>
-      <c r="B65" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65">
-        <v>2.0538866741721384</v>
-      </c>
-      <c r="D65">
-        <v>7.088982575508887E-2</v>
-      </c>
-      <c r="E65">
-        <v>1112.8077588728913</v>
-      </c>
-      <c r="F65">
-        <v>323.28915521995827</v>
-      </c>
-      <c r="G65">
-        <v>250.27100561772809</v>
-      </c>
-      <c r="H65">
-        <v>0.17933494968677652</v>
-      </c>
-      <c r="I65">
-        <v>2.8325225121510159E-2</v>
-      </c>
-      <c r="J65">
-        <v>2.9933333333333336</v>
-      </c>
-      <c r="K65">
-        <v>1.1547005383792526E-2</v>
-      </c>
-      <c r="L65" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>500</v>
-      </c>
-      <c r="B66" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66">
-        <v>4.1755059952216032</v>
-      </c>
-      <c r="D66">
-        <v>1.7745760664004854E-2</v>
-      </c>
-      <c r="E66">
-        <v>2084.8448916576158</v>
-      </c>
-      <c r="F66">
-        <v>332.61036931889845</v>
-      </c>
-      <c r="G66">
-        <v>500.54201123545619</v>
-      </c>
-      <c r="H66">
-        <v>0.16580308915220415</v>
-      </c>
-      <c r="I66">
-        <v>3.5453089382456219E-3</v>
-      </c>
-      <c r="J66">
-        <v>2.9933333333333336</v>
-      </c>
-      <c r="K66">
-        <v>1.1547005383792526E-2</v>
-      </c>
-      <c r="L66" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67">
-        <v>0.10124247463533986</v>
-      </c>
-      <c r="D67">
-        <v>3.7540433112101287E-3</v>
-      </c>
-      <c r="E67">
-        <v>-3.4943104645756319E-3</v>
-      </c>
-      <c r="F67">
-        <v>1.0620510693609002E-2</v>
-      </c>
-      <c r="G67">
-        <v>9.9964568335816697</v>
-      </c>
-      <c r="H67">
-        <v>-1.2783592434773757E-2</v>
-      </c>
-      <c r="I67">
-        <v>3.7553739026801571E-2</v>
-      </c>
-      <c r="J67">
-        <v>5.0233333333333334</v>
-      </c>
-      <c r="K67">
-        <v>4.6188021535170098E-2</v>
-      </c>
-      <c r="L67" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M67" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>50</v>
-      </c>
-      <c r="B68" t="s">
-        <v>25</v>
-      </c>
-      <c r="C68">
-        <v>0.41857660141488501</v>
-      </c>
-      <c r="D68">
-        <v>7.2824632120762371E-3</v>
-      </c>
-      <c r="E68">
-        <v>0.22811155763969623</v>
-      </c>
-      <c r="F68">
-        <v>2.5486046404292424E-2</v>
-      </c>
-      <c r="G68">
-        <v>50.054201123545624</v>
-      </c>
-      <c r="H68">
-        <v>0.16375330737626048</v>
-      </c>
-      <c r="I68">
-        <v>1.4549154813401913E-2</v>
-      </c>
-      <c r="J68">
-        <v>4.99</v>
-      </c>
-      <c r="K68">
-        <v>2.6457513110645845E-2</v>
-      </c>
-      <c r="L68" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69">
-        <v>0.80130253525997552</v>
-      </c>
-      <c r="D69">
-        <v>5.3444980326268288E-3</v>
-      </c>
-      <c r="E69">
-        <v>0.4851895891200817</v>
-      </c>
-      <c r="F69">
-        <v>8.9480519409142076E-2</v>
-      </c>
-      <c r="G69">
-        <v>99.964568335816708</v>
-      </c>
-      <c r="H69">
-        <v>0.19841344928523677</v>
-      </c>
-      <c r="I69">
-        <v>5.3463923484096433E-3</v>
-      </c>
-      <c r="J69">
-        <v>4.9933333333333332</v>
-      </c>
-      <c r="K69">
-        <v>3.4278273002005234E-2</v>
-      </c>
-      <c r="L69" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>250</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>2.001963252193812</v>
-      </c>
-      <c r="D70">
-        <v>3.2713806966716524E-2</v>
-      </c>
-      <c r="E70">
-        <v>1.3872217128592321</v>
-      </c>
-      <c r="F70">
-        <v>0.10820692302913817</v>
-      </c>
-      <c r="G70">
-        <v>250.27100561772809</v>
-      </c>
-      <c r="H70">
-        <v>0.20008182839538591</v>
-      </c>
-      <c r="I70">
-        <v>1.307135314615092E-2</v>
-      </c>
-      <c r="J70">
-        <v>5.0366666666666662</v>
-      </c>
-      <c r="K70">
-        <v>1.5275252316519626E-2</v>
-      </c>
-      <c r="L70" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>500</v>
-      </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71">
-        <v>3.8313040213701197</v>
-      </c>
-      <c r="D71">
-        <v>2.1103755052666741E-2</v>
-      </c>
-      <c r="E71">
-        <v>2.9951701716397268</v>
-      </c>
-      <c r="F71">
-        <v>0.63458368877856852</v>
-      </c>
-      <c r="G71">
-        <v>500.54201123545619</v>
-      </c>
-      <c r="H71">
-        <v>0.23456894019473931</v>
-      </c>
-      <c r="I71">
-        <v>4.2161805760474614E-3</v>
-      </c>
-      <c r="J71">
-        <v>5.0133333333333328</v>
-      </c>
-      <c r="K71">
-        <v>4.1633319989322265E-2</v>
-      </c>
-      <c r="L71" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72">
-        <v>9.5388065223556875E-2</v>
-      </c>
-      <c r="D72">
-        <v>3.7561378736788659E-3</v>
-      </c>
-      <c r="E72">
-        <v>12.043120616528645</v>
-      </c>
-      <c r="F72">
-        <v>10.865681430578073</v>
-      </c>
-      <c r="G72">
-        <v>9.9964568335816697</v>
-      </c>
-      <c r="H72">
-        <v>4.5781252182130312E-2</v>
-      </c>
-      <c r="I72">
-        <v>3.757469207550275E-2</v>
-      </c>
-      <c r="J72">
-        <v>6.9733333333333336</v>
-      </c>
-      <c r="K72">
-        <v>3.2145502536643E-2</v>
-      </c>
-      <c r="L72" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>50</v>
-      </c>
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73">
-        <v>0.38653546735579836</v>
-      </c>
-      <c r="D73">
-        <v>3.1693400658234991E-3</v>
-      </c>
-      <c r="E73">
-        <v>314.73106445421786</v>
-      </c>
-      <c r="F73">
-        <v>23.973608419002769</v>
-      </c>
-      <c r="G73">
-        <v>50.054201123545624</v>
-      </c>
-      <c r="H73">
-        <v>0.22776618409764002</v>
-      </c>
-      <c r="I73">
-        <v>6.3318163004956254E-3</v>
-      </c>
-      <c r="J73">
-        <v>6.9833333333333334</v>
-      </c>
-      <c r="K73">
-        <v>3.0550504633038766E-2</v>
-      </c>
-      <c r="L73" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74">
-        <v>0.75381451764209861</v>
-      </c>
-      <c r="D74">
-        <v>1.3275739434652094E-2</v>
-      </c>
-      <c r="E74">
-        <v>672.4359494534325</v>
-      </c>
-      <c r="F74">
-        <v>100.49085293808112</v>
-      </c>
-      <c r="G74">
-        <v>99.964568335816708</v>
-      </c>
-      <c r="H74">
-        <v>0.24591829866181578</v>
-      </c>
-      <c r="I74">
-        <v>1.3280444917297251E-2</v>
-      </c>
-      <c r="J74">
-        <v>6.9733333333333336</v>
-      </c>
-      <c r="K74">
-        <v>2.5385910352879595E-2</v>
-      </c>
-      <c r="L74" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>250</v>
-      </c>
-      <c r="B75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C75">
-        <v>1.8424670844240463</v>
-      </c>
-      <c r="D75">
-        <v>9.4925630835149488E-2</v>
-      </c>
-      <c r="E75">
-        <v>1876.8884527803277</v>
-      </c>
-      <c r="F75">
-        <v>497.14252966044381</v>
-      </c>
-      <c r="G75">
-        <v>250.27100561772809</v>
-      </c>
-      <c r="H75">
-        <v>0.263811211420036</v>
-      </c>
-      <c r="I75">
-        <v>3.7929136298010542E-2</v>
-      </c>
-      <c r="J75">
-        <v>7.0166666666666666</v>
-      </c>
-      <c r="K75">
-        <v>2.5166114784235707E-2</v>
-      </c>
-      <c r="L75" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>500</v>
-      </c>
-      <c r="B76" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76">
-        <v>3.647052296904814</v>
-      </c>
-      <c r="D76">
-        <v>2.8331988697368707E-2</v>
-      </c>
-      <c r="E76">
-        <v>3631.7808435077154</v>
-      </c>
-      <c r="F76">
-        <v>410.3670277910162</v>
-      </c>
-      <c r="G76">
-        <v>500.54201123545619</v>
-      </c>
-      <c r="H76">
-        <v>0.27137938174199899</v>
-      </c>
-      <c r="I76">
-        <v>5.6602618883954767E-3</v>
-      </c>
-      <c r="J76">
-        <v>6.9833333333333334</v>
-      </c>
-      <c r="K76">
-        <v>3.2145502536643007E-2</v>
-      </c>
-      <c r="L76" s="1">
-        <v>42507</v>
-      </c>
-      <c r="M76" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="27">
   <si>
     <t>Mineral</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Pyrite</t>
+  </si>
+  <si>
+    <t>Counts below detection</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
   <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1431,10 +1434,13 @@
         <v>1.527525231651914E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>42481</v>
+        <v>42507</v>
       </c>
       <c r="M17" t="b">
         <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1472,7 +1478,7 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>42481</v>
+        <v>42507</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1492,10 +1498,10 @@
         <v>4.3930737446564849E-3</v>
       </c>
       <c r="E19">
-        <v>1665.1142147738785</v>
+        <v>1296.4122170718033</v>
       </c>
       <c r="F19">
-        <v>2.7847474288855413E-13</v>
+        <v>14.643579148855034</v>
       </c>
       <c r="G19">
         <v>49.953426443216358</v>
@@ -1533,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>3295.8495237487973</v>
+        <v>2623.7646921398959</v>
       </c>
       <c r="F20">
-        <v>52.253818327660468</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>99.780548394793726</v>
       </c>
       <c r="H20">
-        <v>0.99092946774807411</v>
+        <v>0.78886057483628635</v>
       </c>
       <c r="I20">
-        <v>1.571062271202759E-2</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>8.8633333333333333</v>
@@ -1554,7 +1560,7 @@
         <v>5.0332229568471415E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>42488</v>
+        <v>42507</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1568,34 +1574,34 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>1.0694639980429503</v>
+        <v>0.82945425208510437</v>
       </c>
       <c r="D21">
-        <v>0.23245961239056712</v>
+        <v>0.51618184155151592</v>
       </c>
       <c r="E21">
-        <v>13107.312902868782</v>
+        <v>13907.345389394934</v>
       </c>
       <c r="F21">
-        <v>774.8653746352262</v>
+        <v>1720.6061385050698</v>
       </c>
       <c r="G21">
         <v>500.16578689035845</v>
       </c>
       <c r="H21">
-        <v>0.78617809812781381</v>
+        <v>0.83416413640724907</v>
       </c>
       <c r="I21">
-        <v>4.6476512085286893E-2</v>
+        <v>0.10320214918352018</v>
       </c>
       <c r="J21">
-        <v>8.913333333333334</v>
+        <v>8.9350000000000005</v>
       </c>
       <c r="K21">
-        <v>2.3094010767584539E-2</v>
+        <v>4.7258156262525892E-2</v>
       </c>
       <c r="L21" s="1">
-        <v>42481</v>
+        <v>42507</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Mineral</t>
   </si>
@@ -92,19 +92,19 @@
     <t>Total Activity</t>
   </si>
   <si>
-    <t>Negative Cs, Counts below detection</t>
-  </si>
-  <si>
-    <t>Negative Cs, counts below detection</t>
-  </si>
-  <si>
-    <t>Negative Cs, setting to 0</t>
-  </si>
-  <si>
     <t>Pyrite</t>
   </si>
   <si>
     <t>Counts below detection</t>
+  </si>
+  <si>
+    <t>Solution counts from Scint, Solid counts from Gamma except for 1</t>
+  </si>
+  <si>
+    <t>Solid counted, mass found by matching to expected solution results (non-detect/detect)</t>
+  </si>
+  <si>
+    <t>Anamalous Points</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21:D21"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7:K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5.3883359913302925E-2</v>
+        <v>4.2192194067775357E-2</v>
       </c>
       <c r="D2">
-        <v>1.3700547722364462E-2</v>
+        <v>2.3215701068336071E-2</v>
       </c>
       <c r="E2">
-        <v>-12.889270747556925</v>
+        <v>-50.432807795292696</v>
       </c>
       <c r="F2">
-        <v>45.668492407881679</v>
+        <v>77.385670227786889</v>
       </c>
       <c r="G2">
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="H2">
-        <v>-7.7309990519497829E-2</v>
+        <v>-7.6568566758661485E-2</v>
       </c>
       <c r="I2">
-        <v>0.27392012971426627</v>
+        <v>0.27382617504009016</v>
       </c>
       <c r="J2">
         <v>3.06</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M2" t="b">
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -815,40 +815,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.12208778553629288</v>
+        <v>7.5896562998217273E-2</v>
       </c>
       <c r="D3">
-        <v>1.2529808828009956E-3</v>
+        <v>1.7104717307201752E-2</v>
       </c>
       <c r="E3">
-        <v>-74.357457138330489</v>
+        <v>-73.028460279763181</v>
       </c>
       <c r="F3">
-        <v>4.1766029426699731</v>
+        <v>57.015724357339344</v>
       </c>
       <c r="G3">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H3">
-        <v>-0.22356298397196495</v>
+        <v>-0.40580365958397396</v>
       </c>
       <c r="I3">
-        <v>1.2557366169640812E-2</v>
+        <v>0.31682428342872976</v>
       </c>
       <c r="J3">
-        <v>3.08</v>
+        <v>3.0733333333333328</v>
       </c>
       <c r="K3">
-        <v>4.2426406871192889E-2</v>
+        <v>3.2145502536643167E-2</v>
       </c>
       <c r="L3" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M3" t="b">
-        <v>0</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -859,40 +856,37 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.50856080855434382</v>
+        <v>0.26562884439797163</v>
       </c>
       <c r="D4">
-        <v>7.8949851631570384E-3</v>
+        <v>1.6614263602304405E-2</v>
       </c>
       <c r="E4">
-        <v>-30.088480407267681</v>
+        <v>15.509921778956345</v>
       </c>
       <c r="F4">
-        <v>26.316617210523482</v>
+        <v>55.380878674348011</v>
       </c>
       <c r="G4">
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.7215277437632109E-2</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>6.1470148251314922E-2</v>
       </c>
       <c r="J4">
-        <v>3.05</v>
+        <v>3.0399999999999996</v>
       </c>
       <c r="K4">
-        <v>2.8284271247461926E-2</v>
+        <v>2.6457513110645845E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>42488</v>
+        <v>42513</v>
       </c>
       <c r="M4" t="b">
         <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -903,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.93075275244667599</v>
+        <v>0.50341738692717375</v>
       </c>
       <c r="D5">
-        <v>7.4942886336036491E-2</v>
+        <v>4.053526157533259E-2</v>
       </c>
       <c r="E5">
-        <v>223.50910500420409</v>
+        <v>121.54287405236458</v>
       </c>
       <c r="F5">
-        <v>249.80962112012156</v>
+        <v>135.117538584442</v>
       </c>
       <c r="G5">
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H5">
-        <v>6.7200203426382304E-2</v>
+        <v>6.7538796378637703E-2</v>
       </c>
       <c r="I5">
-        <v>7.5107711414369019E-2</v>
+        <v>7.5081949450246807E-2</v>
       </c>
       <c r="J5">
         <v>3.07</v>
@@ -930,7 +924,7 @@
         <v>8.660254037844381E-2</v>
       </c>
       <c r="L5" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M5" t="b">
         <v>1</v>
@@ -944,25 +938,25 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>4.7094121743765394</v>
+        <v>2.5472264201852171</v>
       </c>
       <c r="D6">
-        <v>0.26622209447777817</v>
+        <v>0.1439947507279376</v>
       </c>
       <c r="E6">
-        <v>974.15231509015098</v>
+        <v>530.02917577846085</v>
       </c>
       <c r="F6">
-        <v>887.40698159259387</v>
+        <v>479.98250242645872</v>
       </c>
       <c r="G6">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H6">
-        <v>5.8429765127279404E-2</v>
+        <v>5.8756443018971836E-2</v>
       </c>
       <c r="I6">
-        <v>5.3226770294093881E-2</v>
+        <v>5.320851349834279E-2</v>
       </c>
       <c r="J6">
         <v>3.0625</v>
@@ -971,7 +965,7 @@
         <v>3.3040379335998273E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M6" t="b">
         <v>1</v>
@@ -985,25 +979,25 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>7.0798734834039215E-2</v>
+        <v>3.2519941103083323E-2</v>
       </c>
       <c r="D7">
-        <v>1.5951294987565038E-2</v>
+        <v>6.2426083986676451E-3</v>
       </c>
       <c r="E7">
-        <v>-69.273853816677928</v>
+        <v>-18.191964579652574</v>
       </c>
       <c r="F7">
-        <v>53.17098329188336</v>
+        <v>20.80869466222557</v>
       </c>
       <c r="G7">
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="H7">
-        <v>-0.41550535221952406</v>
+        <v>-0.20166722495183589</v>
       </c>
       <c r="I7">
-        <v>0.31892015419002845</v>
+        <v>0.23067501528090892</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1012,13 +1006,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M7" t="b">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1029,25 +1020,25 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.11273641555113256</v>
+        <v>5.2359599749640114E-2</v>
       </c>
       <c r="D8">
-        <v>7.973344831158264E-3</v>
+        <v>5.7003906421651557E-3</v>
       </c>
       <c r="E8">
-        <v>-43.18622385446281</v>
+        <v>5.4280838821606574</v>
       </c>
       <c r="F8">
-        <v>26.577816103860869</v>
+        <v>19.001302140550514</v>
       </c>
       <c r="G8">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H8">
-        <v>-0.12984361546177711</v>
+        <v>3.0162710475767435E-2</v>
       </c>
       <c r="I8">
-        <v>7.9908809476680429E-2</v>
+        <v>0.10558620455582746</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1056,13 +1047,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M8" t="b">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1073,25 +1061,25 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.46521727030210852</v>
+        <v>0.20040871702034421</v>
       </c>
       <c r="D9">
-        <v>1.3932760395624804E-3</v>
+        <v>7.5711995273725463E-2</v>
       </c>
       <c r="E9">
-        <v>114.38998043351691</v>
+        <v>232.91034637104772</v>
       </c>
       <c r="F9">
-        <v>4.6442534652083136</v>
+        <v>252.37331757908467</v>
       </c>
       <c r="G9">
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="H9">
-        <v>6.8697978444109908E-2</v>
+        <v>0.25851943601113264</v>
       </c>
       <c r="I9">
-        <v>2.7891500919286767E-3</v>
+        <v>0.28012241079606082</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1100,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -1114,25 +1102,25 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.92672636459717539</v>
+        <v>0.48461522514543365</v>
       </c>
       <c r="D10">
-        <v>1.576362574960196E-2</v>
+        <v>6.7959977501042025E-3</v>
       </c>
       <c r="E10">
-        <v>236.93039783587344</v>
+        <v>184.21674665816465</v>
       </c>
       <c r="F10">
-        <v>52.545419165340107</v>
+        <v>22.653325833680704</v>
       </c>
       <c r="G10">
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H10">
-        <v>7.1235446681981493E-2</v>
+        <v>0.10236533765624593</v>
       </c>
       <c r="I10">
-        <v>1.5798295362369978E-2</v>
+        <v>1.2587972538157445E-2</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1141,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
@@ -1155,25 +1143,25 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>4.5185395704495752</v>
+        <v>2.3676649545579718</v>
       </c>
       <c r="D11">
-        <v>0.1724124772218131</v>
+        <v>0.1309641873132579</v>
       </c>
       <c r="E11">
-        <v>1610.3943281800314</v>
+        <v>1128.5673945359458</v>
       </c>
       <c r="F11">
-        <v>619.90837632356806</v>
+        <v>413.30751725734325</v>
       </c>
       <c r="G11">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H11">
-        <v>9.6591632438048775E-2</v>
+        <v>0.12510746358958363</v>
       </c>
       <c r="I11">
-        <v>3.7182173945423704E-2</v>
+        <v>4.5817250628471216E-2</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1182,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
@@ -1196,25 +1184,25 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.1908805563947549E-2</v>
+        <v>2.2657655776846464E-2</v>
       </c>
       <c r="D12">
-        <v>2.6282209825503992E-3</v>
+        <v>1.4215575381999962E-3</v>
       </c>
       <c r="E12">
-        <v>27.025910416960965</v>
+        <v>14.68231984113695</v>
       </c>
       <c r="F12">
-        <v>8.7607366085013467</v>
+        <v>4.7385251273333138</v>
       </c>
       <c r="G12">
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="H12">
-        <v>0.1621017138236526</v>
+        <v>0.16276101930899409</v>
       </c>
       <c r="I12">
-        <v>5.25469964447315E-2</v>
+        <v>5.2528972811583259E-2</v>
       </c>
       <c r="J12">
         <v>6.9600000000000009</v>
@@ -1223,13 +1211,13 @@
         <v>4.3588989435406622E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M12" t="b">
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1240,25 +1228,25 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>5.8605427142946975E-2</v>
+        <v>3.168855859121595E-2</v>
       </c>
       <c r="D13">
-        <v>5.4066803045464485E-3</v>
+        <v>2.9243762965879389E-3</v>
       </c>
       <c r="E13">
-        <v>137.25040417282256</v>
+        <v>74.331554410241196</v>
       </c>
       <c r="F13">
-        <v>18.022267681821585</v>
+        <v>9.7479209886265412</v>
       </c>
       <c r="G13">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H13">
-        <v>0.41265679447794223</v>
+        <v>0.41304467719415777</v>
       </c>
       <c r="I13">
-        <v>5.4185714465651215E-2</v>
+        <v>5.4167128751805425E-2</v>
       </c>
       <c r="J13">
         <v>6.9333333333333336</v>
@@ -1267,13 +1255,10 @@
         <v>2.8867513459481187E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
-      </c>
-      <c r="N13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1284,25 +1269,25 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.21878778521253495</v>
+        <v>0.11832831990211896</v>
       </c>
       <c r="D14">
-        <v>9.3320537266321259E-3</v>
+        <v>5.0475402981936647E-3</v>
       </c>
       <c r="E14">
-        <v>935.82159739876215</v>
+        <v>506.51167009846523</v>
       </c>
       <c r="F14">
-        <v>31.106845755440439</v>
+        <v>16.825134327312245</v>
       </c>
       <c r="G14">
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="H14">
-        <v>0.56201646055003274</v>
+        <v>0.56220392664870122</v>
       </c>
       <c r="I14">
-        <v>1.8681508739425822E-2</v>
+        <v>1.8675100977175844E-2</v>
       </c>
       <c r="J14">
         <v>6.9833333333333334</v>
@@ -1311,7 +1296,7 @@
         <v>5.5075705472860871E-2</v>
       </c>
       <c r="L14" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
@@ -1325,25 +1310,25 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.46091464427146084</v>
+        <v>0.24929039043619494</v>
       </c>
       <c r="D15">
-        <v>2.9233942369872853E-2</v>
+        <v>1.5812114515146171E-2</v>
       </c>
       <c r="E15">
-        <v>1789.6361322549212</v>
+        <v>968.63286235562691</v>
       </c>
       <c r="F15">
-        <v>97.446474566242927</v>
+        <v>52.70704838382057</v>
       </c>
       <c r="G15">
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H15">
-        <v>0.53807164654197259</v>
+        <v>0.53824873046945176</v>
       </c>
       <c r="I15">
-        <v>2.9298237823072754E-2</v>
+        <v>2.9288188520046055E-2</v>
       </c>
       <c r="J15">
         <v>6.9600000000000009</v>
@@ -1352,7 +1337,7 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="L15" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
@@ -1366,34 +1351,34 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>2.9531902476293976</v>
+        <v>1.524268101940466</v>
       </c>
       <c r="D16">
-        <v>0.22307387751754507</v>
+        <v>0.17621072233870819</v>
       </c>
       <c r="E16">
-        <v>6828.2254042472896</v>
+        <v>3939.8902365942981</v>
       </c>
       <c r="F16">
-        <v>743.57959172515041</v>
+        <v>587.3690744623666</v>
       </c>
       <c r="G16">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H16">
-        <v>0.40955772565132137</v>
+        <v>0.4367569687979122</v>
       </c>
       <c r="I16">
-        <v>4.4599987317094351E-2</v>
+        <v>6.511286384200668E-2</v>
       </c>
       <c r="J16">
-        <v>7.003333333333333</v>
+        <v>6.9950000000000001</v>
       </c>
       <c r="K16">
-        <v>3.5118845842842597E-2</v>
+        <v>3.3166247903554144E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>42466</v>
+        <v>42513</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1407,25 +1392,25 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1.3495179073358524E-2</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4.1461435671810639E-4</v>
       </c>
       <c r="E17">
-        <v>166.72192896345283</v>
+        <v>45.223908852763429</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1.3820478557270199</v>
       </c>
       <c r="G17">
-        <v>5.0016578689035844</v>
+        <v>2.7062351729187553</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0.50133014276052101</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.532070682057291E-2</v>
       </c>
       <c r="J17">
         <v>8.9166666666666661</v>
@@ -1434,13 +1419,13 @@
         <v>1.527525231651914E-2</v>
       </c>
       <c r="L17" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1451,25 +1436,25 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>2.5157159113700759E-2</v>
+        <v>-2.4731975085711691E-2</v>
       </c>
       <c r="D18">
-        <v>6.4497970238454989E-4</v>
+        <v>3.5690521617557413E-3</v>
       </c>
       <c r="E18">
-        <v>231.14844727193267</v>
+        <v>262.39999999999998</v>
       </c>
       <c r="F18">
-        <v>14.643579148855018</v>
+        <v>11.896840539185801</v>
       </c>
       <c r="G18">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H18">
-        <v>0.69497046565839493</v>
+        <v>1.4581011275181173</v>
       </c>
       <c r="I18">
-        <v>4.4027356186446098E-2</v>
+        <v>6.6108218765587104E-2</v>
       </c>
       <c r="J18">
         <v>8.9066666666666663</v>
@@ -1478,10 +1463,13 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1492,25 +1480,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1106105993106226</v>
+        <v>-1.2207067957230358E-2</v>
       </c>
       <c r="D19">
-        <v>4.3930737446564849E-3</v>
+        <v>4.2715250117406709E-3</v>
       </c>
       <c r="E19">
-        <v>1296.4122170718033</v>
+        <v>941.62962962962968</v>
       </c>
       <c r="F19">
-        <v>14.643579148855034</v>
+        <v>14.23841670580221</v>
       </c>
       <c r="G19">
-        <v>49.953426443216358</v>
+        <v>27.028182093165853</v>
       </c>
       <c r="H19">
-        <v>0.77857254809866328</v>
+        <v>1.0451642212382346</v>
       </c>
       <c r="I19">
-        <v>8.7943391624000951E-3</v>
+        <v>1.580396712223104E-2</v>
       </c>
       <c r="J19">
         <v>8.9166666666666661</v>
@@ -1519,10 +1507,13 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1533,25 +1524,25 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>0.21067607630596855</v>
+        <v>1.5080249142883015E-2</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1.2356914393704153E-2</v>
       </c>
       <c r="E20">
-        <v>2623.7646921398959</v>
+        <v>1749.3333333333333</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>41.189714645680461</v>
       </c>
       <c r="G20">
-        <v>99.780548394793726</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H20">
-        <v>0.78886057483628635</v>
+        <v>0.97206741834541177</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.288825052096655E-2</v>
       </c>
       <c r="J20">
         <v>8.8633333333333333</v>
@@ -1560,10 +1551,13 @@
         <v>5.0332229568471415E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1574,25 +1568,25 @@
         <v>10</v>
       </c>
       <c r="C21">
-        <v>0.82945425208510437</v>
+        <v>3.8641005125916991E-2</v>
       </c>
       <c r="D21">
-        <v>0.51618184155151592</v>
+        <v>1.3991056693009167E-2</v>
       </c>
       <c r="E21">
-        <v>13907.345389394934</v>
+        <v>8548.0966523683819</v>
       </c>
       <c r="F21">
-        <v>1720.6061385050698</v>
+        <v>348.8275924635368</v>
       </c>
       <c r="G21">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H21">
-        <v>0.83416413640724907</v>
+        <v>0.94760020170187265</v>
       </c>
       <c r="I21">
-        <v>0.10320214918352018</v>
+        <v>3.8669321419762176E-2</v>
       </c>
       <c r="J21">
         <v>8.9350000000000005</v>
@@ -1601,10 +1595,13 @@
         <v>4.7258156262525892E-2</v>
       </c>
       <c r="L21" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1615,25 +1612,25 @@
         <v>9</v>
       </c>
       <c r="C22">
-        <v>7.4166349628761244E-2</v>
+        <v>4.009511750291736E-2</v>
       </c>
       <c r="D22">
-        <v>1.4343974114763502E-3</v>
+        <v>7.7583980441403762E-4</v>
       </c>
       <c r="E22">
-        <v>84.471945264447172</v>
+        <v>45.81678672857678</v>
       </c>
       <c r="F22">
-        <v>5.2848257904152431</v>
+        <v>2.8595454271303784</v>
       </c>
       <c r="G22">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H22">
-        <v>0.25670533163123971</v>
+        <v>0.25733312958618892</v>
       </c>
       <c r="I22">
-        <v>1.4375521427292462E-2</v>
+        <v>1.4370590619785828E-2</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1642,7 +1639,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M22" t="b">
         <v>0</v>
@@ -1659,25 +1656,25 @@
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.18685562220528973</v>
+        <v>0.1010467216370519</v>
       </c>
       <c r="D23">
-        <v>1.4644490749085149E-2</v>
+        <v>7.9209420956910942E-3</v>
       </c>
       <c r="E23">
-        <v>1044.3334150120438</v>
+        <v>565.23771177090157</v>
       </c>
       <c r="F23">
-        <v>47.192777600615123</v>
+        <v>25.525320258834629</v>
       </c>
       <c r="G23">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H23">
-        <v>0.62641262736699255</v>
+        <v>0.62661514916284977</v>
       </c>
       <c r="I23">
-        <v>2.9279273258839181E-2</v>
+        <v>2.92692304606629E-2</v>
       </c>
       <c r="J23">
         <v>3.0033333333333334</v>
@@ -1686,7 +1683,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L23" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M23" t="b">
         <v>1</v>
@@ -1700,25 +1697,25 @@
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.35384008234594355</v>
+        <v>0.19136561782243044</v>
       </c>
       <c r="D24">
-        <v>1.7725886620733277E-2</v>
+        <v>9.5876137943810072E-3</v>
       </c>
       <c r="E24">
-        <v>2161.288396977659</v>
+        <v>1169.6910616768746</v>
       </c>
       <c r="F24">
-        <v>73.997069830033666</v>
+        <v>40.028305643201321</v>
       </c>
       <c r="G24">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H24">
-        <v>0.6453817021069751</v>
+        <v>0.64554062104282639</v>
       </c>
       <c r="I24">
-        <v>1.7764871917318702E-2</v>
+        <v>1.775877856173165E-2</v>
       </c>
       <c r="J24">
         <v>2.9966666666666666</v>
@@ -1727,7 +1724,7 @@
         <v>3.3333333333332624E-3</v>
       </c>
       <c r="L24" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M24" t="b">
         <v>1</v>
@@ -1741,25 +1738,25 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0.82387536984944532</v>
+        <v>0.44559926507160802</v>
       </c>
       <c r="D25">
-        <v>4.4699274704427784E-2</v>
+        <v>2.4177035085721967E-2</v>
       </c>
       <c r="E25">
-        <v>5547.0701875735294</v>
+        <v>3001.9133232309973</v>
       </c>
       <c r="F25">
-        <v>24.977677595139102</v>
+        <v>13.544823744443155</v>
       </c>
       <c r="G25">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H25">
-        <v>0.67055908602958991</v>
+        <v>0.67068696059329103</v>
       </c>
       <c r="I25">
-        <v>1.7873783403832187E-2</v>
+        <v>1.7867652691577633E-2</v>
       </c>
       <c r="J25">
         <v>2.9966666666666666</v>
@@ -1768,7 +1765,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L25" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M25" t="b">
         <v>1</v>
@@ -1782,25 +1779,25 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>1.677406908225902</v>
+        <v>0.90725914851606382</v>
       </c>
       <c r="D26">
-        <v>8.6074126604012272E-2</v>
+        <v>4.6555949568281095E-2</v>
       </c>
       <c r="E26">
-        <v>11067.578418993746</v>
+        <v>5989.412380760642</v>
       </c>
       <c r="F26">
-        <v>192.8770495703495</v>
+        <v>104.3001970650956</v>
       </c>
       <c r="G26">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H26">
-        <v>0.66462981831390089</v>
+        <v>0.66475228849473644</v>
       </c>
       <c r="I26">
-        <v>1.7209119228077205E-2</v>
+        <v>1.7203216495804061E-2</v>
       </c>
       <c r="J26">
         <v>2.9933333333333336</v>
@@ -1809,7 +1806,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L26" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M26" t="b">
         <v>1</v>
@@ -1823,25 +1820,25 @@
         <v>9</v>
       </c>
       <c r="C27">
-        <v>5.5338179747653204E-2</v>
+        <v>2.9911298485147241E-2</v>
       </c>
       <c r="D27">
-        <v>9.6975774665537427E-4</v>
+        <v>5.2452455259224405E-4</v>
       </c>
       <c r="E27">
-        <v>147.86533182286425</v>
+        <v>80.10626143658196</v>
       </c>
       <c r="F27">
-        <v>5.3233433646191424</v>
+        <v>2.881188699209408</v>
       </c>
       <c r="G27">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H27">
-        <v>0.44540112639288121</v>
+        <v>0.44596420164222378</v>
       </c>
       <c r="I27">
-        <v>9.7189057612553174E-3</v>
+        <v>9.7155721741067503E-3</v>
       </c>
       <c r="J27">
         <v>4.996666666666667</v>
@@ -1850,7 +1847,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L27" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M27" t="b">
         <v>0</v>
@@ -1867,25 +1864,25 @@
         <v>9</v>
       </c>
       <c r="C28">
-        <v>0.10452494912698194</v>
+        <v>5.6515538864903292E-2</v>
       </c>
       <c r="D28">
-        <v>4.3799109439461763E-3</v>
+        <v>2.3690151856901359E-3</v>
       </c>
       <c r="E28">
-        <v>1318.7827045484735</v>
+        <v>713.68240458191133</v>
       </c>
       <c r="F28">
-        <v>8.7077579239704779</v>
+        <v>4.7085629815691803</v>
       </c>
       <c r="G28">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H28">
-        <v>0.79101939423558598</v>
+        <v>0.79116545586853204</v>
       </c>
       <c r="I28">
-        <v>8.7569183233764617E-3</v>
+        <v>8.7539146981637939E-3</v>
       </c>
       <c r="J28">
         <v>4.996666666666667</v>
@@ -1894,7 +1891,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L28" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M28" t="b">
         <v>1</v>
@@ -1908,25 +1905,25 @@
         <v>9</v>
       </c>
       <c r="C29">
-        <v>0.18464197432521109</v>
+        <v>9.9849399246073722E-2</v>
       </c>
       <c r="D29">
-        <v>1.1157013391515754E-2</v>
+        <v>6.0346282126995283E-3</v>
       </c>
       <c r="E29">
-        <v>2728.6575691913972</v>
+        <v>1476.5708594783766</v>
       </c>
       <c r="F29">
-        <v>20.58447443567383</v>
+        <v>11.129795318766341</v>
       </c>
       <c r="G29">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H29">
-        <v>0.81495193472514005</v>
+        <v>0.81505269102806555</v>
       </c>
       <c r="I29">
-        <v>1.1181551485738172E-2</v>
+        <v>1.1177716210734004E-2</v>
       </c>
       <c r="J29">
         <v>5.01</v>
@@ -1935,7 +1932,7 @@
         <v>1.5898986690282339E-2</v>
       </c>
       <c r="L29" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M29" t="b">
         <v>1</v>
@@ -1949,25 +1946,25 @@
         <v>9</v>
       </c>
       <c r="C30">
-        <v>0.39587506626655689</v>
+        <v>0.21410158586210329</v>
       </c>
       <c r="D30">
-        <v>7.4152905847741897E-3</v>
+        <v>4.0107975313780683E-3</v>
       </c>
       <c r="E30">
-        <v>6966.8279292082225</v>
+        <v>3769.8347930916061</v>
       </c>
       <c r="F30">
-        <v>225.07844865808863</v>
+        <v>121.7887183696421</v>
       </c>
       <c r="G30">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H30">
-        <v>0.84170246080692568</v>
+        <v>0.84177163314954007</v>
       </c>
       <c r="I30">
-        <v>2.9651330735261717E-3</v>
+        <v>2.9641160321276392E-3</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -1976,7 +1973,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L30" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M30" t="b">
         <v>1</v>
@@ -1990,25 +1987,25 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>0.8171006343043693</v>
+        <v>0.44193493225965813</v>
       </c>
       <c r="D31">
-        <v>3.260070966438839E-2</v>
+        <v>1.7633138492452526E-2</v>
       </c>
       <c r="E31">
-        <v>13934.351711541385</v>
+        <v>7539.9985800903914</v>
       </c>
       <c r="F31">
-        <v>214.8904499346942</v>
+        <v>116.25925876852409</v>
       </c>
       <c r="G31">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H31">
-        <v>0.83663404100778971</v>
+        <v>0.83669751369648404</v>
       </c>
       <c r="I31">
-        <v>6.5179807413606019E-3</v>
+        <v>6.5157450723082218E-3</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -2017,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="L31" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M31" t="b">
         <v>1</v>
@@ -2031,25 +2028,25 @@
         <v>9</v>
       </c>
       <c r="C32">
-        <v>5.1044675892336029E-2</v>
+        <v>2.7589019342206169E-2</v>
       </c>
       <c r="D32">
-        <v>7.3823896264354561E-4</v>
+        <v>3.9930019937687921E-4</v>
       </c>
       <c r="E32">
-        <v>160.84386771033562</v>
+        <v>87.12511502472772</v>
       </c>
       <c r="F32">
-        <v>1.9295279264729173</v>
+        <v>1.0435857198489298</v>
       </c>
       <c r="G32">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H32">
-        <v>0.48843059380299619</v>
+        <v>0.4889789099340705</v>
       </c>
       <c r="I32">
-        <v>7.3986260300215644E-3</v>
+        <v>7.3960882994110431E-3</v>
       </c>
       <c r="J32">
         <v>7.003333333333333</v>
@@ -2058,7 +2055,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L32" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M32" t="b">
         <v>0</v>
@@ -2075,25 +2072,25 @@
         <v>9</v>
       </c>
       <c r="C33">
-        <v>8.7472562710112833E-2</v>
+        <v>4.7292209237698085E-2</v>
       </c>
       <c r="D33">
-        <v>4.7279276395631835E-3</v>
+        <v>2.5572511675038597E-3</v>
       </c>
       <c r="E33">
-        <v>1363.6653662285178</v>
+        <v>737.95538629449766</v>
       </c>
       <c r="F33">
-        <v>14.548676193040063</v>
+        <v>7.8745213384354669</v>
       </c>
       <c r="G33">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H33">
-        <v>0.82511286256913108</v>
+        <v>0.82524723013376533</v>
       </c>
       <c r="I33">
-        <v>9.4527210046848123E-3</v>
+        <v>9.4494787189754147E-3</v>
       </c>
       <c r="J33">
         <v>7</v>
@@ -2102,13 +2099,13 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L33" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M33" t="b">
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2119,25 +2116,25 @@
         <v>9</v>
       </c>
       <c r="C34">
-        <v>0.15020880317959293</v>
+        <v>8.1225115241353299E-2</v>
       </c>
       <c r="D34">
-        <v>1.0672014685630272E-2</v>
+        <v>5.7723011211245536E-3</v>
       </c>
       <c r="E34">
-        <v>2809.9521313065088</v>
+        <v>1520.5333658577395</v>
       </c>
       <c r="F34">
-        <v>31.131171986152911</v>
+        <v>16.846259671692582</v>
       </c>
       <c r="G34">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H34">
-        <v>0.84946083620900359</v>
+        <v>0.84954975594994109</v>
       </c>
       <c r="I34">
-        <v>1.0695486101564754E-2</v>
+        <v>1.0691817547111021E-2</v>
       </c>
       <c r="J34">
         <v>7</v>
@@ -2146,7 +2143,7 @@
         <v>6.6666666666665248E-3</v>
       </c>
       <c r="L34" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M34" t="b">
         <v>1</v>
@@ -2160,25 +2157,25 @@
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0.35656457204450182</v>
+        <v>0.19283924538055733</v>
       </c>
       <c r="D35">
-        <v>7.0245567647995062E-3</v>
+        <v>3.7994566240105191E-3</v>
       </c>
       <c r="E35">
-        <v>7136.0057742940289</v>
+        <v>3861.3488482563212</v>
       </c>
       <c r="F35">
-        <v>228.34608993983306</v>
+        <v>123.55453666289652</v>
       </c>
       <c r="G35">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H35">
-        <v>0.85742144649223506</v>
+        <v>0.85748522721876064</v>
       </c>
       <c r="I35">
-        <v>2.8088913511948605E-3</v>
+        <v>2.8079279007468959E-3</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -2187,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M35" t="b">
         <v>1</v>
@@ -2201,25 +2198,25 @@
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0.68580212405465169</v>
+        <v>0.37091792560795961</v>
       </c>
       <c r="D36">
-        <v>8.539320769903222E-2</v>
+        <v>4.6187652758878518E-2</v>
       </c>
       <c r="E36">
-        <v>14291.660617372841</v>
+        <v>7733.2430663175719</v>
       </c>
       <c r="F36">
-        <v>311.79053878421462</v>
+        <v>168.65322102965578</v>
       </c>
       <c r="G36">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H36">
-        <v>0.86288503891510937</v>
+        <v>0.86293950750484349</v>
       </c>
       <c r="I36">
-        <v>1.7072980587085018E-2</v>
+        <v>1.7067124550400308E-2</v>
       </c>
       <c r="J36">
         <v>7.003333333333333</v>
@@ -2228,7 +2225,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L36" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M36" t="b">
         <v>1</v>
@@ -2242,25 +2239,25 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>5.0837906584856124E-2</v>
+        <v>2.7477181536455439E-2</v>
       </c>
       <c r="D37">
-        <v>4.0137571451975933E-3</v>
+        <v>2.1709691704549471E-3</v>
       </c>
       <c r="E37">
-        <v>162.02794026550467</v>
+        <v>87.765982918661919</v>
       </c>
       <c r="F37">
-        <v>12.616808131732755</v>
+        <v>6.8236842995343849</v>
       </c>
       <c r="G37">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H37">
-        <v>0.49050283444314385</v>
+        <v>0.49105043979515156</v>
       </c>
       <c r="I37">
-        <v>4.0225847720506386E-2</v>
+        <v>4.0212050244504943E-2</v>
       </c>
       <c r="J37">
         <v>8.9933333333333341</v>
@@ -2269,7 +2266,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L37" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M37" t="b">
         <v>0</v>
@@ -2286,25 +2283,25 @@
         <v>9</v>
       </c>
       <c r="C38">
-        <v>8.6292761367433649E-2</v>
+        <v>4.6654075875473489E-2</v>
       </c>
       <c r="D38">
-        <v>3.5724159247152174E-3</v>
+        <v>1.932255628838561E-3</v>
       </c>
       <c r="E38">
-        <v>1378.0434653660141</v>
+        <v>745.73507453008813</v>
       </c>
       <c r="F38">
-        <v>4.5343052258382404</v>
+        <v>2.4522627795397813</v>
       </c>
       <c r="G38">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H38">
-        <v>0.8274716831314376</v>
+        <v>0.82760524162001892</v>
       </c>
       <c r="I38">
-        <v>7.142463595772342E-3</v>
+        <v>7.1400137289420263E-3</v>
       </c>
       <c r="J38">
         <v>9.0033333333333321</v>
@@ -2313,7 +2310,7 @@
         <v>1.527525231651914E-2</v>
       </c>
       <c r="L38" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M38" t="b">
         <v>0</v>
@@ -2330,25 +2327,25 @@
         <v>9</v>
       </c>
       <c r="C39">
-        <v>0.1388121654673202</v>
+        <v>7.5060878536152661E-2</v>
       </c>
       <c r="D39">
-        <v>3.1608567875554558E-3</v>
+        <v>1.709650681336478E-3</v>
       </c>
       <c r="E39">
-        <v>2819.6987749865784</v>
+        <v>1525.7983955330426</v>
       </c>
       <c r="F39">
-        <v>28.129890242582498</v>
+        <v>15.223770471881075</v>
       </c>
       <c r="G39">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H39">
-        <v>0.86088253903146228</v>
+        <v>0.86096754112542595</v>
       </c>
       <c r="I39">
-        <v>3.1678085943656039E-3</v>
+        <v>3.1667220352119148E-3</v>
       </c>
       <c r="J39">
         <v>8.9966666666666679</v>
@@ -2357,7 +2354,7 @@
         <v>1.130388330520854E-2</v>
       </c>
       <c r="L39" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M39" t="b">
         <v>1</v>
@@ -2371,25 +2368,25 @@
         <v>9</v>
       </c>
       <c r="C40">
-        <v>0.27227567199535541</v>
+        <v>0.14724889280100512</v>
       </c>
       <c r="D40">
-        <v>2.4074700209117249E-2</v>
+        <v>1.3021573067636575E-2</v>
       </c>
       <c r="E40">
-        <v>7506.2449187655757</v>
+        <v>4061.6240092655135</v>
       </c>
       <c r="F40">
-        <v>209.71067667948029</v>
+        <v>113.46011097163016</v>
       </c>
       <c r="G40">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H40">
-        <v>0.89112583102168841</v>
+        <v>0.891178051135746</v>
       </c>
       <c r="I40">
-        <v>9.6266881262691024E-3</v>
+        <v>9.6233861697928129E-3</v>
       </c>
       <c r="J40">
         <v>8.99</v>
@@ -2398,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M40" t="b">
         <v>1</v>
@@ -2412,25 +2409,25 @@
         <v>9</v>
       </c>
       <c r="C41">
-        <v>0.63717484809556202</v>
+        <v>0.34461630517317582</v>
       </c>
       <c r="D41">
-        <v>3.0866141630120084E-2</v>
+        <v>1.669494178791131E-2</v>
       </c>
       <c r="E41">
-        <v>14662.711102919811</v>
+        <v>7933.9831987615134</v>
       </c>
       <c r="F41">
-        <v>157.46617732351254</v>
+        <v>85.182562804527507</v>
       </c>
       <c r="G41">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H41">
-        <v>0.87260727046985365</v>
+        <v>0.87265840433169117</v>
       </c>
       <c r="I41">
-        <v>6.1711821238357081E-3</v>
+        <v>6.1690654067973472E-3</v>
       </c>
       <c r="J41">
         <v>8.99</v>
@@ -2439,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="L41" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M41" t="b">
         <v>1</v>
@@ -2453,25 +2450,25 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>0.13246464006479999</v>
+        <v>7.1637680674813534E-2</v>
       </c>
       <c r="D42">
-        <v>5.0824783610718023E-3</v>
+        <v>2.7490212866000526E-3</v>
       </c>
       <c r="E42">
-        <v>-110.30262254172345</v>
+        <v>-59.564228994485539</v>
       </c>
       <c r="F42">
-        <v>17.263198471637601</v>
+        <v>9.3373018994890664</v>
       </c>
       <c r="G42">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H42">
-        <v>-0.32755975183347091</v>
+        <v>-0.32691797465356276</v>
       </c>
       <c r="I42">
-        <v>5.093656471963208E-2</v>
+        <v>5.0919093464975189E-2</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -2480,13 +2477,10 @@
         <v>0</v>
       </c>
       <c r="L42" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M42" t="b">
-        <v>0</v>
-      </c>
-      <c r="N42" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
@@ -2497,25 +2491,25 @@
         <v>13</v>
       </c>
       <c r="C43">
-        <v>0.53340735532888128</v>
+        <v>0.28850039619766976</v>
       </c>
       <c r="D43">
-        <v>2.0065167047429486E-2</v>
+        <v>1.0852888574018E-2</v>
       </c>
       <c r="E43">
-        <v>-110.94674669576193</v>
+        <v>-59.664925566332045</v>
       </c>
       <c r="F43">
-        <v>67.058162544027951</v>
+        <v>36.272302515265402</v>
       </c>
       <c r="G43">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H43">
-        <v>-6.6461100118808583E-2</v>
+        <v>-6.6058113074162358E-2</v>
       </c>
       <c r="I43">
-        <v>4.0117032338775206E-2</v>
+        <v>4.0103272186477544E-2</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -2524,13 +2518,10 @@
         <v>0</v>
       </c>
       <c r="L43" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M43" t="b">
-        <v>0</v>
-      </c>
-      <c r="N43" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -2541,25 +2532,25 @@
         <v>13</v>
       </c>
       <c r="C44">
-        <v>1.0549142130593641</v>
+        <v>0.57057409158014849</v>
       </c>
       <c r="D44">
-        <v>5.4673157801789447E-2</v>
+        <v>2.9571729366117443E-2</v>
       </c>
       <c r="E44">
-        <v>-189.64145200002454</v>
+        <v>-101.92351680954745</v>
       </c>
       <c r="F44">
-        <v>182.2956920103955</v>
+        <v>98.603196410247961</v>
       </c>
       <c r="G44">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H44">
-        <v>-5.723433076902848E-2</v>
+        <v>-5.6853056739888524E-2</v>
       </c>
       <c r="I44">
-        <v>5.479340280378947E-2</v>
+        <v>5.4774608652688621E-2</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -2568,13 +2559,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M44" t="b">
-        <v>0</v>
-      </c>
-      <c r="N44" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
@@ -2585,25 +2573,25 @@
         <v>13</v>
       </c>
       <c r="C45">
-        <v>2.5786452833352511</v>
+        <v>1.3947328680001967</v>
       </c>
       <c r="D45">
-        <v>5.9021153435704757E-2</v>
+        <v>3.1923482133670154E-2</v>
       </c>
       <c r="E45">
-        <v>-257.14195852099465</v>
+        <v>-137.52189036686357</v>
       </c>
       <c r="F45">
-        <v>195.42304665850671</v>
+        <v>105.69023029784637</v>
       </c>
       <c r="G45">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H45">
-        <v>-3.1116222229937179E-2</v>
+        <v>-3.0755110980200395E-2</v>
       </c>
       <c r="I45">
-        <v>2.3600636022168678E-2</v>
+        <v>2.3592540998009209E-2</v>
       </c>
       <c r="J45">
         <v>3.0033333333333334</v>
@@ -2612,13 +2600,10 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L45" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M45" t="b">
-        <v>0</v>
-      </c>
-      <c r="N45" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
@@ -2629,25 +2614,25 @@
         <v>13</v>
       </c>
       <c r="C46">
-        <v>5.163905449696899</v>
+        <v>2.793053672110549</v>
       </c>
       <c r="D46">
-        <v>7.2615510871067199E-2</v>
+        <v>3.927642597573304E-2</v>
       </c>
       <c r="E46">
-        <v>-543.41655469615023</v>
+        <v>-290.77853578017698</v>
       </c>
       <c r="F46">
-        <v>244.13520003133877</v>
+        <v>132.05674053677515</v>
       </c>
       <c r="G46">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H46">
-        <v>-3.24387603162632E-2</v>
+        <v>-3.2080914497226588E-2</v>
       </c>
       <c r="I46">
-        <v>1.4518288290475441E-2</v>
+        <v>1.4513308513898399E-2</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -2656,13 +2641,10 @@
         <v>0</v>
       </c>
       <c r="L46" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M46" t="b">
-        <v>0</v>
-      </c>
-      <c r="N46" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
@@ -2673,25 +2655,25 @@
         <v>13</v>
       </c>
       <c r="C47">
-        <v>0.11618094895573838</v>
+        <v>6.2830124537222698E-2</v>
       </c>
       <c r="D47">
-        <v>5.0803018491076901E-3</v>
+        <v>2.7478440503592282E-3</v>
       </c>
       <c r="E47">
-        <v>-54.996595497018028</v>
+        <v>-29.65061942103533</v>
       </c>
       <c r="F47">
-        <v>16.570229340763685</v>
+        <v>8.9633885030062039</v>
       </c>
       <c r="G47">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H47">
-        <v>-0.16436470659646496</v>
+        <v>-0.16377890535858927</v>
       </c>
       <c r="I47">
-        <v>5.0914751731037357E-2</v>
+        <v>5.0897287958241104E-2</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -2700,13 +2682,10 @@
         <v>0</v>
       </c>
       <c r="L47" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M47" t="b">
-        <v>0</v>
-      </c>
-      <c r="N47" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -2717,25 +2696,25 @@
         <v>13</v>
       </c>
       <c r="C48">
-        <v>0.47181442750076047</v>
+        <v>0.25518588747287141</v>
       </c>
       <c r="D48">
-        <v>3.3794608344615576E-2</v>
+        <v>1.827889685143079E-2</v>
       </c>
       <c r="E48">
-        <v>94.614413277471115</v>
+        <v>51.515227957817558</v>
       </c>
       <c r="F48">
-        <v>113.78762742331516</v>
+        <v>61.549939761606275</v>
       </c>
       <c r="G48">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H48">
-        <v>5.6683923876250562E-2</v>
+        <v>5.704467214633905E-2</v>
       </c>
       <c r="I48">
-        <v>6.7566813305492426E-2</v>
+        <v>6.7543637871340115E-2</v>
       </c>
       <c r="J48">
         <v>5.01</v>
@@ -2744,7 +2723,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L48" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M48" t="b">
         <v>1</v>
@@ -2758,25 +2737,25 @@
         <v>13</v>
       </c>
       <c r="C49">
-        <v>0.9961157116073317</v>
+        <v>0.53877103790659875</v>
       </c>
       <c r="D49">
-        <v>1.9387960733105461E-2</v>
+        <v>1.0486599838239756E-2</v>
       </c>
       <c r="E49">
-        <v>5.5374233109816329</v>
+        <v>3.6481158066157136</v>
       </c>
       <c r="F49">
-        <v>64.955237389922772</v>
+        <v>35.131425616306437</v>
       </c>
       <c r="G49">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H49">
-        <v>1.6934887288048834E-3</v>
+        <v>2.0545505008660991E-3</v>
       </c>
       <c r="I49">
-        <v>1.9430601499998434E-2</v>
+        <v>1.9423936798740733E-2</v>
       </c>
       <c r="J49">
         <v>5</v>
@@ -2785,7 +2764,7 @@
         <v>7.2648315725676342E-3</v>
       </c>
       <c r="L49" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M49" t="b">
         <v>1</v>
@@ -2799,25 +2778,25 @@
         <v>13</v>
       </c>
       <c r="C50">
-        <v>2.2707584867574684</v>
+        <v>1.2282024280207258</v>
       </c>
       <c r="D50">
-        <v>0.16669555818722886</v>
+        <v>9.0162634306176284E-2</v>
       </c>
       <c r="E50">
-        <v>747.52218068366608</v>
+        <v>405.86763730163483</v>
       </c>
       <c r="F50">
-        <v>540.28537488548113</v>
+        <v>292.21898379112878</v>
       </c>
       <c r="G50">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H50">
-        <v>9.1997675060792608E-2</v>
+        <v>9.2316558212439045E-2</v>
       </c>
       <c r="I50">
-        <v>6.6656121852560965E-2</v>
+        <v>6.6633258785808516E-2</v>
       </c>
       <c r="J50">
         <v>5.0066666666666668</v>
@@ -2826,7 +2805,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L50" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M50" t="b">
         <v>1</v>
@@ -2840,25 +2819,25 @@
         <v>13</v>
       </c>
       <c r="C51">
-        <v>4.6275272163134469</v>
+        <v>2.5029363166617213</v>
       </c>
       <c r="D51">
-        <v>8.7123635306207745E-2</v>
+        <v>4.712360998074925E-2</v>
       </c>
       <c r="E51">
-        <v>1243.9658332959673</v>
+        <v>675.96374433102903</v>
       </c>
       <c r="F51">
-        <v>274.62282192995775</v>
+        <v>148.50882399295071</v>
       </c>
       <c r="G51">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H51">
-        <v>7.4801328358780922E-2</v>
+        <v>7.5122390800120495E-2</v>
       </c>
       <c r="I51">
-        <v>1.7418951393671771E-2</v>
+        <v>1.7412976688912403E-2</v>
       </c>
       <c r="J51">
         <v>5.0066666666666668</v>
@@ -2867,7 +2846,7 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L51" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M51" t="b">
         <v>1</v>
@@ -2881,25 +2860,25 @@
         <v>13</v>
       </c>
       <c r="C52">
-        <v>9.3730667323600692E-2</v>
+        <v>5.0687170310478459E-2</v>
       </c>
       <c r="D52">
-        <v>3.5778159362318592E-3</v>
+        <v>1.9351763981075181E-3</v>
       </c>
       <c r="E52">
-        <v>20.448274607496263</v>
+        <v>11.156355867747566</v>
       </c>
       <c r="F52">
-        <v>12.221608428622698</v>
+        <v>6.6113633014463886</v>
       </c>
       <c r="G52">
-        <v>9.9780548394793733</v>
+        <v>5.3988024914288308</v>
       </c>
       <c r="H52">
-        <v>6.0631868320225824E-2</v>
+        <v>6.1140495675667011E-2</v>
       </c>
       <c r="I52">
-        <v>3.585684779037094E-2</v>
+        <v>3.5844548882457097E-2</v>
       </c>
       <c r="J52">
         <v>6.9933333333333332</v>
@@ -2908,7 +2887,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L52" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M52" t="b">
         <v>1</v>
@@ -2922,25 +2901,25 @@
         <v>13</v>
       </c>
       <c r="C53">
-        <v>0.4088531733731397</v>
+        <v>0.22113127562178117</v>
       </c>
       <c r="D53">
-        <v>2.4147445936972049E-2</v>
+        <v>1.3060919925640709E-2</v>
       </c>
       <c r="E53">
-        <v>303.13813461480345</v>
+        <v>164.30343427868624</v>
       </c>
       <c r="F53">
-        <v>80.668757109288535</v>
+        <v>43.632964250568179</v>
       </c>
       <c r="G53">
-        <v>50.016578689035846</v>
+        <v>27.062351729187554</v>
       </c>
       <c r="H53">
-        <v>0.18256469336883185</v>
+        <v>0.18288226450296075</v>
       </c>
       <c r="I53">
-        <v>4.8278883861893301E-2</v>
+        <v>4.826232419244663E-2</v>
       </c>
       <c r="J53">
         <v>7</v>
@@ -2949,7 +2928,7 @@
         <v>1.9999999999999574E-2</v>
       </c>
       <c r="L53" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M53" t="b">
         <v>1</v>
@@ -2963,25 +2942,25 @@
         <v>13</v>
       </c>
       <c r="C54">
-        <v>0.8648749751347049</v>
+        <v>0.4677852800535664</v>
       </c>
       <c r="D54">
-        <v>5.8666503410461916E-2</v>
+        <v>3.1731658302967154E-2</v>
       </c>
       <c r="E54">
-        <v>444.74074953355648</v>
+        <v>241.20601014559998</v>
       </c>
       <c r="F54">
-        <v>195.30274386667213</v>
+        <v>105.63404872299783</v>
       </c>
       <c r="G54">
-        <v>99.780548394793712</v>
+        <v>53.988024914288303</v>
       </c>
       <c r="H54">
-        <v>0.13322286853673798</v>
+        <v>0.1335388156980645</v>
       </c>
       <c r="I54">
-        <v>5.8795531147354307E-2</v>
+        <v>5.8775364265213431E-2</v>
       </c>
       <c r="J54">
         <v>7.003333333333333</v>
@@ -2990,7 +2969,7 @@
         <v>1.1180339887498709E-2</v>
       </c>
       <c r="L54" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M54" t="b">
         <v>1</v>
@@ -3004,25 +2983,25 @@
         <v>13</v>
       </c>
       <c r="C55">
-        <v>2.0579849634753948</v>
+        <v>1.1131170497518519</v>
       </c>
       <c r="D55">
-        <v>6.3123682880026413E-2</v>
+        <v>3.4142466646762189E-2</v>
       </c>
       <c r="E55">
-        <v>1477.1572524228234</v>
+        <v>800.54853135819849</v>
       </c>
       <c r="F55">
-        <v>221.1388429308243</v>
+        <v>119.62093713221959</v>
       </c>
       <c r="G55">
-        <v>250.08289344517922</v>
+        <v>135.31175864593777</v>
       </c>
       <c r="H55">
-        <v>0.17707887367892819</v>
+        <v>0.17736857395780428</v>
       </c>
       <c r="I55">
-        <v>2.5241103863773189E-2</v>
+        <v>2.5232446158726423E-2</v>
       </c>
       <c r="J55">
         <v>6.9933333333333332</v>
@@ -3031,7 +3010,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L55" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M55" t="b">
         <v>1</v>
@@ -3045,25 +3024,25 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>4.2838693295416412</v>
+        <v>2.3170579362873749</v>
       </c>
       <c r="D56">
-        <v>0.10530974086290752</v>
+        <v>5.6960147934091529E-2</v>
       </c>
       <c r="E56">
-        <v>2393.8541926425933</v>
+        <v>1297.9285626575147</v>
       </c>
       <c r="F56">
-        <v>297.10746526356712</v>
+        <v>160.63598148202911</v>
       </c>
       <c r="G56">
-        <v>500.16578689035845</v>
+        <v>270.62351729187554</v>
       </c>
       <c r="H56">
-        <v>0.14351012367810947</v>
+        <v>0.14380761898517525</v>
       </c>
       <c r="I56">
-        <v>2.1054966897604319E-2</v>
+        <v>2.1047745038602485E-2</v>
       </c>
       <c r="J56">
         <v>7.003333333333333</v>
@@ -3072,7 +3051,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L56" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M56" t="b">
         <v>1</v>
@@ -3086,25 +3065,25 @@
         <v>13</v>
       </c>
       <c r="C57">
-        <v>2.8620228688234051E-2</v>
+        <v>1.5470103149026889E-2</v>
       </c>
       <c r="D57">
-        <v>5.2747738154783309E-4</v>
+        <v>2.8530304451099975E-4</v>
       </c>
       <c r="E57">
-        <v>234.70869640202923</v>
+        <v>103.54252794844137</v>
       </c>
       <c r="F57">
-        <v>2.1405478248568492</v>
+        <v>0.77420866487608486</v>
       </c>
       <c r="G57">
-        <v>9.996456049999999</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="H57">
-        <v>0.71369624849964663</v>
+        <v>0.67045950904498197</v>
       </c>
       <c r="I57">
-        <v>5.2766438316690263E-3</v>
+        <v>6.0774582078356437E-3</v>
       </c>
       <c r="J57">
         <v>9</v>
@@ -3113,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -3130,25 +3109,25 @@
         <v>13</v>
       </c>
       <c r="C58">
-        <v>5.1055914839843765E-2</v>
+        <v>2.7605162942424016E-2</v>
       </c>
       <c r="D58">
-        <v>5.3802166310974011E-3</v>
+        <v>2.9100625707902512E-3</v>
       </c>
       <c r="E58">
-        <v>1501.9135590428216</v>
+        <v>693.17438610025908</v>
       </c>
       <c r="F58">
-        <v>22.855219033889298</v>
+        <v>10.218939358344871</v>
       </c>
       <c r="G58">
-        <v>50.054197199999997</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="H58">
-        <v>0.89799873398060648</v>
+        <v>0.88256124174599648</v>
       </c>
       <c r="I58">
-        <v>1.0748782184238815E-2</v>
+        <v>1.2380080330185188E-2</v>
       </c>
       <c r="J58">
         <v>8.99</v>
@@ -3157,7 +3136,7 @@
         <v>1.7320508075688405E-2</v>
       </c>
       <c r="L58" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
@@ -3174,25 +3153,25 @@
         <v>13</v>
       </c>
       <c r="C59">
-        <v>0.11718803711216974</v>
+        <v>6.3374840438173194E-2</v>
       </c>
       <c r="D59">
-        <v>1.8173225440803343E-2</v>
+        <v>9.8295713299239654E-3</v>
       </c>
       <c r="E59">
-        <v>2919.1395355844688</v>
+        <v>1343.2746297137428</v>
       </c>
       <c r="F59">
-        <v>74.385961340589617</v>
+        <v>38.761348243035506</v>
       </c>
       <c r="G59">
-        <v>99.964560500000005</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="H59">
-        <v>0.88277041730987271</v>
+        <v>0.86500040865270356</v>
       </c>
       <c r="I59">
-        <v>1.8179668224323715E-2</v>
+        <v>2.0938721162594591E-2</v>
       </c>
       <c r="J59">
         <v>9</v>
@@ -3201,7 +3180,7 @@
         <v>1.4529663145135268E-2</v>
       </c>
       <c r="L59" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
@@ -3215,25 +3194,25 @@
         <v>13</v>
       </c>
       <c r="C60">
-        <v>0.44600961792727273</v>
+        <v>0.24122852931518332</v>
       </c>
       <c r="D60">
-        <v>6.8941070159375215E-2</v>
+        <v>3.7288986971533745E-2</v>
       </c>
       <c r="E60">
-        <v>6832.2364497591598</v>
+        <v>3102.8218658923961</v>
       </c>
       <c r="F60">
-        <v>180.84187281467942</v>
+        <v>101.23502940805632</v>
       </c>
       <c r="G60">
-        <v>250.27098599999997</v>
+        <v>117.5300358792875</v>
       </c>
       <c r="H60">
-        <v>0.82178932322291931</v>
+        <v>0.7947515905100685</v>
       </c>
       <c r="I60">
-        <v>2.7546569125425815E-2</v>
+        <v>3.1727197811657781E-2</v>
       </c>
       <c r="J60">
         <v>9.0066666666666659</v>
@@ -3242,7 +3221,7 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L60" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M60" t="b">
         <v>1</v>
@@ -3256,25 +3235,25 @@
         <v>13</v>
       </c>
       <c r="C61">
-        <v>0.90169779132976757</v>
+        <v>0.48770208015804167</v>
       </c>
       <c r="D61">
-        <v>5.2715356240313586E-2</v>
+        <v>2.8512789654999628E-2</v>
       </c>
       <c r="E61">
-        <v>13664.234029793437</v>
+        <v>6202.8654744019877</v>
       </c>
       <c r="F61">
-        <v>154.30408834597338</v>
+        <v>80.458416181316622</v>
       </c>
       <c r="G61">
-        <v>500.54197199999993</v>
+        <v>235.06007175857499</v>
       </c>
       <c r="H61">
-        <v>0.81985570805843067</v>
+        <v>0.79252023684441408</v>
       </c>
       <c r="I61">
-        <v>1.0531655523248189E-2</v>
+        <v>1.2130001255289546E-2</v>
       </c>
       <c r="J61">
         <v>9.0033333333333321</v>
@@ -3283,7 +3262,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L61" s="1">
-        <v>42481</v>
+        <v>42513</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -3294,28 +3273,28 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C62">
-        <v>0.11242018013969272</v>
+        <v>6.079599221145101E-2</v>
       </c>
       <c r="D62">
-        <v>7.6718982935510445E-3</v>
+        <v>4.1495920335123601E-3</v>
       </c>
       <c r="E62">
-        <v>-32.109879793362857</v>
+        <v>-35.116719943138143</v>
       </c>
       <c r="F62">
-        <v>22.510987453477643</v>
+        <v>13.747607408504434</v>
       </c>
       <c r="G62">
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="H62">
-        <v>-0.12460026598657603</v>
+        <v>-0.29506189638556157</v>
       </c>
       <c r="I62">
-        <v>7.6746175382645498E-2</v>
+        <v>8.8393631433072065E-2</v>
       </c>
       <c r="J62">
         <v>2.9933333333333336</v>
@@ -3324,7 +3303,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L62" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -3338,28 +3317,28 @@
         <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>0.41953747054964391</v>
+        <v>0.22691022012168005</v>
       </c>
       <c r="D63">
-        <v>9.7009736427505835E-3</v>
+        <v>5.2470824566469166E-3</v>
       </c>
       <c r="E63">
-        <v>190.9178399471227</v>
+        <v>18.71757251777284</v>
       </c>
       <c r="F63">
-        <v>9.482450595268654</v>
+        <v>11.194803230712479</v>
       </c>
       <c r="G63">
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="H63">
-        <v>0.1618336500584116</v>
+        <v>3.4671356883041654E-2</v>
       </c>
       <c r="I63">
-        <v>1.9380937913295773E-2</v>
+        <v>2.2322304325832421E-2</v>
       </c>
       <c r="J63">
         <v>3.0033333333333334</v>
@@ -3368,7 +3347,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L63" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -3379,28 +3358,28 @@
         <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C64">
-        <v>0.833696393431821</v>
+        <v>0.45092134504034326</v>
       </c>
       <c r="D64">
-        <v>1.0256407414719036E-2</v>
+        <v>5.5475066107629157E-3</v>
       </c>
       <c r="E64">
-        <v>420.22702885612733</v>
+        <v>47.688849833050959</v>
       </c>
       <c r="F64">
-        <v>82.872614278368118</v>
+        <v>19.693777396054916</v>
       </c>
       <c r="G64">
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="H64">
-        <v>0.16600810936217236</v>
+        <v>3.9457979075990454E-2</v>
       </c>
       <c r="I64">
-        <v>1.026004271860013E-2</v>
+        <v>1.181716782671882E-2</v>
       </c>
       <c r="J64">
         <v>3.0033333333333334</v>
@@ -3409,7 +3388,7 @@
         <v>8.3333333333332742E-3</v>
       </c>
       <c r="L64" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -3420,28 +3399,28 @@
         <v>250</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C65">
-        <v>2.0538866741721384</v>
+        <v>1.110900358654928</v>
       </c>
       <c r="D65">
-        <v>7.088982575508887E-2</v>
+        <v>3.8343033882196835E-2</v>
       </c>
       <c r="E65">
-        <v>1112.8077588728913</v>
+        <v>164.51987982514072</v>
       </c>
       <c r="F65">
-        <v>323.28915521995827</v>
+        <v>117.7257298108205</v>
       </c>
       <c r="G65">
-        <v>250.27100561772809</v>
+        <v>117.5300358792875</v>
       </c>
       <c r="H65">
-        <v>0.17933494968677652</v>
+        <v>5.4794503937777128E-2</v>
       </c>
       <c r="I65">
-        <v>2.8325225121510159E-2</v>
+        <v>3.2624029759999486E-2</v>
       </c>
       <c r="J65">
         <v>2.9933333333333336</v>
@@ -3450,7 +3429,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L65" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -3461,28 +3440,28 @@
         <v>500</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C66">
-        <v>4.1755059952216032</v>
+        <v>2.2584461544813972</v>
       </c>
       <c r="D66">
-        <v>1.7745760664004854E-2</v>
+        <v>9.5983633075362573E-3</v>
       </c>
       <c r="E66">
-        <v>2084.8448916576158</v>
+        <v>229.22133300506107</v>
       </c>
       <c r="F66">
-        <v>332.61036931889845</v>
+        <v>19.732803406921338</v>
       </c>
       <c r="G66">
-        <v>500.54201123545619</v>
+        <v>235.06007175857499</v>
       </c>
       <c r="H66">
-        <v>0.16580308915220415</v>
+        <v>3.9204686025537776E-2</v>
       </c>
       <c r="I66">
-        <v>3.5453089382456219E-3</v>
+        <v>4.0833661096617846E-3</v>
       </c>
       <c r="J66">
         <v>2.9933333333333336</v>
@@ -3491,7 +3470,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L66" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -3502,28 +3481,28 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C67">
-        <v>0.10124247463533986</v>
+        <v>5.4750172006457015E-2</v>
       </c>
       <c r="D67">
-        <v>3.7540433112101287E-3</v>
+        <v>2.0304946209665615E-3</v>
       </c>
       <c r="E67">
-        <v>-3.4943104645756319E-3</v>
+        <v>-2.089967156388417E-2</v>
       </c>
       <c r="F67">
-        <v>1.0620510693609002E-2</v>
+        <v>6.3055619484568013E-3</v>
       </c>
       <c r="G67">
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="H67">
-        <v>-1.2783592434773757E-2</v>
+        <v>-0.16627525938729357</v>
       </c>
       <c r="I67">
-        <v>3.7553739026801571E-2</v>
+        <v>4.3253117825328348E-2</v>
       </c>
       <c r="J67">
         <v>5.0233333333333334</v>
@@ -3532,7 +3511,7 @@
         <v>4.6188021535170098E-2</v>
       </c>
       <c r="L67" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
@@ -3546,28 +3525,28 @@
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>0.41857660141488501</v>
+        <v>0.22639050325966237</v>
       </c>
       <c r="D68">
-        <v>7.2824632120762371E-3</v>
+        <v>3.9389535904797443E-3</v>
       </c>
       <c r="E68">
-        <v>0.22811155763969623</v>
+        <v>2.4263640630240762E-2</v>
       </c>
       <c r="F68">
-        <v>2.5486046404292424E-2</v>
+        <v>1.1356041585556878E-2</v>
       </c>
       <c r="G68">
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="H68">
-        <v>0.16375330737626048</v>
+        <v>3.6882352813271395E-2</v>
       </c>
       <c r="I68">
-        <v>1.4549154813401913E-2</v>
+        <v>1.6757221084001666E-2</v>
       </c>
       <c r="J68">
         <v>4.99</v>
@@ -3576,7 +3555,7 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="L68" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -3587,28 +3566,28 @@
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C69">
-        <v>0.80130253525997552</v>
+        <v>0.43340008880606645</v>
       </c>
       <c r="D69">
-        <v>5.3444980326268288E-3</v>
+        <v>2.8907430222260689E-3</v>
       </c>
       <c r="E69">
-        <v>0.4851895891200817</v>
+        <v>8.8581422554283293E-2</v>
       </c>
       <c r="F69">
-        <v>8.9480519409142076E-2</v>
+        <v>2.0862630247874554E-2</v>
       </c>
       <c r="G69">
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="H69">
-        <v>0.19841344928523677</v>
+        <v>7.6781346127718406E-2</v>
       </c>
       <c r="I69">
-        <v>5.3463923484096433E-3</v>
+        <v>6.1577926507174058E-3</v>
       </c>
       <c r="J69">
         <v>4.9933333333333332</v>
@@ -3617,7 +3596,7 @@
         <v>3.4278273002005234E-2</v>
       </c>
       <c r="L69" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -3628,28 +3607,28 @@
         <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>2.001963252193812</v>
+        <v>1.0828159120225891</v>
       </c>
       <c r="D70">
-        <v>3.2713806966716524E-2</v>
+        <v>1.7694310792552886E-2</v>
       </c>
       <c r="E70">
-        <v>1.3872217128592321</v>
+        <v>0.25374198410548038</v>
       </c>
       <c r="F70">
-        <v>0.10820692302913817</v>
+        <v>2.2993485464505206E-2</v>
       </c>
       <c r="G70">
-        <v>250.27100561772809</v>
+        <v>117.5300358792875</v>
       </c>
       <c r="H70">
-        <v>0.20008182839538591</v>
+        <v>7.8690052358424092E-2</v>
       </c>
       <c r="I70">
-        <v>1.307135314615092E-2</v>
+        <v>1.5055139445993543E-2</v>
       </c>
       <c r="J70">
         <v>5.0366666666666662</v>
@@ -3658,7 +3637,7 @@
         <v>1.5275252316519626E-2</v>
       </c>
       <c r="L70" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -3669,28 +3648,28 @@
         <v>500</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C71">
-        <v>3.8313040213701197</v>
+        <v>2.0722734871750581</v>
       </c>
       <c r="D71">
-        <v>2.1103755052666741E-2</v>
+        <v>1.1414642177589111E-2</v>
       </c>
       <c r="E71">
-        <v>2.9951701716397268</v>
+        <v>0.71212677529819779</v>
       </c>
       <c r="F71">
-        <v>0.63458368877856852</v>
+        <v>0.16667830100180092</v>
       </c>
       <c r="G71">
-        <v>500.54201123545619</v>
+        <v>235.06007175857499</v>
       </c>
       <c r="H71">
-        <v>0.23456894019473931</v>
+        <v>0.1184068516309124</v>
       </c>
       <c r="I71">
-        <v>4.2161805760474614E-3</v>
+        <v>4.8560532174570549E-3</v>
       </c>
       <c r="J71">
         <v>5.0133333333333328</v>
@@ -3699,7 +3678,7 @@
         <v>4.1633319989322265E-2</v>
       </c>
       <c r="L71" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -3710,28 +3689,28 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>9.5388065223556875E-2</v>
+        <v>5.1583627075005634E-2</v>
       </c>
       <c r="D72">
-        <v>3.7561378736788659E-3</v>
+        <v>2.0316275321967899E-3</v>
       </c>
       <c r="E72">
-        <v>12.043120616528645</v>
+        <v>-12.127678629089418</v>
       </c>
       <c r="F72">
-        <v>10.865681430578073</v>
+        <v>5.7584886536719262</v>
       </c>
       <c r="G72">
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="H72">
-        <v>4.5781252182130312E-2</v>
+        <v>-9.8822265616708996E-2</v>
       </c>
       <c r="I72">
-        <v>3.757469207550275E-2</v>
+        <v>4.3277250833325877E-2</v>
       </c>
       <c r="J72">
         <v>6.9733333333333336</v>
@@ -3740,7 +3719,7 @@
         <v>3.2145502536643E-2</v>
       </c>
       <c r="L72" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M72" t="b">
         <v>1</v>
@@ -3751,28 +3730,28 @@
         <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C73">
-        <v>0.38653546735579836</v>
+        <v>0.20906002916460675</v>
       </c>
       <c r="D73">
-        <v>3.1693400658234991E-3</v>
+        <v>1.7142391342293494E-3</v>
       </c>
       <c r="E73">
-        <v>314.73106445421786</v>
+        <v>71.818763931928927</v>
       </c>
       <c r="F73">
-        <v>23.973608419002769</v>
+        <v>7.6136757185225852</v>
       </c>
       <c r="G73">
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="H73">
-        <v>0.22776618409764002</v>
+        <v>0.11061020444455716</v>
       </c>
       <c r="I73">
-        <v>6.3318163004956254E-3</v>
+        <v>7.2927704029206826E-3</v>
       </c>
       <c r="J73">
         <v>6.9833333333333334</v>
@@ -3781,7 +3760,7 @@
         <v>3.0550504633038766E-2</v>
       </c>
       <c r="L73" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -3792,28 +3771,28 @@
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C74">
-        <v>0.75381451764209861</v>
+        <v>0.40771467275198742</v>
       </c>
       <c r="D74">
-        <v>1.3275739434652094E-2</v>
+        <v>7.180609086453316E-3</v>
       </c>
       <c r="E74">
-        <v>672.4359494534325</v>
+        <v>169.25815633174281</v>
       </c>
       <c r="F74">
-        <v>100.49085293808112</v>
+        <v>33.023834220879507</v>
       </c>
       <c r="G74">
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="H74">
-        <v>0.24591829866181578</v>
+        <v>0.13149581399716845</v>
       </c>
       <c r="I74">
-        <v>1.3280444917297251E-2</v>
+        <v>1.5295964227974372E-2</v>
       </c>
       <c r="J74">
         <v>6.9733333333333336</v>
@@ -3822,7 +3801,7 @@
         <v>2.5385910352879595E-2</v>
       </c>
       <c r="L74" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -3833,28 +3812,28 @@
         <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C75">
-        <v>1.8424670844240463</v>
+        <v>0.99654729872390746</v>
       </c>
       <c r="D75">
-        <v>9.4925630835149488E-2</v>
+        <v>5.1343569272911796E-2</v>
       </c>
       <c r="E75">
-        <v>1876.8884527803277</v>
+        <v>511.10874603991334</v>
       </c>
       <c r="F75">
-        <v>497.14252966044381</v>
+        <v>196.4615442457611</v>
       </c>
       <c r="G75">
-        <v>250.27100561772809</v>
+        <v>117.5300358792875</v>
       </c>
       <c r="H75">
-        <v>0.263811211420036</v>
+        <v>0.15209138560338814</v>
       </c>
       <c r="I75">
-        <v>3.7929136298010542E-2</v>
+        <v>4.3685487619220711E-2</v>
       </c>
       <c r="J75">
         <v>7.0166666666666666</v>
@@ -3863,7 +3842,7 @@
         <v>2.5166114784235707E-2</v>
       </c>
       <c r="L75" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -3874,28 +3853,28 @@
         <v>500</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C76">
-        <v>3.647052296904814</v>
+        <v>1.9726150377604148</v>
       </c>
       <c r="D76">
-        <v>2.8331988697368707E-2</v>
+        <v>1.5324263968800307E-2</v>
       </c>
       <c r="E76">
-        <v>3631.7808435077154</v>
+        <v>1011.6814228977451</v>
       </c>
       <c r="F76">
-        <v>410.3670277910162</v>
+        <v>132.10998134183799</v>
       </c>
       <c r="G76">
-        <v>500.54201123545619</v>
+        <v>235.06007175857499</v>
       </c>
       <c r="H76">
-        <v>0.27137938174199899</v>
+        <v>0.16080386473018526</v>
       </c>
       <c r="I76">
-        <v>5.6602618883954767E-3</v>
+        <v>6.5192968989388964E-3</v>
       </c>
       <c r="J76">
         <v>6.9833333333333334</v>
@@ -3904,7 +3883,7 @@
         <v>3.2145502536643007E-2</v>
       </c>
       <c r="L76" s="1">
-        <v>42507</v>
+        <v>42513</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
   <si>
     <t>Mineral</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Anamalous Points</t>
+  </si>
+  <si>
+    <t>Missing 1 solid, Solid counted, mass found by matching to expected solution results (non-detect/detect)</t>
+  </si>
+  <si>
+    <t>Total activity exceeds possible initial activity. Solid counted, mass found by matching to expected solution results (non-detect/detect).</t>
   </si>
 </sst>
 </file>
@@ -710,7 +716,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7:K11"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1422,10 +1428,10 @@
         <v>42513</v>
       </c>
       <c r="M17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1436,25 +1442,25 @@
         <v>10</v>
       </c>
       <c r="C18">
-        <v>-2.4731975085711691E-2</v>
+        <v>-2.4383656501640903E-2</v>
       </c>
       <c r="D18">
-        <v>3.5690521617557413E-3</v>
+        <v>3.5532598955532839E-3</v>
       </c>
       <c r="E18">
-        <v>262.39999999999998</v>
+        <v>261.2389380530974</v>
       </c>
       <c r="F18">
-        <v>11.896840539185801</v>
+        <v>11.844199651844281</v>
       </c>
       <c r="G18">
         <v>5.3988024914288308</v>
       </c>
       <c r="H18">
-        <v>1.4581011275181173</v>
+        <v>1.4516493526175951</v>
       </c>
       <c r="I18">
-        <v>6.6108218765587104E-2</v>
+        <v>6.5815704523261576E-2</v>
       </c>
       <c r="J18">
         <v>8.9066666666666663</v>
@@ -1463,13 +1469,13 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>42513</v>
+        <v>42517</v>
       </c>
       <c r="M18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1480,25 +1486,25 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>-1.2207067957230358E-2</v>
+        <v>-1.0957117121438813E-2</v>
       </c>
       <c r="D19">
-        <v>4.2715250117406709E-3</v>
+        <v>4.2526244585913853E-3</v>
       </c>
       <c r="E19">
-        <v>941.62962962962968</v>
+        <v>937.46312684365785</v>
       </c>
       <c r="F19">
-        <v>14.23841670580221</v>
+        <v>14.175414861971241</v>
       </c>
       <c r="G19">
         <v>27.028182093165853</v>
       </c>
       <c r="H19">
-        <v>1.0451642212382346</v>
+        <v>1.0405396007902779</v>
       </c>
       <c r="I19">
-        <v>1.580396712223104E-2</v>
+        <v>1.5734038064168072E-2</v>
       </c>
       <c r="J19">
         <v>8.9166666666666661</v>
@@ -1507,7 +1513,7 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>42513</v>
+        <v>42517</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1524,25 +1530,25 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1.5080249142883015E-2</v>
+        <v>1.7402373036688297E-2</v>
       </c>
       <c r="D20">
-        <v>1.2356914393704153E-2</v>
+        <v>1.2302237781342635E-2</v>
       </c>
       <c r="E20">
-        <v>1749.3333333333333</v>
+        <v>1741.5929203539824</v>
       </c>
       <c r="F20">
-        <v>41.189714645680461</v>
+        <v>41.007459271142103</v>
       </c>
       <c r="G20">
         <v>53.988024914288303</v>
       </c>
       <c r="H20">
-        <v>0.97206741834541177</v>
+        <v>0.96776623507839676</v>
       </c>
       <c r="I20">
-        <v>2.288825052096655E-2</v>
+        <v>2.2786975076183512E-2</v>
       </c>
       <c r="J20">
         <v>8.8633333333333333</v>
@@ -1551,7 +1557,7 @@
         <v>5.0332229568471415E-2</v>
       </c>
       <c r="L20" s="1">
-        <v>42513</v>
+        <v>42517</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1574,19 +1580,19 @@
         <v>1.3991056693009167E-2</v>
       </c>
       <c r="E21">
-        <v>8548.0966523683819</v>
+        <v>8520.0337221815589</v>
       </c>
       <c r="F21">
-        <v>348.8275924635368</v>
+        <v>357.94377699140438</v>
       </c>
       <c r="G21">
         <v>270.62351729187554</v>
       </c>
       <c r="H21">
-        <v>0.94760020170187265</v>
+        <v>0.94448928246606678</v>
       </c>
       <c r="I21">
-        <v>3.8669321419762176E-2</v>
+        <v>3.9679897065858227E-2</v>
       </c>
       <c r="J21">
         <v>8.9350000000000005</v>
@@ -1595,7 +1601,7 @@
         <v>4.7258156262525892E-2</v>
       </c>
       <c r="L21" s="1">
-        <v>42513</v>
+        <v>42517</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
   <si>
     <t>Mineral</t>
   </si>
@@ -710,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3282,25 +3282,25 @@
         <v>22</v>
       </c>
       <c r="C62">
-        <v>6.079599221145101E-2</v>
+        <v>6.0481530616457869E-2</v>
       </c>
       <c r="D62">
-        <v>4.1495920335123601E-3</v>
+        <v>4.110913887167042E-3</v>
       </c>
       <c r="E62">
-        <v>-35.116719943138143</v>
+        <v>-34.369082523915971</v>
       </c>
       <c r="F62">
-        <v>13.747607408504434</v>
+        <v>13.809187048870061</v>
       </c>
       <c r="G62">
         <v>4.6944468354083231</v>
       </c>
       <c r="H62">
-        <v>-0.29506189638556157</v>
+        <v>-0.28836330960806777</v>
       </c>
       <c r="I62">
-        <v>8.8393631433072065E-2</v>
+        <v>8.7569718676119152E-2</v>
       </c>
       <c r="J62">
         <v>2.9933333333333336</v>
@@ -3309,7 +3309,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L62" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -3326,25 +3326,25 @@
         <v>22</v>
       </c>
       <c r="C63">
-        <v>0.22691022012168005</v>
+        <v>0.22484100142547692</v>
       </c>
       <c r="D63">
-        <v>5.2470824566469166E-3</v>
+        <v>5.5367848080272513E-3</v>
       </c>
       <c r="E63">
-        <v>18.71757251777284</v>
+        <v>23.578638850614244</v>
       </c>
       <c r="F63">
-        <v>11.194803230712479</v>
+        <v>11.711431698038677</v>
       </c>
       <c r="G63">
         <v>23.506007175857501</v>
       </c>
       <c r="H63">
-        <v>3.4671356883041654E-2</v>
+        <v>4.3474292578255878E-2</v>
       </c>
       <c r="I63">
-        <v>2.2322304325832421E-2</v>
+        <v>2.3554765241941875E-2</v>
       </c>
       <c r="J63">
         <v>3.0033333333333334</v>
@@ -3353,7 +3353,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L63" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -3367,25 +3367,25 @@
         <v>22</v>
       </c>
       <c r="C64">
-        <v>0.45092134504034326</v>
+        <v>0.44869950063276254</v>
       </c>
       <c r="D64">
-        <v>5.5475066107629157E-3</v>
+        <v>4.3949423146833954E-3</v>
       </c>
       <c r="E64">
-        <v>47.688849833050959</v>
+        <v>52.807571308379636</v>
       </c>
       <c r="F64">
-        <v>19.693777396054916</v>
+        <v>16.727188867910218</v>
       </c>
       <c r="G64">
         <v>46.944468354083234</v>
       </c>
       <c r="H64">
-        <v>3.9457979075990454E-2</v>
+        <v>4.4190899663826659E-2</v>
       </c>
       <c r="I64">
-        <v>1.181716782671882E-2</v>
+        <v>9.3620025293164218E-3</v>
       </c>
       <c r="J64">
         <v>3.0033333333333334</v>
@@ -3394,7 +3394,7 @@
         <v>8.3333333333332742E-3</v>
       </c>
       <c r="L64" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -3408,25 +3408,25 @@
         <v>22</v>
       </c>
       <c r="C65">
-        <v>1.110900358654928</v>
+        <v>1.1138370878600525</v>
       </c>
       <c r="D65">
-        <v>3.8343033882196835E-2</v>
+        <v>5.0491560213509853E-2</v>
       </c>
       <c r="E65">
-        <v>164.51987982514072</v>
+        <v>158.56689779900856</v>
       </c>
       <c r="F65">
-        <v>117.7257298108205</v>
+        <v>145.34389045142967</v>
       </c>
       <c r="G65">
         <v>117.5300358792875</v>
       </c>
       <c r="H65">
-        <v>5.4794503937777128E-2</v>
+        <v>5.2295798663713651E-2</v>
       </c>
       <c r="I65">
-        <v>3.2624029759999486E-2</v>
+        <v>4.2960558835673818E-2</v>
       </c>
       <c r="J65">
         <v>2.9933333333333336</v>
@@ -3435,7 +3435,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L65" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -3449,25 +3449,25 @@
         <v>22</v>
       </c>
       <c r="C66">
-        <v>2.2584461544813972</v>
+        <v>2.2575352245890699</v>
       </c>
       <c r="D66">
-        <v>9.5983633075362573E-3</v>
+        <v>8.5096172372693679E-3</v>
       </c>
       <c r="E66">
-        <v>229.22133300506107</v>
+        <v>234.63652443260989</v>
       </c>
       <c r="F66">
-        <v>19.732803406921338</v>
+        <v>49.605621370173296</v>
       </c>
       <c r="G66">
         <v>235.06007175857499</v>
       </c>
       <c r="H66">
-        <v>3.9204686025537776E-2</v>
+        <v>3.9592216704615768E-2</v>
       </c>
       <c r="I66">
-        <v>4.0833661096617846E-3</v>
+        <v>3.6201883091440245E-3</v>
       </c>
       <c r="J66">
         <v>2.9933333333333336</v>
@@ -3476,7 +3476,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L66" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -3490,25 +3490,25 @@
         <v>22</v>
       </c>
       <c r="C67">
-        <v>5.4750172006457015E-2</v>
+        <v>5.492253380120219E-2</v>
       </c>
       <c r="D67">
-        <v>2.0304946209665615E-3</v>
+        <v>1.7279719631377608E-3</v>
       </c>
       <c r="E67">
-        <v>-2.089967156388417E-2</v>
+        <v>-2.1397842331361255E-2</v>
       </c>
       <c r="F67">
-        <v>6.3055619484568013E-3</v>
+        <v>5.7644001824667919E-3</v>
       </c>
       <c r="G67">
         <v>4.6944468354083231</v>
       </c>
       <c r="H67">
-        <v>-0.16627525938729357</v>
+        <v>-0.16994686971303261</v>
       </c>
       <c r="I67">
-        <v>4.3253117825328348E-2</v>
+        <v>3.6808851473284679E-2</v>
       </c>
       <c r="J67">
         <v>5.0233333333333334</v>
@@ -3517,7 +3517,7 @@
         <v>4.6188021535170098E-2</v>
       </c>
       <c r="L67" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
@@ -3534,25 +3534,25 @@
         <v>22</v>
       </c>
       <c r="C68">
-        <v>0.22639050325966237</v>
+        <v>0.22488442080888602</v>
       </c>
       <c r="D68">
-        <v>3.9389535904797443E-3</v>
+        <v>2.3291800596308226E-3</v>
       </c>
       <c r="E68">
-        <v>2.4263640630240762E-2</v>
+        <v>2.8358054298709801E-2</v>
       </c>
       <c r="F68">
-        <v>1.1356041585556878E-2</v>
+        <v>6.9048870936667837E-3</v>
       </c>
       <c r="G68">
         <v>23.506007175857501</v>
       </c>
       <c r="H68">
-        <v>3.6882352813271395E-2</v>
+        <v>4.3289576462565704E-2</v>
       </c>
       <c r="I68">
-        <v>1.6757221084001666E-2</v>
+        <v>9.9088715586842461E-3</v>
       </c>
       <c r="J68">
         <v>4.99</v>
@@ -3561,7 +3561,7 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="L68" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -3575,34 +3575,34 @@
         <v>22</v>
       </c>
       <c r="C69">
-        <v>0.43340008880606645</v>
+        <v>0.43585920479369039</v>
       </c>
       <c r="D69">
-        <v>2.8907430222260689E-3</v>
+        <v>6.0905212186081392E-3</v>
       </c>
       <c r="E69">
-        <v>8.8581422554283293E-2</v>
+        <v>8.3417277936036219E-2</v>
       </c>
       <c r="F69">
-        <v>2.0862630247874554E-2</v>
+        <v>2.8569637999314012E-2</v>
       </c>
       <c r="G69">
         <v>46.944468354083234</v>
       </c>
       <c r="H69">
-        <v>7.6781346127718406E-2</v>
+        <v>7.1542995212599339E-2</v>
       </c>
       <c r="I69">
-        <v>6.1577926507174058E-3</v>
+        <v>1.2973884745418272E-2</v>
       </c>
       <c r="J69">
         <v>4.9933333333333332</v>
       </c>
       <c r="K69">
-        <v>3.4278273002005234E-2</v>
+        <v>2.0816659994661382E-2</v>
       </c>
       <c r="L69" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -3616,25 +3616,25 @@
         <v>22</v>
       </c>
       <c r="C70">
-        <v>1.0828159120225891</v>
+        <v>1.0842987497529546</v>
       </c>
       <c r="D70">
-        <v>1.7694310792552886E-2</v>
+        <v>1.6649034734365097E-2</v>
       </c>
       <c r="E70">
-        <v>0.25374198410548038</v>
+        <v>0.24945890835540283</v>
       </c>
       <c r="F70">
-        <v>2.2993485464505206E-2</v>
+        <v>1.1124130862912486E-2</v>
       </c>
       <c r="G70">
         <v>117.5300358792875</v>
       </c>
       <c r="H70">
-        <v>7.8690052358424092E-2</v>
+        <v>7.7428385313679571E-2</v>
       </c>
       <c r="I70">
-        <v>1.5055139445993543E-2</v>
+        <v>1.4165770145314125E-2</v>
       </c>
       <c r="J70">
         <v>5.0366666666666662</v>
@@ -3643,7 +3643,7 @@
         <v>1.5275252316519626E-2</v>
       </c>
       <c r="L70" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -3657,25 +3657,25 @@
         <v>22</v>
       </c>
       <c r="C71">
-        <v>2.0722734871750581</v>
+        <v>2.0740251742188565</v>
       </c>
       <c r="D71">
-        <v>1.1414642177589111E-2</v>
+        <v>1.5227231501892778E-2</v>
       </c>
       <c r="E71">
-        <v>0.71212677529819779</v>
+        <v>0.70724779858878117</v>
       </c>
       <c r="F71">
-        <v>0.16667830100180092</v>
+        <v>0.16872255913331757</v>
       </c>
       <c r="G71">
         <v>235.06007175857499</v>
       </c>
       <c r="H71">
-        <v>0.1184068516309124</v>
+        <v>0.11766164338235985</v>
       </c>
       <c r="I71">
-        <v>4.8560532174570549E-3</v>
+        <v>6.4780170396324457E-3</v>
       </c>
       <c r="J71">
         <v>5.0133333333333328</v>
@@ -3684,7 +3684,7 @@
         <v>4.1633319989322265E-2</v>
       </c>
       <c r="L71" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -3698,25 +3698,25 @@
         <v>22</v>
       </c>
       <c r="C72">
-        <v>5.1583627075005634E-2</v>
+        <v>5.1900281568150797E-2</v>
       </c>
       <c r="D72">
-        <v>2.0316275321967899E-3</v>
+        <v>2.2205365515011485E-3</v>
       </c>
       <c r="E72">
-        <v>-12.127678629089418</v>
+        <v>-12.920857613395855</v>
       </c>
       <c r="F72">
-        <v>5.7584886536719262</v>
+        <v>6.2259610889512329</v>
       </c>
       <c r="G72">
         <v>4.6944468354083231</v>
       </c>
       <c r="H72">
-        <v>-9.8822265616708996E-2</v>
+        <v>-0.10556756499376803</v>
       </c>
       <c r="I72">
-        <v>4.3277250833325877E-2</v>
+        <v>4.7301346236419954E-2</v>
       </c>
       <c r="J72">
         <v>6.9733333333333336</v>
@@ -3725,10 +3725,13 @@
         <v>3.2145502536643E-2</v>
       </c>
       <c r="L72" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.25">
@@ -3739,25 +3742,25 @@
         <v>22</v>
       </c>
       <c r="C73">
-        <v>0.20906002916460675</v>
+        <v>0.20980473737701746</v>
       </c>
       <c r="D73">
-        <v>1.7142391342293494E-3</v>
+        <v>1.893878508829014E-3</v>
       </c>
       <c r="E73">
-        <v>71.818763931928927</v>
+        <v>69.882009136254908</v>
       </c>
       <c r="F73">
-        <v>7.6136757185225852</v>
+        <v>9.1071562956183261</v>
       </c>
       <c r="G73">
         <v>23.506007175857501</v>
       </c>
       <c r="H73">
-        <v>0.11061020444455716</v>
+        <v>0.10744204318756756</v>
       </c>
       <c r="I73">
-        <v>7.2927704029206826E-3</v>
+        <v>8.0569979182775562E-3</v>
       </c>
       <c r="J73">
         <v>6.9833333333333334</v>
@@ -3766,7 +3769,7 @@
         <v>3.0550504633038766E-2</v>
       </c>
       <c r="L73" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -3780,25 +3783,25 @@
         <v>22</v>
       </c>
       <c r="C74">
-        <v>0.40771467275198742</v>
+        <v>0.40754055663872069</v>
       </c>
       <c r="D74">
-        <v>7.180609086453316E-3</v>
+        <v>5.2718281719955091E-3</v>
       </c>
       <c r="E74">
-        <v>169.25815633174281</v>
+        <v>169.43716390527425</v>
       </c>
       <c r="F74">
-        <v>33.023834220879507</v>
+        <v>28.262597153716456</v>
       </c>
       <c r="G74">
         <v>46.944468354083234</v>
       </c>
       <c r="H74">
-        <v>0.13149581399716845</v>
+        <v>0.1318667120377075</v>
       </c>
       <c r="I74">
-        <v>1.5295964227974372E-2</v>
+        <v>1.1229924114236905E-2</v>
       </c>
       <c r="J74">
         <v>6.9733333333333336</v>
@@ -3807,7 +3810,7 @@
         <v>2.5385910352879595E-2</v>
       </c>
       <c r="L74" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -3821,25 +3824,25 @@
         <v>22</v>
       </c>
       <c r="C75">
-        <v>0.99654729872390746</v>
+        <v>0.99181941030825049</v>
       </c>
       <c r="D75">
-        <v>5.1343569272911796E-2</v>
+        <v>5.2569429549846669E-2</v>
       </c>
       <c r="E75">
-        <v>511.10874603991334</v>
+        <v>525.19948499478244</v>
       </c>
       <c r="F75">
-        <v>196.4615442457611</v>
+        <v>202.65884267884579</v>
       </c>
       <c r="G75">
         <v>117.5300358792875</v>
       </c>
       <c r="H75">
-        <v>0.15209138560338814</v>
+        <v>0.15611409212286276</v>
       </c>
       <c r="I75">
-        <v>4.3685487619220711E-2</v>
+        <v>4.4728506340149229E-2</v>
       </c>
       <c r="J75">
         <v>7.0166666666666666</v>
@@ -3848,7 +3851,7 @@
         <v>2.5166114784235707E-2</v>
       </c>
       <c r="L75" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -3862,25 +3865,25 @@
         <v>22</v>
       </c>
       <c r="C76">
-        <v>1.9726150377604148</v>
+        <v>1.9773999415280228</v>
       </c>
       <c r="D76">
-        <v>1.5324263968800307E-2</v>
+        <v>1.5339770212439482E-2</v>
       </c>
       <c r="E76">
-        <v>1011.6814228977451</v>
+        <v>998.53106490453865</v>
       </c>
       <c r="F76">
-        <v>132.10998134183799</v>
+        <v>125.99874934856791</v>
       </c>
       <c r="G76">
         <v>235.06007175857499</v>
       </c>
       <c r="H76">
-        <v>0.16080386473018526</v>
+        <v>0.15876825581889287</v>
       </c>
       <c r="I76">
-        <v>6.5192968989388964E-3</v>
+        <v>6.5258936142053728E-3</v>
       </c>
       <c r="J76">
         <v>6.9833333333333334</v>
@@ -3889,9 +3892,217 @@
         <v>3.2145502536643007E-2</v>
       </c>
       <c r="L76" s="1">
-        <v>42513</v>
+        <v>42534</v>
       </c>
       <c r="M76" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>10</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77">
+        <v>4.714849056263698E-2</v>
+      </c>
+      <c r="D77">
+        <v>3.5789352486523553E-3</v>
+      </c>
+      <c r="E77">
+        <v>-0.37792111736410067</v>
+      </c>
+      <c r="F77">
+        <v>9.0265034147219989</v>
+      </c>
+      <c r="G77">
+        <v>4.6944468354083231</v>
+      </c>
+      <c r="H77">
+        <v>-4.3460329982840428E-3</v>
+      </c>
+      <c r="I77">
+        <v>7.6237635106609108E-2</v>
+      </c>
+      <c r="J77">
+        <v>8.99</v>
+      </c>
+      <c r="K77">
+        <v>1.7320508075688402E-2</v>
+      </c>
+      <c r="L77" s="1">
+        <v>42534</v>
+      </c>
+      <c r="M77" t="b">
+        <v>0</v>
+      </c>
+      <c r="N77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>50</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>0.18504121570602919</v>
+      </c>
+      <c r="D78">
+        <v>6.6715649459351198E-3</v>
+      </c>
+      <c r="E78">
+        <v>118.85860288812466</v>
+      </c>
+      <c r="F78">
+        <v>16.726456657973756</v>
+      </c>
+      <c r="G78">
+        <v>23.506007175857501</v>
+      </c>
+      <c r="H78">
+        <v>0.2127918011695287</v>
+      </c>
+      <c r="I78">
+        <v>2.8382382835258149E-2</v>
+      </c>
+      <c r="J78">
+        <v>8.9866666666666664</v>
+      </c>
+      <c r="K78">
+        <v>1.154700538379227E-2</v>
+      </c>
+      <c r="L78" s="1">
+        <v>42534</v>
+      </c>
+      <c r="M78" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>22</v>
+      </c>
+      <c r="C79">
+        <v>0.35887005931490501</v>
+      </c>
+      <c r="D79">
+        <v>1.5337849075370707E-3</v>
+      </c>
+      <c r="E79">
+        <v>264.0648722888086</v>
+      </c>
+      <c r="F79">
+        <v>19.190182245271512</v>
+      </c>
+      <c r="G79">
+        <v>46.944468354083234</v>
+      </c>
+      <c r="H79">
+        <v>0.23554345826628062</v>
+      </c>
+      <c r="I79">
+        <v>3.2672324585046571E-3</v>
+      </c>
+      <c r="J79">
+        <v>8.9800000000000022</v>
+      </c>
+      <c r="K79">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="L79" s="1">
+        <v>42534</v>
+      </c>
+      <c r="M79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>250</v>
+      </c>
+      <c r="B80" t="s">
+        <v>22</v>
+      </c>
+      <c r="C80">
+        <v>0.95626814546843786</v>
+      </c>
+      <c r="D80">
+        <v>4.5362455259829855E-2</v>
+      </c>
+      <c r="E80">
+        <v>554.12558353266138</v>
+      </c>
+      <c r="F80">
+        <v>201.19911180333975</v>
+      </c>
+      <c r="G80">
+        <v>117.5300358792875</v>
+      </c>
+      <c r="H80">
+        <v>0.18636275543164157</v>
+      </c>
+      <c r="I80">
+        <v>3.8596478696237779E-2</v>
+      </c>
+      <c r="J80">
+        <v>8.9966666666666661</v>
+      </c>
+      <c r="K80">
+        <v>2.5166114784235295E-2</v>
+      </c>
+      <c r="L80" s="1">
+        <v>42534</v>
+      </c>
+      <c r="M80" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>500</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>1.9133464829579239</v>
+      </c>
+      <c r="D81">
+        <v>7.4897715451120839E-2</v>
+      </c>
+      <c r="E81">
+        <v>1020.0108574591721</v>
+      </c>
+      <c r="F81">
+        <v>81.208072357769652</v>
+      </c>
+      <c r="G81">
+        <v>235.06007175857499</v>
+      </c>
+      <c r="H81">
+        <v>0.18601808097673023</v>
+      </c>
+      <c r="I81">
+        <v>3.1863223256413671E-2</v>
+      </c>
+      <c r="J81">
+        <v>8.99</v>
+      </c>
+      <c r="K81">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="L81" s="1">
+        <v>42534</v>
+      </c>
+      <c r="M81" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -713,10 +713,10 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M82" sqref="M82"/>
+      <selection pane="bottomRight" activeCell="L57" sqref="L57:L81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3077,19 +3077,19 @@
         <v>2.8530304451099975E-4</v>
       </c>
       <c r="E57">
-        <v>103.54252794844137</v>
+        <v>270.81622261908865</v>
       </c>
       <c r="F57">
-        <v>0.77420866487608486</v>
+        <v>3.5223545816029764</v>
       </c>
       <c r="G57">
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="H57">
-        <v>0.67045950904498197</v>
+        <v>0.84179714838932884</v>
       </c>
       <c r="I57">
-        <v>6.0774582078356437E-3</v>
+        <v>2.9176117819023442E-3</v>
       </c>
       <c r="J57">
         <v>9</v>
@@ -3098,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="L57" s="1">
-        <v>42513</v>
+        <v>42844</v>
       </c>
       <c r="M57" t="b">
         <v>0</v>
@@ -3121,19 +3121,19 @@
         <v>2.9100625707902512E-3</v>
       </c>
       <c r="E58">
-        <v>693.17438610025908</v>
+        <v>1543.9279231594101</v>
       </c>
       <c r="F58">
-        <v>10.218939358344871</v>
+        <v>27.390610686569982</v>
       </c>
       <c r="G58">
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="H58">
-        <v>0.88256124174599648</v>
+        <v>0.94362105126578921</v>
       </c>
       <c r="I58">
-        <v>1.2380080330185188E-2</v>
+        <v>5.9433182421027844E-3</v>
       </c>
       <c r="J58">
         <v>8.99</v>
@@ -3142,7 +3142,7 @@
         <v>1.7320508075688405E-2</v>
       </c>
       <c r="L58" s="1">
-        <v>42513</v>
+        <v>42844</v>
       </c>
       <c r="M58" t="b">
         <v>1</v>
@@ -3165,19 +3165,19 @@
         <v>9.8295713299239654E-3</v>
       </c>
       <c r="E59">
-        <v>1343.2746297137428</v>
+        <v>3025.0443274560475</v>
       </c>
       <c r="F59">
-        <v>38.761348243035506</v>
+        <v>50.819988198928094</v>
       </c>
       <c r="G59">
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="H59">
-        <v>0.86500040865270356</v>
+        <v>0.93519060357189066</v>
       </c>
       <c r="I59">
-        <v>2.0938721162594591E-2</v>
+        <v>1.0052073987640393E-2</v>
       </c>
       <c r="J59">
         <v>9</v>
@@ -3186,7 +3186,7 @@
         <v>1.4529663145135268E-2</v>
       </c>
       <c r="L59" s="1">
-        <v>42513</v>
+        <v>42844</v>
       </c>
       <c r="M59" t="b">
         <v>1</v>
@@ -3206,19 +3206,19 @@
         <v>3.7288986971533745E-2</v>
       </c>
       <c r="E60">
-        <v>3102.8218658923961</v>
+        <v>7332.0338173200971</v>
       </c>
       <c r="F60">
-        <v>101.23502940805632</v>
+        <v>86.333322355887105</v>
       </c>
       <c r="G60">
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="H60">
-        <v>0.7947515905100685</v>
+        <v>0.90146617923715444</v>
       </c>
       <c r="I60">
-        <v>3.1727197811657781E-2</v>
+        <v>1.5231309369218682E-2</v>
       </c>
       <c r="J60">
         <v>9.0066666666666659</v>
@@ -3227,7 +3227,7 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L60" s="1">
-        <v>42513</v>
+        <v>42844</v>
       </c>
       <c r="M60" t="b">
         <v>1</v>
@@ -3247,19 +3247,19 @@
         <v>2.8512789654999628E-2</v>
       </c>
       <c r="E61">
-        <v>6202.8654744019877</v>
+        <v>14679.955354889733</v>
       </c>
       <c r="F61">
-        <v>80.458416181316622</v>
+        <v>130.33299320161686</v>
       </c>
       <c r="G61">
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="H61">
-        <v>0.79252023684441408</v>
+        <v>0.9003949709257405</v>
       </c>
       <c r="I61">
-        <v>1.2130001255289546E-2</v>
+        <v>5.8232625164407106E-3</v>
       </c>
       <c r="J61">
         <v>9.0033333333333321</v>
@@ -3268,7 +3268,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L61" s="1">
-        <v>42513</v>
+        <v>42844</v>
       </c>
       <c r="M61" t="b">
         <v>1</v>
@@ -3288,19 +3288,19 @@
         <v>4.110913887167042E-3</v>
       </c>
       <c r="E62">
-        <v>-34.369082523915971</v>
+        <v>92.47011910287894</v>
       </c>
       <c r="F62">
-        <v>13.809187048870061</v>
+        <v>4.7370138367286376</v>
       </c>
       <c r="G62">
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="H62">
-        <v>-0.28836330960806777</v>
+        <v>0.38149406496338573</v>
       </c>
       <c r="I62">
-        <v>8.7569718676119152E-2</v>
+        <v>4.2039687351188987E-2</v>
       </c>
       <c r="J62">
         <v>2.9933333333333336</v>
@@ -3309,7 +3309,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L62" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M62" t="b">
         <v>0</v>
@@ -3332,19 +3332,19 @@
         <v>5.5367848080272513E-3</v>
       </c>
       <c r="E63">
-        <v>23.578638850614244</v>
+        <v>627.08534477244473</v>
       </c>
       <c r="F63">
-        <v>11.711431698038677</v>
+        <v>32.954498809913645</v>
       </c>
       <c r="G63">
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="H63">
-        <v>4.3474292578255878E-2</v>
+        <v>0.54079969318947774</v>
       </c>
       <c r="I63">
-        <v>2.3554765241941875E-2</v>
+        <v>1.1307961032332713E-2</v>
       </c>
       <c r="J63">
         <v>3.0033333333333334</v>
@@ -3353,7 +3353,7 @@
         <v>5.7735026918961348E-3</v>
       </c>
       <c r="L63" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M63" t="b">
         <v>1</v>
@@ -3373,19 +3373,19 @@
         <v>4.3949423146833954E-3</v>
       </c>
       <c r="E64">
-        <v>52.807571308379636</v>
+        <v>1334.6731089275274</v>
       </c>
       <c r="F64">
-        <v>16.727188867910218</v>
+        <v>206.78881287892077</v>
       </c>
       <c r="G64">
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="H64">
-        <v>4.4190899663826659E-2</v>
+        <v>0.54114371551005247</v>
       </c>
       <c r="I64">
-        <v>9.3620025293164218E-3</v>
+        <v>4.4944264440218446E-3</v>
       </c>
       <c r="J64">
         <v>3.0033333333333334</v>
@@ -3394,7 +3394,7 @@
         <v>8.3333333333332742E-3</v>
       </c>
       <c r="L64" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M64" t="b">
         <v>1</v>
@@ -3414,19 +3414,19 @@
         <v>5.0491560213509853E-2</v>
       </c>
       <c r="E65">
-        <v>158.56689779900856</v>
+        <v>3279.9381783940717</v>
       </c>
       <c r="F65">
-        <v>145.34389045142967</v>
+        <v>576.72918203223719</v>
       </c>
       <c r="G65">
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="H65">
-        <v>5.2295798663713651E-2</v>
+        <v>0.54503464293473003</v>
       </c>
       <c r="I65">
-        <v>4.2960558835673818E-2</v>
+        <v>2.062412086264484E-2</v>
       </c>
       <c r="J65">
         <v>2.9933333333333336</v>
@@ -3435,7 +3435,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L65" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M65" t="b">
         <v>1</v>
@@ -3455,19 +3455,19 @@
         <v>8.5096172372693679E-3</v>
       </c>
       <c r="E66">
-        <v>234.63652443260989</v>
+        <v>6646.1784208833124</v>
       </c>
       <c r="F66">
-        <v>49.605621370173296</v>
+        <v>1187.0797757543103</v>
       </c>
       <c r="G66">
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="H66">
-        <v>3.9592216704615768E-2</v>
+        <v>0.53893602092389647</v>
       </c>
       <c r="I66">
-        <v>3.6201883091440245E-3</v>
+        <v>1.7379476258423448E-3</v>
       </c>
       <c r="J66">
         <v>2.9933333333333336</v>
@@ -3476,7 +3476,7 @@
         <v>1.1547005383792526E-2</v>
       </c>
       <c r="L66" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M66" t="b">
         <v>1</v>
@@ -3496,19 +3496,19 @@
         <v>1.7279719631377608E-3</v>
       </c>
       <c r="E67">
-        <v>-2.1397842331361255E-2</v>
+        <v>0.11444991418286077</v>
       </c>
       <c r="F67">
-        <v>5.7644001824667919E-3</v>
+        <v>1.070047154163809E-2</v>
       </c>
       <c r="G67">
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="H67">
-        <v>-0.16994686971303261</v>
+        <v>0.43834237035580376</v>
       </c>
       <c r="I67">
-        <v>3.6808851473284679E-2</v>
+        <v>1.7670864210681043E-2</v>
       </c>
       <c r="J67">
         <v>5.0233333333333334</v>
@@ -3517,7 +3517,7 @@
         <v>4.6188021535170098E-2</v>
       </c>
       <c r="L67" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M67" t="b">
         <v>0</v>
@@ -3540,19 +3540,19 @@
         <v>2.3291800596308226E-3</v>
       </c>
       <c r="E68">
-        <v>2.8358054298709801E-2</v>
+        <v>0.73587745446631947</v>
       </c>
       <c r="F68">
-        <v>6.9048870936667837E-3</v>
+        <v>2.5045985577600658E-2</v>
       </c>
       <c r="G68">
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="H68">
-        <v>4.3289576462565704E-2</v>
+        <v>0.54071101632868901</v>
       </c>
       <c r="I68">
-        <v>9.9088715586842461E-3</v>
+        <v>4.7569624366485246E-3</v>
       </c>
       <c r="J68">
         <v>4.99</v>
@@ -3561,7 +3561,7 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="L68" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -3581,19 +3581,19 @@
         <v>6.0905212186081392E-3</v>
       </c>
       <c r="E69">
-        <v>8.3417277936036219E-2</v>
+        <v>1.3242049550090049</v>
       </c>
       <c r="F69">
-        <v>2.8569637999314012E-2</v>
+        <v>0.22627993517601505</v>
       </c>
       <c r="G69">
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="H69">
-        <v>7.1542995212599339E-2</v>
+        <v>0.5542746649141852</v>
       </c>
       <c r="I69">
-        <v>1.2973884745418272E-2</v>
+        <v>6.2283865550030989E-3</v>
       </c>
       <c r="J69">
         <v>4.9933333333333332</v>
@@ -3602,7 +3602,7 @@
         <v>2.0816659994661382E-2</v>
       </c>
       <c r="L69" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -3622,19 +3622,19 @@
         <v>1.6649034734365097E-2</v>
       </c>
       <c r="E70">
-        <v>0.24945890835540283</v>
+        <v>3.7933390740114326</v>
       </c>
       <c r="F70">
-        <v>1.1124130862912486E-2</v>
+        <v>0.4369919422995962</v>
       </c>
       <c r="G70">
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="H70">
-        <v>7.7428385313679571E-2</v>
+        <v>0.55710007035718179</v>
       </c>
       <c r="I70">
-        <v>1.4165770145314125E-2</v>
+        <v>6.8005762380074983E-3</v>
       </c>
       <c r="J70">
         <v>5.0366666666666662</v>
@@ -3643,7 +3643,7 @@
         <v>1.5275252316519626E-2</v>
       </c>
       <c r="L70" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -3663,19 +3663,19 @@
         <v>1.5227231501892778E-2</v>
       </c>
       <c r="E71">
-        <v>0.70724779858878117</v>
+        <v>7.1863934914274834</v>
       </c>
       <c r="F71">
-        <v>0.16872255913331757</v>
+        <v>1.4261909061889864</v>
       </c>
       <c r="G71">
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="H71">
-        <v>0.11766164338235985</v>
+        <v>0.5764148930595675</v>
       </c>
       <c r="I71">
-        <v>6.4780170396324457E-3</v>
+        <v>3.1099084834229291E-3</v>
       </c>
       <c r="J71">
         <v>5.0133333333333328</v>
@@ -3684,7 +3684,7 @@
         <v>4.1633319989322265E-2</v>
       </c>
       <c r="L71" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M71" t="b">
         <v>1</v>
@@ -3704,19 +3704,19 @@
         <v>2.2205365515011485E-3</v>
       </c>
       <c r="E72">
-        <v>-12.920857613395855</v>
+        <v>120.2965404934521</v>
       </c>
       <c r="F72">
-        <v>6.2259610889512329</v>
+        <v>22.847191531433218</v>
       </c>
       <c r="G72">
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="H72">
-        <v>-0.10556756499376803</v>
+        <v>0.469249011180983</v>
       </c>
       <c r="I72">
-        <v>4.7301346236419954E-2</v>
+        <v>2.2708007255614518E-2</v>
       </c>
       <c r="J72">
         <v>6.9733333333333336</v>
@@ -3725,7 +3725,7 @@
         <v>3.2145502536643E-2</v>
       </c>
       <c r="L72" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M72" t="b">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>1.893878508829014E-3</v>
       </c>
       <c r="E73">
-        <v>69.882009136254908</v>
+        <v>772.37480257413097</v>
       </c>
       <c r="F73">
-        <v>9.1071562956183261</v>
+        <v>51.904722149829389</v>
       </c>
       <c r="G73">
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="H73">
-        <v>0.10744204318756756</v>
+        <v>0.57150875879833707</v>
       </c>
       <c r="I73">
-        <v>8.0569979182775562E-3</v>
+        <v>3.8679315018278803E-3</v>
       </c>
       <c r="J73">
         <v>6.9833333333333334</v>
@@ -3769,7 +3769,7 @@
         <v>3.0550504633038766E-2</v>
       </c>
       <c r="L73" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M73" t="b">
         <v>1</v>
@@ -3789,19 +3789,19 @@
         <v>5.2718281719955091E-3</v>
       </c>
       <c r="E74">
-        <v>169.43716390527425</v>
+        <v>1557.2607790595678</v>
       </c>
       <c r="F74">
-        <v>28.262597153716456</v>
+        <v>191.88410186275289</v>
       </c>
       <c r="G74">
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="H74">
-        <v>0.1318667120377075</v>
+        <v>0.58323433537480052</v>
       </c>
       <c r="I74">
-        <v>1.1229924114236905E-2</v>
+        <v>5.3911615325178009E-3</v>
       </c>
       <c r="J74">
         <v>6.9733333333333336</v>
@@ -3810,7 +3810,7 @@
         <v>2.5385910352879595E-2</v>
       </c>
       <c r="L74" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M74" t="b">
         <v>1</v>
@@ -3830,19 +3830,19 @@
         <v>5.2569429549846669E-2</v>
       </c>
       <c r="E75">
-        <v>525.19948499478244</v>
+        <v>4122.4980908609041</v>
       </c>
       <c r="F75">
-        <v>202.65884267884579</v>
+        <v>828.50446916051305</v>
       </c>
       <c r="G75">
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="H75">
-        <v>0.15611409212286276</v>
+        <v>0.59487480074657484</v>
       </c>
       <c r="I75">
-        <v>4.4728506340149229E-2</v>
+        <v>2.1472861288731531E-2</v>
       </c>
       <c r="J75">
         <v>7.0166666666666666</v>
@@ -3851,7 +3851,7 @@
         <v>2.5166114784235707E-2</v>
       </c>
       <c r="L75" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M75" t="b">
         <v>1</v>
@@ -3871,19 +3871,19 @@
         <v>1.5339770212439482E-2</v>
       </c>
       <c r="E76">
-        <v>998.53106490453865</v>
+        <v>7797.2186700330813</v>
       </c>
       <c r="F76">
-        <v>125.99874934856791</v>
+        <v>768.60264682482546</v>
       </c>
       <c r="G76">
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="H76">
-        <v>0.15876825581889287</v>
+        <v>0.59614898791591653</v>
       </c>
       <c r="I76">
-        <v>6.5258936142053728E-3</v>
+        <v>3.1328926411537312E-3</v>
       </c>
       <c r="J76">
         <v>6.9833333333333334</v>
@@ -3892,7 +3892,7 @@
         <v>3.2145502536643007E-2</v>
       </c>
       <c r="L76" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M76" t="b">
         <v>1</v>
@@ -3912,19 +3912,19 @@
         <v>3.5789352486523553E-3</v>
       </c>
       <c r="E77">
-        <v>-0.37792111736410067</v>
+        <v>127.81352619499012</v>
       </c>
       <c r="F77">
-        <v>9.0265034147219989</v>
+        <v>17.864401649697054</v>
       </c>
       <c r="G77">
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="H77">
-        <v>-4.3460329982840428E-3</v>
+        <v>0.5178425389738156</v>
       </c>
       <c r="I77">
-        <v>7.6237635106609108E-2</v>
+        <v>3.6599482021059691E-2</v>
       </c>
       <c r="J77">
         <v>8.99</v>
@@ -3933,7 +3933,7 @@
         <v>1.7320508075688402E-2</v>
       </c>
       <c r="L77" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M77" t="b">
         <v>0</v>
@@ -3956,19 +3956,19 @@
         <v>6.6715649459351198E-3</v>
       </c>
       <c r="E78">
-        <v>118.85860288812466</v>
+        <v>727.21203336213875</v>
       </c>
       <c r="F78">
-        <v>16.726456657973756</v>
+        <v>85.942098216403082</v>
       </c>
       <c r="G78">
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="H78">
-        <v>0.2127918011695287</v>
+        <v>0.62208412840144678</v>
       </c>
       <c r="I78">
-        <v>2.8382382835258149E-2</v>
+        <v>1.3625560510124042E-2</v>
       </c>
       <c r="J78">
         <v>8.9866666666666664</v>
@@ -3977,7 +3977,7 @@
         <v>1.154700538379227E-2</v>
       </c>
       <c r="L78" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M78" t="b">
         <v>1</v>
@@ -3997,19 +3997,19 @@
         <v>1.5337849075370707E-3</v>
       </c>
       <c r="E79">
-        <v>264.0648722888086</v>
+        <v>1477.9033340471351</v>
       </c>
       <c r="F79">
-        <v>19.190182245271512</v>
+        <v>97.898483982226224</v>
       </c>
       <c r="G79">
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="H79">
-        <v>0.23554345826628062</v>
+        <v>0.63300654045813587</v>
       </c>
       <c r="I79">
-        <v>3.2672324585046571E-3</v>
+        <v>1.5685037377726563E-3</v>
       </c>
       <c r="J79">
         <v>8.9800000000000022</v>
@@ -4018,7 +4018,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L79" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M79" t="b">
         <v>1</v>
@@ -4038,19 +4038,19 @@
         <v>4.5362455259829855E-2</v>
       </c>
       <c r="E80">
-        <v>554.12558353266138</v>
+        <v>3755.1320098543606</v>
       </c>
       <c r="F80">
-        <v>201.19911180333975</v>
+        <v>1084.4336807657073</v>
       </c>
       <c r="G80">
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="H80">
-        <v>0.18636275543164157</v>
+        <v>0.60939630849511151</v>
       </c>
       <c r="I80">
-        <v>3.8596478696237779E-2</v>
+        <v>1.8529052300006489E-2</v>
       </c>
       <c r="J80">
         <v>8.9966666666666661</v>
@@ -4059,7 +4059,7 @@
         <v>2.5166114784235295E-2</v>
       </c>
       <c r="L80" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M80" t="b">
         <v>1</v>
@@ -4079,19 +4079,19 @@
         <v>7.4897715451120839E-2</v>
       </c>
       <c r="E81">
-        <v>1020.0108574591721</v>
+        <v>7016.7029571436624</v>
       </c>
       <c r="F81">
-        <v>81.208072357769652</v>
+        <v>427.21305716109964</v>
       </c>
       <c r="G81">
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="H81">
-        <v>0.18601808097673023</v>
+        <v>0.60923084026543728</v>
       </c>
       <c r="I81">
-        <v>3.1863223256413671E-2</v>
+        <v>1.5296611248176354E-2</v>
       </c>
       <c r="J81">
         <v>8.99</v>
@@ -4100,7 +4100,7 @@
         <v>9.9999999999997868E-3</v>
       </c>
       <c r="L81" s="1">
-        <v>42534</v>
+        <v>42844</v>
       </c>
       <c r="M81" t="b">
         <v>1</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
   <si>
     <t>Mineral</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Include?</t>
-  </si>
-  <si>
-    <t>Negative Cs</t>
   </si>
   <si>
     <t>Counts close to detection</t>
@@ -716,7 +713,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L57" sqref="L57:L81"/>
+      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -727,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -810,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1223,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1431,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1475,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1519,7 +1516,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1563,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1607,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1651,7 +1648,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -1859,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -2067,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
@@ -2278,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="N37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
@@ -2322,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
@@ -3104,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="N57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.25">
@@ -3148,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.25">
@@ -3279,7 +3276,7 @@
         <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62">
         <v>6.0481530616457869E-2</v>
@@ -3312,10 +3309,7 @@
         <v>42844</v>
       </c>
       <c r="M62" t="b">
-        <v>0</v>
-      </c>
-      <c r="N62" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.25">
@@ -3323,7 +3317,7 @@
         <v>50</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63">
         <v>0.22484100142547692</v>
@@ -3364,7 +3358,7 @@
         <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C64">
         <v>0.44869950063276254</v>
@@ -3400,12 +3394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>250</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C65">
         <v>1.1138370878600525</v>
@@ -3441,12 +3435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>500</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C66">
         <v>2.2575352245890699</v>
@@ -3482,12 +3476,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C67">
         <v>5.492253380120219E-2</v>
@@ -3520,18 +3514,15 @@
         <v>42844</v>
       </c>
       <c r="M67" t="b">
-        <v>0</v>
-      </c>
-      <c r="N67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>50</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C68">
         <v>0.22488442080888602</v>
@@ -3567,12 +3558,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C69">
         <v>0.43585920479369039</v>
@@ -3608,12 +3599,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>250</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C70">
         <v>1.0842987497529546</v>
@@ -3649,12 +3640,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>500</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71">
         <v>2.0740251742188565</v>
@@ -3690,12 +3681,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C72">
         <v>5.1900281568150797E-2</v>
@@ -3728,18 +3719,15 @@
         <v>42844</v>
       </c>
       <c r="M72" t="b">
-        <v>0</v>
-      </c>
-      <c r="N72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>50</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C73">
         <v>0.20980473737701746</v>
@@ -3775,12 +3763,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>100</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C74">
         <v>0.40754055663872069</v>
@@ -3816,12 +3804,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>250</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C75">
         <v>0.99181941030825049</v>
@@ -3857,12 +3845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>500</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C76">
         <v>1.9773999415280228</v>
@@ -3898,12 +3886,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C77">
         <v>4.714849056263698E-2</v>
@@ -3936,18 +3924,15 @@
         <v>42844</v>
       </c>
       <c r="M77" t="b">
-        <v>0</v>
-      </c>
-      <c r="N77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>50</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C78">
         <v>0.18504121570602919</v>
@@ -3983,12 +3968,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C79">
         <v>0.35887005931490501</v>
@@ -4024,12 +4009,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>250</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C80">
         <v>0.95626814546843786</v>
@@ -4070,7 +4055,7 @@
         <v>500</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C81">
         <v>1.9133464829579239</v>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -710,10 +710,10 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I65" sqref="I65"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -710,10 +710,10 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3268,7 +3268,7 @@
         <v>42844</v>
       </c>
       <c r="M61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.25">
@@ -3473,7 +3473,7 @@
         <v>42844</v>
       </c>
       <c r="M66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3490,10 +3490,10 @@
         <v>1.7279719631377608E-3</v>
       </c>
       <c r="E67">
-        <v>0.11444991418286077</v>
+        <v>114.44991418286077</v>
       </c>
       <c r="F67">
-        <v>1.070047154163809E-2</v>
+        <v>10.700471541638096</v>
       </c>
       <c r="G67">
         <v>9.778649999999999</v>
@@ -3511,7 +3511,7 @@
         <v>4.6188021535170098E-2</v>
       </c>
       <c r="L67" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="M67" t="b">
         <v>1</v>
@@ -3531,10 +3531,10 @@
         <v>2.3291800596308226E-3</v>
       </c>
       <c r="E68">
-        <v>0.73587745446631947</v>
+        <v>735.87745446631959</v>
       </c>
       <c r="F68">
-        <v>2.5045985577600658E-2</v>
+        <v>25.04598557760059</v>
       </c>
       <c r="G68">
         <v>48.963600000000007</v>
@@ -3552,7 +3552,7 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="L68" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="M68" t="b">
         <v>1</v>
@@ -3572,10 +3572,10 @@
         <v>6.0905212186081392E-3</v>
       </c>
       <c r="E69">
-        <v>1.3242049550090049</v>
+        <v>1324.2049550090051</v>
       </c>
       <c r="F69">
-        <v>0.22627993517601505</v>
+        <v>226.27993517601215</v>
       </c>
       <c r="G69">
         <v>97.786500000000004</v>
@@ -3593,7 +3593,7 @@
         <v>2.0816659994661382E-2</v>
       </c>
       <c r="L69" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="M69" t="b">
         <v>1</v>
@@ -3613,10 +3613,10 @@
         <v>1.6649034734365097E-2</v>
       </c>
       <c r="E70">
-        <v>3.7933390740114326</v>
+        <v>3793.3390740114323</v>
       </c>
       <c r="F70">
-        <v>0.4369919422995962</v>
+        <v>436.9919422995963</v>
       </c>
       <c r="G70">
         <v>244.81799999999998</v>
@@ -3634,7 +3634,7 @@
         <v>1.5275252316519626E-2</v>
       </c>
       <c r="L70" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="M70" t="b">
         <v>1</v>
@@ -3654,10 +3654,10 @@
         <v>1.5227231501892778E-2</v>
       </c>
       <c r="E71">
-        <v>7.1863934914274834</v>
+        <v>7186.3934914274823</v>
       </c>
       <c r="F71">
-        <v>1.4261909061889864</v>
+        <v>1426.1909061889894</v>
       </c>
       <c r="G71">
         <v>489.63599999999997</v>
@@ -3675,10 +3675,10 @@
         <v>4.1633319989322265E-2</v>
       </c>
       <c r="L71" s="1">
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="M71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
         <v>42844</v>
       </c>
       <c r="M76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>42844</v>
       </c>
       <c r="M81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -710,10 +710,10 @@
   <dimension ref="A1:N81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L64" sqref="L64"/>
+      <selection pane="bottomRight" activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3473,7 +3473,7 @@
         <v>42844</v>
       </c>
       <c r="M66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
@@ -3678,7 +3678,7 @@
         <v>42845</v>
       </c>
       <c r="M71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
@@ -3883,7 +3883,7 @@
         <v>42844</v>
       </c>
       <c r="M76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
@@ -4088,7 +4088,7 @@
         <v>42844</v>
       </c>
       <c r="M81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
   <si>
     <t>Mineral</t>
   </si>
@@ -74,40 +74,259 @@
     <t>Include?</t>
   </si>
   <si>
-    <t>Counts close to detection</t>
-  </si>
-  <si>
-    <t>Counts at detection</t>
-  </si>
-  <si>
-    <t>Below Detection</t>
-  </si>
-  <si>
-    <t>One sample close to detection</t>
-  </si>
-  <si>
-    <t>Total Activity</t>
-  </si>
-  <si>
     <t>Pyrite</t>
   </si>
   <si>
-    <t>Counts below detection</t>
-  </si>
-  <si>
-    <t>Solution counts from Scint, Solid counts from Gamma except for 1</t>
-  </si>
-  <si>
-    <t>Solid counted, mass found by matching to expected solution results (non-detect/detect)</t>
-  </si>
-  <si>
-    <t>Anamalous Points</t>
-  </si>
-  <si>
-    <t>Missing 1 solid, Solid counted, mass found by matching to expected solution results (non-detect/detect)</t>
-  </si>
-  <si>
-    <t>Total activity exceeds possible initial activity. Solid counted, mass found by matching to expected solution results (non-detect/detect).</t>
+    <t>Negative Cs</t>
+  </si>
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_5</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_10</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_50</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_100</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_500</t>
+  </si>
+  <si>
+    <t>Nsamples</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_5</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_10</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_50</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_100</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_500</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_5</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_10</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_50</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_100</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_500</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_5</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_10</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_50</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_100</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_500</t>
+  </si>
+  <si>
+    <t>Solution Counts Below Detection?</t>
+  </si>
+  <si>
+    <t>RaMontpH3_10</t>
+  </si>
+  <si>
+    <t>RaMontpH3_50</t>
+  </si>
+  <si>
+    <t>RaMontpH3_100</t>
+  </si>
+  <si>
+    <t>RaMontpH3_250</t>
+  </si>
+  <si>
+    <t>RaMontpH3_500</t>
+  </si>
+  <si>
+    <t>RaMontpH5_10</t>
+  </si>
+  <si>
+    <t>RaMontpH5_50</t>
+  </si>
+  <si>
+    <t>RaMontpH5_100</t>
+  </si>
+  <si>
+    <t>RaMontpH5_250</t>
+  </si>
+  <si>
+    <t>RaMontpH5_500</t>
+  </si>
+  <si>
+    <t>RaMontpH7_10</t>
+  </si>
+  <si>
+    <t>RaMontpH7_50</t>
+  </si>
+  <si>
+    <t>RaMontpH7_100</t>
+  </si>
+  <si>
+    <t>RaMontpH7_250</t>
+  </si>
+  <si>
+    <t>RaMontpH7_500</t>
+  </si>
+  <si>
+    <t>RaMontpH9_10</t>
+  </si>
+  <si>
+    <t>RaMontpH9_50</t>
+  </si>
+  <si>
+    <t>RaMontpH9_100</t>
+  </si>
+  <si>
+    <t>RaMontpH9_250</t>
+  </si>
+  <si>
+    <t>RaMontpH9_500</t>
+  </si>
+  <si>
+    <t>RaGOEpH3_10</t>
+  </si>
+  <si>
+    <t>RaGOEpH3_50</t>
+  </si>
+  <si>
+    <t>RaGOEpH3_100</t>
+  </si>
+  <si>
+    <t>RaGOEpH3_250</t>
+  </si>
+  <si>
+    <t>RaGOEpH3_500</t>
+  </si>
+  <si>
+    <t>RaGOEpH5_10</t>
+  </si>
+  <si>
+    <t>RaGOEpH5_50</t>
+  </si>
+  <si>
+    <t>RaGOEpH5_100</t>
+  </si>
+  <si>
+    <t>RaGOEpH5_250</t>
+  </si>
+  <si>
+    <t>RaGOEpH5_500</t>
+  </si>
+  <si>
+    <t>RaGOEpH7_10</t>
+  </si>
+  <si>
+    <t>RaGOEpH7_50</t>
+  </si>
+  <si>
+    <t>RaGOEpH7_100</t>
+  </si>
+  <si>
+    <t>RaGOEpH7_250</t>
+  </si>
+  <si>
+    <t>RaGOEpH7_500</t>
+  </si>
+  <si>
+    <t>RaGOEpH9_10</t>
+  </si>
+  <si>
+    <t>RaGOEpH9_50</t>
+  </si>
+  <si>
+    <t>RaGOEpH9_100</t>
+  </si>
+  <si>
+    <t>RaGOEpH9_250</t>
+  </si>
+  <si>
+    <t>RaGOEpH9_500</t>
+  </si>
+  <si>
+    <t>RaPYRpH3_10</t>
+  </si>
+  <si>
+    <t>RaPYRpH3_50</t>
+  </si>
+  <si>
+    <t>RaPYRpH3_100</t>
+  </si>
+  <si>
+    <t>RaPYRpH3_250</t>
+  </si>
+  <si>
+    <t>RaPYRpH3_500</t>
+  </si>
+  <si>
+    <t>RaPYRpH5_10</t>
+  </si>
+  <si>
+    <t>RaPYRpH5_50</t>
+  </si>
+  <si>
+    <t>RaPYRpH5_100</t>
+  </si>
+  <si>
+    <t>RaPYRpH5_250</t>
+  </si>
+  <si>
+    <t>RaPYRpH5_500</t>
+  </si>
+  <si>
+    <t>RaPYRpH7_10</t>
+  </si>
+  <si>
+    <t>RaPYRpH7_50</t>
+  </si>
+  <si>
+    <t>RaPYRpH7_100</t>
+  </si>
+  <si>
+    <t>RaPYRpH7_250</t>
+  </si>
+  <si>
+    <t>RaPYRpH7_500</t>
+  </si>
+  <si>
+    <t>RaPYRpH9_10</t>
+  </si>
+  <si>
+    <t>RaPYRpH9_50</t>
+  </si>
+  <si>
+    <t>RaPYRpH9_100</t>
+  </si>
+  <si>
+    <t>RaPYRpH9_250</t>
+  </si>
+  <si>
+    <t>RaPYRpH9_500</t>
   </si>
 </sst>
 </file>
@@ -707,24 +926,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:P81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M82" sqref="M82"/>
+      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -757,86 +978,98 @@
         <v>3</v>
       </c>
       <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>5</v>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
       <c r="C2">
-        <v>4.2192194067775357E-2</v>
+        <v>6.2992590413771823E-2</v>
       </c>
       <c r="D2">
-        <v>2.3215701068336071E-2</v>
+        <v>2.3283860335737056E-2</v>
       </c>
       <c r="E2">
-        <v>-50.432807795292696</v>
+        <v>-85.436982161797758</v>
       </c>
       <c r="F2">
-        <v>77.385670227786889</v>
+        <v>77.612867785790158</v>
       </c>
       <c r="G2">
-        <v>2.7062351729187553</v>
+        <v>3.7361495765232502</v>
       </c>
       <c r="H2">
-        <v>-7.6568566758661485E-2</v>
+        <v>-0.68602967101737022</v>
       </c>
       <c r="I2">
-        <v>0.27382617504009016</v>
+        <v>0.62320471541196498</v>
       </c>
       <c r="J2">
-        <v>3.06</v>
+        <v>3.063333333333333</v>
       </c>
       <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M2" t="b">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>10</v>
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1">
+        <v>42922</v>
+      </c>
+      <c r="N2" t="b">
+        <v>1</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
-        <v>7.5896562998217273E-2</v>
+        <v>9.8704665511227405E-2</v>
       </c>
       <c r="D3">
-        <v>1.7104717307201752E-2</v>
+        <v>2.2994791011849459E-2</v>
       </c>
       <c r="E3">
-        <v>-73.028460279763181</v>
+        <v>-80.567894679397114</v>
       </c>
       <c r="F3">
-        <v>57.015724357339344</v>
+        <v>76.64930337283127</v>
       </c>
       <c r="G3">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H3">
-        <v>-0.40580365958397396</v>
+        <v>-0.32428518603976669</v>
       </c>
       <c r="I3">
-        <v>0.31682428342872976</v>
+        <v>0.30851288472892607</v>
       </c>
       <c r="J3">
         <v>3.0733333333333328</v>
@@ -844,40 +1077,49 @@
       <c r="K3">
         <v>3.2145502536643167E-2</v>
       </c>
-      <c r="L3" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>50</v>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>42922</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+      <c r="O3" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.26562884439797163</v>
+        <v>0.353771971251019</v>
       </c>
       <c r="D4">
-        <v>1.6614263602304405E-2</v>
+        <v>2.2335447729961034E-2</v>
       </c>
       <c r="E4">
-        <v>15.509921778956345</v>
+        <v>64.570834478880585</v>
       </c>
       <c r="F4">
-        <v>55.380878674348011</v>
+        <v>74.451492433203455</v>
       </c>
       <c r="G4">
-        <v>27.028182093165853</v>
+        <v>37.314322159468318</v>
       </c>
       <c r="H4">
-        <v>1.7215277437632109E-2</v>
+        <v>5.1913713616123708E-2</v>
       </c>
       <c r="I4">
-        <v>6.1470148251314922E-2</v>
+        <v>5.9857573278451037E-2</v>
       </c>
       <c r="J4">
         <v>3.0399999999999996</v>
@@ -885,81 +1127,93 @@
       <c r="K4">
         <v>2.6457513110645845E-2</v>
       </c>
-      <c r="L4" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>100</v>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1">
+        <v>42922</v>
+      </c>
+      <c r="N4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.50341738692717375</v>
+        <v>0.80374342185507319</v>
       </c>
       <c r="D5">
-        <v>4.053526157533259E-2</v>
+        <v>0.26437015864557684</v>
       </c>
       <c r="E5">
-        <v>121.54287405236458</v>
+        <v>-194.66816926996796</v>
       </c>
       <c r="F5">
-        <v>135.117538584442</v>
+        <v>881.23386215192409</v>
       </c>
       <c r="G5">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H5">
-        <v>6.7538796378637703E-2</v>
+        <v>-7.8353795564519685E-2</v>
       </c>
       <c r="I5">
-        <v>7.5081949450246807E-2</v>
+        <v>0.35469598413815362</v>
       </c>
       <c r="J5">
         <v>3.07</v>
       </c>
       <c r="K5">
-        <v>8.660254037844381E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>500</v>
+        <v>7.071067811865471E-2</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>42922</v>
+      </c>
+      <c r="N5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6">
-        <v>2.5472264201852171</v>
+        <v>3.4210462492234441</v>
       </c>
       <c r="D6">
-        <v>0.1439947507279376</v>
+        <v>0.19357988444498583</v>
       </c>
       <c r="E6">
-        <v>530.02917577846085</v>
+        <v>1050.3444243326874</v>
       </c>
       <c r="F6">
-        <v>479.98250242645872</v>
+        <v>645.26628148328598</v>
       </c>
       <c r="G6">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H6">
-        <v>5.8756443018971836E-2</v>
+        <v>8.4339055716562597E-2</v>
       </c>
       <c r="I6">
-        <v>5.320851349834279E-2</v>
+        <v>5.1812669830292403E-2</v>
       </c>
       <c r="J6">
         <v>3.0625</v>
@@ -967,40 +1221,46 @@
       <c r="K6">
         <v>3.3040379335998273E-2</v>
       </c>
-      <c r="L6" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>5</v>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>42922</v>
+      </c>
+      <c r="N6" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.2519941103083323E-2</v>
+        <v>4.0391140805463834E-2</v>
       </c>
       <c r="D7">
-        <v>6.2426083986676451E-3</v>
+        <v>8.3922740679110274E-3</v>
       </c>
       <c r="E7">
-        <v>-18.191964579652574</v>
+        <v>-10.098816800771113</v>
       </c>
       <c r="F7">
-        <v>20.80869466222557</v>
+        <v>27.974246893036774</v>
       </c>
       <c r="G7">
-        <v>2.7062351729187553</v>
+        <v>3.7361495765232502</v>
       </c>
       <c r="H7">
-        <v>-0.20166722495183589</v>
+        <v>-8.1090036096751569E-2</v>
       </c>
       <c r="I7">
-        <v>0.23067501528090892</v>
+        <v>0.22462361037805759</v>
       </c>
       <c r="J7">
         <v>5</v>
@@ -1008,40 +1268,49 @@
       <c r="K7">
         <v>0</v>
       </c>
-      <c r="L7" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>10</v>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7" s="1">
+        <v>42923</v>
+      </c>
+      <c r="N7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
       <c r="C8">
-        <v>5.2359599749640114E-2</v>
+        <v>6.7062660488044074E-2</v>
       </c>
       <c r="D8">
-        <v>5.7003906421651557E-3</v>
+        <v>7.6633415886563448E-3</v>
       </c>
       <c r="E8">
-        <v>5.4280838821606574</v>
+        <v>24.905455397880697</v>
       </c>
       <c r="F8">
-        <v>19.001302140550514</v>
+        <v>25.544471962187814</v>
       </c>
       <c r="G8">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H8">
-        <v>3.0162710475767435E-2</v>
+        <v>0.10024427557956499</v>
       </c>
       <c r="I8">
-        <v>0.10558620455582746</v>
+        <v>0.10281631257101706</v>
       </c>
       <c r="J8">
         <v>5</v>
@@ -1049,40 +1318,46 @@
       <c r="K8">
         <v>0</v>
       </c>
-      <c r="L8" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>50</v>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>42924</v>
+      </c>
+      <c r="N8" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.20040871702034421</v>
+        <v>0.26609304783593918</v>
       </c>
       <c r="D9">
-        <v>7.5711995273725463E-2</v>
+        <v>0.10178370546214263</v>
       </c>
       <c r="E9">
-        <v>232.91034637104772</v>
+        <v>356.83391252914686</v>
       </c>
       <c r="F9">
-        <v>252.37331757908467</v>
+        <v>339.2790182071422</v>
       </c>
       <c r="G9">
-        <v>27.028182093165853</v>
+        <v>37.314322159468318</v>
       </c>
       <c r="H9">
-        <v>0.25851943601113264</v>
+        <v>0.2868876280299269</v>
       </c>
       <c r="I9">
-        <v>0.28012241079606082</v>
+        <v>0.27277382938153033</v>
       </c>
       <c r="J9">
         <v>5</v>
@@ -1090,40 +1365,46 @@
       <c r="K9">
         <v>0</v>
       </c>
-      <c r="L9" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>100</v>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>42925</v>
+      </c>
+      <c r="N9" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.48461522514543365</v>
+        <v>0.64816713542067095</v>
       </c>
       <c r="D10">
-        <v>6.7959977501042025E-3</v>
+        <v>9.1362251228114533E-3</v>
       </c>
       <c r="E10">
-        <v>184.21674665816465</v>
+        <v>323.91945217803931</v>
       </c>
       <c r="F10">
-        <v>22.653325833680704</v>
+        <v>30.45408374270469</v>
       </c>
       <c r="G10">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H10">
-        <v>0.10236533765624593</v>
+        <v>0.13037734227690609</v>
       </c>
       <c r="I10">
-        <v>1.2587972538157445E-2</v>
+        <v>1.2257746403170044E-2</v>
       </c>
       <c r="J10">
         <v>5</v>
@@ -1131,40 +1412,46 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>500</v>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>42926</v>
+      </c>
+      <c r="N10" t="b">
+        <v>1</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>2.3676649545579718</v>
+        <v>3.1796521179014725</v>
       </c>
       <c r="D11">
-        <v>0.1309641873132579</v>
+        <v>0.16668945435813864</v>
       </c>
       <c r="E11">
-        <v>1128.5673945359458</v>
+        <v>1854.9915287392591</v>
       </c>
       <c r="F11">
-        <v>413.30751725734325</v>
+        <v>555.63151452712827</v>
       </c>
       <c r="G11">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H11">
-        <v>0.12510746358958363</v>
+        <v>0.14894945912193314</v>
       </c>
       <c r="I11">
-        <v>4.5817250628471216E-2</v>
+        <v>4.4615305395041285E-2</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1172,40 +1459,46 @@
       <c r="K11">
         <v>0</v>
       </c>
-      <c r="L11" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>5</v>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>42927</v>
+      </c>
+      <c r="N11" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.2657655776846464E-2</v>
+        <v>2.713274045291543E-2</v>
       </c>
       <c r="D12">
-        <v>1.4215575381999962E-3</v>
+        <v>1.9110762203865689E-3</v>
       </c>
       <c r="E12">
-        <v>14.68231984113695</v>
+        <v>34.09585104105691</v>
       </c>
       <c r="F12">
-        <v>4.7385251273333138</v>
+        <v>6.3702540679552238</v>
       </c>
       <c r="G12">
-        <v>2.7062351729187553</v>
+        <v>3.7361495765232502</v>
       </c>
       <c r="H12">
-        <v>0.16276101930899409</v>
+        <v>0.27377799263153829</v>
       </c>
       <c r="I12">
-        <v>5.2528972811583259E-2</v>
+        <v>5.1150955850246205E-2</v>
       </c>
       <c r="J12">
         <v>6.9600000000000009</v>
@@ -1213,43 +1506,46 @@
       <c r="K12">
         <v>4.3588989435406622E-2</v>
       </c>
-      <c r="L12" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M12" t="b">
-        <v>0</v>
-      </c>
-      <c r="N12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>10</v>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1">
+        <v>42928</v>
+      </c>
+      <c r="N12" t="b">
+        <v>1</v>
+      </c>
+      <c r="O12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
       </c>
       <c r="C13">
-        <v>3.168855859121595E-2</v>
+        <v>3.9273468600308621E-2</v>
       </c>
       <c r="D13">
-        <v>2.9243762965879389E-3</v>
+        <v>3.9313962676093203E-3</v>
       </c>
       <c r="E13">
-        <v>74.331554410241196</v>
+        <v>117.53609502366551</v>
       </c>
       <c r="F13">
-        <v>9.7479209886265412</v>
+        <v>13.104654225364399</v>
       </c>
       <c r="G13">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H13">
-        <v>0.41304467719415777</v>
+        <v>0.47308192168615659</v>
       </c>
       <c r="I13">
-        <v>5.4167128751805425E-2</v>
+        <v>5.274613728420819E-2</v>
       </c>
       <c r="J13">
         <v>6.9333333333333336</v>
@@ -1257,40 +1553,46 @@
       <c r="K13">
         <v>2.8867513459481187E-2</v>
       </c>
-      <c r="L13" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>50</v>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1">
+        <v>42929</v>
+      </c>
+      <c r="N13" t="b">
+        <v>1</v>
+      </c>
+      <c r="O13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.11832831990211896</v>
+        <v>0.15574795741409928</v>
       </c>
       <c r="D14">
-        <v>5.0475402981936647E-3</v>
+        <v>6.7856797745486155E-3</v>
       </c>
       <c r="E14">
-        <v>506.51167009846523</v>
+        <v>724.65088060194648</v>
       </c>
       <c r="F14">
-        <v>16.825134327312245</v>
+        <v>22.618932581828766</v>
       </c>
       <c r="G14">
-        <v>27.028182093165853</v>
+        <v>37.314322159468318</v>
       </c>
       <c r="H14">
-        <v>0.56220392664870122</v>
+        <v>0.5826054222598841</v>
       </c>
       <c r="I14">
-        <v>1.8675100977175844E-2</v>
+        <v>1.8185188372306517E-2</v>
       </c>
       <c r="J14">
         <v>6.9833333333333334</v>
@@ -1298,40 +1600,46 @@
       <c r="K14">
         <v>5.5075705472860871E-2</v>
       </c>
-      <c r="L14" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>100</v>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1">
+        <v>42930</v>
+      </c>
+      <c r="N14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
       </c>
       <c r="C15">
-        <v>0.24929039043619494</v>
+        <v>0.33180730924812279</v>
       </c>
       <c r="D15">
-        <v>1.5812114515146171E-2</v>
+        <v>2.1257075589207617E-2</v>
       </c>
       <c r="E15">
-        <v>968.63286235562691</v>
+        <v>1378.4522060865331</v>
       </c>
       <c r="F15">
-        <v>52.70704838382057</v>
+        <v>70.856918630692036</v>
       </c>
       <c r="G15">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H15">
-        <v>0.53824873046945176</v>
+        <v>0.55482600343038169</v>
       </c>
       <c r="I15">
-        <v>2.9288188520046055E-2</v>
+        <v>2.8519857856276504E-2</v>
       </c>
       <c r="J15">
         <v>6.9600000000000009</v>
@@ -1339,40 +1647,46 @@
       <c r="K15">
         <v>2.6457513110645845E-2</v>
       </c>
-      <c r="L15" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>500</v>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15" s="1">
+        <v>42931</v>
+      </c>
+      <c r="N15" t="b">
+        <v>1</v>
+      </c>
+      <c r="O15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1.524268101940466</v>
+        <v>2.0458283885946167</v>
       </c>
       <c r="D16">
-        <v>0.17621072233870819</v>
+        <v>0.23688954698594059</v>
       </c>
       <c r="E16">
-        <v>3939.8902365942981</v>
+        <v>5634.4039597621122</v>
       </c>
       <c r="F16">
-        <v>587.3690744623666</v>
+        <v>789.6318232864661</v>
       </c>
       <c r="G16">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H16">
-        <v>0.4367569687979122</v>
+        <v>0.45242331799295793</v>
       </c>
       <c r="I16">
-        <v>6.511286384200668E-2</v>
+        <v>6.3404727817772191E-2</v>
       </c>
       <c r="J16">
         <v>6.9950000000000001</v>
@@ -1380,40 +1694,46 @@
       <c r="K16">
         <v>3.3166247903554144E-2</v>
       </c>
-      <c r="L16" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>5</v>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N16" t="b">
+        <v>1</v>
+      </c>
+      <c r="O16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
       </c>
       <c r="C17">
-        <v>1.3495179073358524E-2</v>
+        <v>1.4815130453074343E-2</v>
       </c>
       <c r="D17">
-        <v>4.1461435671810639E-4</v>
+        <v>5.573883690688687E-4</v>
       </c>
       <c r="E17">
-        <v>45.223908852763429</v>
+        <v>75.15455104052721</v>
       </c>
       <c r="F17">
-        <v>1.3820478557270199</v>
+        <v>1.8579612302295603</v>
       </c>
       <c r="G17">
-        <v>2.7062351729187553</v>
+        <v>3.7361495765232502</v>
       </c>
       <c r="H17">
-        <v>0.50133014276052101</v>
+        <v>0.60346527488707069</v>
       </c>
       <c r="I17">
-        <v>1.532070682057291E-2</v>
+        <v>1.4918791596870607E-2</v>
       </c>
       <c r="J17">
         <v>8.9166666666666661</v>
@@ -1421,43 +1741,46 @@
       <c r="K17">
         <v>1.527525231651914E-2</v>
       </c>
-      <c r="L17" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M17" t="b">
-        <v>0</v>
-      </c>
-      <c r="N17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>10</v>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N17" t="b">
+        <v>1</v>
+      </c>
+      <c r="O17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
       </c>
       <c r="C18">
-        <v>-2.4383656501640903E-2</v>
+        <v>1.4965480027655098E-2</v>
       </c>
       <c r="D18">
-        <v>3.5532598955532839E-3</v>
+        <v>4.6898714669976998E-4</v>
       </c>
       <c r="E18">
-        <v>261.2389380530974</v>
+        <v>198.56272359917727</v>
       </c>
       <c r="F18">
-        <v>11.844199651844281</v>
+        <v>1.5632904889992421</v>
       </c>
       <c r="G18">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H18">
-        <v>1.4516493526175951</v>
+        <v>0.7992135082982138</v>
       </c>
       <c r="I18">
-        <v>6.5815704523261576E-2</v>
+        <v>6.2922327693508695E-3</v>
       </c>
       <c r="J18">
         <v>8.9066666666666663</v>
@@ -1465,43 +1788,46 @@
       <c r="K18">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L18" s="1">
-        <v>42517</v>
-      </c>
-      <c r="M18" t="b">
-        <v>0</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>50</v>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N18" t="b">
+        <v>1</v>
+      </c>
+      <c r="O18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
       </c>
       <c r="C19">
-        <v>-1.0957117121438813E-2</v>
+        <v>1.5333983886921492E-2</v>
       </c>
       <c r="D19">
-        <v>4.2526244585913853E-3</v>
+        <v>2.0174097080446373E-4</v>
       </c>
       <c r="E19">
-        <v>937.46312684365785</v>
+        <v>1192.6974590258721</v>
       </c>
       <c r="F19">
-        <v>14.175414861971241</v>
+        <v>0.67246990268154394</v>
       </c>
       <c r="G19">
-        <v>27.028182093165853</v>
+        <v>37.314322159468318</v>
       </c>
       <c r="H19">
-        <v>1.0405396007902779</v>
+        <v>0.95890590261457931</v>
       </c>
       <c r="I19">
-        <v>1.5734038064168072E-2</v>
+        <v>5.406529159025737E-4</v>
       </c>
       <c r="J19">
         <v>8.9166666666666661</v>
@@ -1509,43 +1835,46 @@
       <c r="K19">
         <v>2.5166114784235295E-2</v>
       </c>
-      <c r="L19" s="1">
-        <v>42517</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>100</v>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N19" t="b">
+        <v>1</v>
+      </c>
+      <c r="O19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
       </c>
       <c r="C20">
-        <v>1.7402373036688297E-2</v>
+        <v>1.6710714305141112E-2</v>
       </c>
       <c r="D20">
-        <v>1.2302237781342635E-2</v>
+        <v>3.264336895498481E-4</v>
       </c>
       <c r="E20">
-        <v>1741.5929203539824</v>
+        <v>2428.7741892298059</v>
       </c>
       <c r="F20">
-        <v>41.007459271142103</v>
+        <v>1.0881122984994318</v>
       </c>
       <c r="G20">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H20">
-        <v>0.96776623507839676</v>
+        <v>0.97757983243464419</v>
       </c>
       <c r="I20">
-        <v>2.2786975076183512E-2</v>
+        <v>4.3796440325917252E-4</v>
       </c>
       <c r="J20">
         <v>8.8633333333333333</v>
@@ -1553,43 +1882,46 @@
       <c r="K20">
         <v>5.0332229568471415E-2</v>
       </c>
-      <c r="L20" s="1">
-        <v>42517</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>500</v>
+      <c r="L20">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N20" t="b">
+        <v>1</v>
+      </c>
+      <c r="O20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
       </c>
       <c r="C21">
-        <v>3.8641005125916991E-2</v>
+        <v>4.8620016234813795E-2</v>
       </c>
       <c r="D21">
-        <v>1.3991056693009167E-2</v>
+        <v>1.880892966031213E-2</v>
       </c>
       <c r="E21">
-        <v>8520.0337221815589</v>
+        <v>12291.765200961454</v>
       </c>
       <c r="F21">
-        <v>357.94377699140438</v>
+        <v>62.696432201040601</v>
       </c>
       <c r="G21">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H21">
-        <v>0.94448928246606678</v>
+        <v>0.98698659803656519</v>
       </c>
       <c r="I21">
-        <v>3.9679897065858227E-2</v>
+        <v>5.0343085240754518E-3</v>
       </c>
       <c r="J21">
         <v>8.9350000000000005</v>
@@ -1597,43 +1929,46 @@
       <c r="K21">
         <v>4.7258156262525892E-2</v>
       </c>
-      <c r="L21" s="1">
-        <v>42517</v>
-      </c>
-      <c r="M21" t="b">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>10</v>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N21" t="b">
+        <v>1</v>
+      </c>
+      <c r="O21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22">
-        <v>4.009511750291736E-2</v>
+        <v>4.7247693409960177E-2</v>
       </c>
       <c r="D22">
-        <v>7.7583980441403762E-4</v>
+        <v>1.0430031575946225E-3</v>
       </c>
       <c r="E22">
-        <v>45.81678672857678</v>
+        <v>89.981763540463064</v>
       </c>
       <c r="F22">
-        <v>2.8595454271303784</v>
+        <v>4.100687928993942</v>
       </c>
       <c r="G22">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H22">
-        <v>0.25733312958618892</v>
+        <v>0.36609460015603984</v>
       </c>
       <c r="I22">
-        <v>1.4370590619785828E-2</v>
+        <v>1.3993600236030872E-2</v>
       </c>
       <c r="J22">
         <v>3</v>
@@ -1641,43 +1976,46 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M22" t="b">
-        <v>0</v>
-      </c>
-      <c r="N22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>50</v>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
       </c>
       <c r="C23">
-        <v>0.1010467216370519</v>
+        <v>0.12918821155645291</v>
       </c>
       <c r="D23">
-        <v>7.9209420956910942E-3</v>
+        <v>1.0648548282682703E-2</v>
       </c>
       <c r="E23">
-        <v>565.23771177090157</v>
+        <v>814.73247697464546</v>
       </c>
       <c r="F23">
-        <v>25.525320258834629</v>
+        <v>34.257381469627951</v>
       </c>
       <c r="G23">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H23">
-        <v>0.62661514916284977</v>
+        <v>0.6542209863110684</v>
       </c>
       <c r="I23">
-        <v>2.92692304606629E-2</v>
+        <v>2.8501397132477579E-2</v>
       </c>
       <c r="J23">
         <v>3.0033333333333334</v>
@@ -1685,40 +2023,46 @@
       <c r="K23">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L23" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>100</v>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>9</v>
       </c>
       <c r="C24">
-        <v>0.19136561782243044</v>
+        <v>0.2506087591693183</v>
       </c>
       <c r="D24">
-        <v>9.5876137943810072E-3</v>
+        <v>1.2889144646155041E-2</v>
       </c>
       <c r="E24">
-        <v>1169.6910616768746</v>
+        <v>1660.4250327727475</v>
       </c>
       <c r="F24">
-        <v>40.028305643201321</v>
+        <v>54.401847070698103</v>
       </c>
       <c r="G24">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H24">
-        <v>0.64554062104282639</v>
+        <v>0.66376719323162547</v>
       </c>
       <c r="I24">
-        <v>1.775877856173165E-2</v>
+        <v>1.7292904268730199E-2</v>
       </c>
       <c r="J24">
         <v>2.9966666666666666</v>
@@ -1726,40 +2070,46 @@
       <c r="K24">
         <v>3.3333333333332624E-3</v>
       </c>
-      <c r="L24" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>250</v>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
       </c>
       <c r="C25">
-        <v>0.44559926507160802</v>
+        <v>0.59238871856178588</v>
       </c>
       <c r="D25">
-        <v>2.4177035085721967E-2</v>
+        <v>3.2502488003601802E-2</v>
       </c>
       <c r="E25">
-        <v>3001.9133232309973</v>
+        <v>4219.8458943196392</v>
       </c>
       <c r="F25">
-        <v>13.544823744443155</v>
+        <v>22.539371579474654</v>
       </c>
       <c r="G25">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H25">
-        <v>0.67068696059329103</v>
+        <v>0.68288811439233366</v>
       </c>
       <c r="I25">
-        <v>1.7867652691577633E-2</v>
+        <v>1.7398922252918763E-2</v>
       </c>
       <c r="J25">
         <v>2.9966666666666666</v>
@@ -1767,40 +2117,46 @@
       <c r="K25">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L25" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M25" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>500</v>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
       </c>
       <c r="B26" t="s">
         <v>9</v>
       </c>
       <c r="C26">
-        <v>0.90725914851606382</v>
+        <v>1.2130229183383772</v>
       </c>
       <c r="D26">
-        <v>4.6555949568281095E-2</v>
+        <v>6.2587665814861429E-2</v>
       </c>
       <c r="E26">
-        <v>5989.412380760642</v>
+        <v>8400.4142021796979</v>
       </c>
       <c r="F26">
-        <v>104.3001970650956</v>
+        <v>137.64054200277062</v>
       </c>
       <c r="G26">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H26">
-        <v>0.66475228849473644</v>
+        <v>0.6753280634264166</v>
       </c>
       <c r="I26">
-        <v>1.7203216495804061E-2</v>
+        <v>1.6751916520725451E-2</v>
       </c>
       <c r="J26">
         <v>2.9933333333333336</v>
@@ -1808,40 +2164,46 @@
       <c r="K26">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L26" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M26" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>10</v>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N26" t="b">
+        <v>1</v>
+      </c>
+      <c r="O26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
       <c r="C27">
-        <v>2.9911298485147241E-2</v>
+        <v>3.355703803049221E-2</v>
       </c>
       <c r="D27">
-        <v>5.2452455259224405E-4</v>
+        <v>7.0514655406576845E-4</v>
       </c>
       <c r="E27">
-        <v>80.10626143658196</v>
+        <v>136.33072420894158</v>
       </c>
       <c r="F27">
-        <v>2.881188699209408</v>
+        <v>4.2954611185173794</v>
       </c>
       <c r="G27">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H27">
-        <v>0.44596420164222378</v>
+        <v>0.54977722561555042</v>
       </c>
       <c r="I27">
-        <v>9.7155721741067503E-3</v>
+        <v>9.4606990530763744E-3</v>
       </c>
       <c r="J27">
         <v>4.996666666666667</v>
@@ -1849,43 +2211,46 @@
       <c r="K27">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L27" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M27" t="b">
-        <v>0</v>
-      </c>
-      <c r="N27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>50</v>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N27" t="b">
+        <v>1</v>
+      </c>
+      <c r="O27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>47</v>
       </c>
       <c r="B28" t="s">
         <v>9</v>
       </c>
       <c r="C28">
-        <v>5.6515538864903292E-2</v>
+        <v>6.9322548595458888E-2</v>
       </c>
       <c r="D28">
-        <v>2.3690151856901359E-3</v>
+        <v>3.1847944704649373E-3</v>
       </c>
       <c r="E28">
-        <v>713.68240458191133</v>
+        <v>1014.2946577871949</v>
       </c>
       <c r="F28">
-        <v>4.7085629815691803</v>
+        <v>6.144892008408763</v>
       </c>
       <c r="G28">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H28">
-        <v>0.79116545586853204</v>
+        <v>0.81445456833136642</v>
       </c>
       <c r="I28">
-        <v>8.7539146981637939E-3</v>
+        <v>8.5242691847166648E-3</v>
       </c>
       <c r="J28">
         <v>4.996666666666667</v>
@@ -1893,81 +2258,93 @@
       <c r="K28">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L28" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M28" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>100</v>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N28" t="b">
+        <v>1</v>
+      </c>
+      <c r="O28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>48</v>
       </c>
       <c r="B29" t="s">
         <v>9</v>
       </c>
       <c r="C29">
-        <v>9.9849399246073722E-2</v>
+        <v>0.1275785866991769</v>
       </c>
       <c r="D29">
-        <v>6.0346282126995283E-3</v>
+        <v>8.1126751230673529E-3</v>
       </c>
       <c r="E29">
-        <v>1476.5708594783766</v>
+        <v>2072.9800425672088</v>
       </c>
       <c r="F29">
-        <v>11.129795318766341</v>
+        <v>14.457855458206001</v>
       </c>
       <c r="G29">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H29">
-        <v>0.81505269102806555</v>
+        <v>0.82883237428894141</v>
       </c>
       <c r="I29">
-        <v>1.1177716210734004E-2</v>
+        <v>1.088448598552756E-2</v>
       </c>
       <c r="J29">
         <v>5.01</v>
       </c>
       <c r="K29">
-        <v>1.5898986690282339E-2</v>
-      </c>
-      <c r="L29" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M29" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>250</v>
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N29" t="b">
+        <v>1</v>
+      </c>
+      <c r="O29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>49</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
       </c>
       <c r="C30">
-        <v>0.21410158586210329</v>
+        <v>0.28117394327231654</v>
       </c>
       <c r="D30">
-        <v>4.0107975313780683E-3</v>
+        <v>5.3919307386651886E-3</v>
       </c>
       <c r="E30">
-        <v>3769.8347930916061</v>
+        <v>5252.204009090824</v>
       </c>
       <c r="F30">
-        <v>121.7887183696421</v>
+        <v>169.22502601595508</v>
       </c>
       <c r="G30">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H30">
-        <v>0.84177163314954007</v>
+        <v>0.84948464320640582</v>
       </c>
       <c r="I30">
-        <v>2.9641160321276392E-3</v>
+        <v>2.8863569984170002E-3</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -1975,40 +2352,46 @@
       <c r="K30">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L30" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M30" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>500</v>
+      <c r="L30">
+        <v>3</v>
+      </c>
+      <c r="M30" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N30" t="b">
+        <v>1</v>
+      </c>
+      <c r="O30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
       </c>
       <c r="B31" t="s">
         <v>9</v>
       </c>
       <c r="C31">
-        <v>0.44193493225965813</v>
+        <v>0.58746255897111122</v>
       </c>
       <c r="D31">
-        <v>1.7633138492452526E-2</v>
+        <v>2.3705176018677734E-2</v>
       </c>
       <c r="E31">
-        <v>7539.9985800903914</v>
+        <v>10484.950588199532</v>
       </c>
       <c r="F31">
-        <v>116.25925876852409</v>
+        <v>159.48804044897773</v>
       </c>
       <c r="G31">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H31">
-        <v>0.83669751369648404</v>
+        <v>0.84276256960841855</v>
       </c>
       <c r="I31">
-        <v>6.5157450723082218E-3</v>
+        <v>6.3448145030470396E-3</v>
       </c>
       <c r="J31">
         <v>5</v>
@@ -2016,40 +2399,46 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M31" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>10</v>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N31" t="b">
+        <v>1</v>
+      </c>
+      <c r="O31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>51</v>
       </c>
       <c r="B32" t="s">
         <v>9</v>
       </c>
       <c r="C32">
-        <v>2.7589019342206169E-2</v>
+        <v>3.0435073334786723E-2</v>
       </c>
       <c r="D32">
-        <v>3.9930019937687921E-4</v>
+        <v>5.3680072407833325E-4</v>
       </c>
       <c r="E32">
-        <v>87.12511502472772</v>
+        <v>145.54300625830069</v>
       </c>
       <c r="F32">
-        <v>1.0435857198489298</v>
+        <v>1.411158484079599</v>
       </c>
       <c r="G32">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H32">
-        <v>0.4889789099340705</v>
+        <v>0.59166350906981779</v>
       </c>
       <c r="I32">
-        <v>7.3960882994110431E-3</v>
+        <v>7.2020632770545068E-3</v>
       </c>
       <c r="J32">
         <v>7.003333333333333</v>
@@ -2057,43 +2446,46 @@
       <c r="K32">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L32" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M32" t="b">
-        <v>0</v>
-      </c>
-      <c r="N32" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>50</v>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N32" t="b">
+        <v>1</v>
+      </c>
+      <c r="O32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>52</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
       </c>
       <c r="C33">
-        <v>4.7292209237698085E-2</v>
+        <v>5.6923130738860683E-2</v>
       </c>
       <c r="D33">
-        <v>2.5572511675038597E-3</v>
+        <v>3.4378502202313732E-3</v>
       </c>
       <c r="E33">
-        <v>737.95538629449766</v>
+        <v>1046.4535174003568</v>
       </c>
       <c r="F33">
-        <v>7.8745213384354669</v>
+        <v>11.388440643693272</v>
       </c>
       <c r="G33">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H33">
-        <v>0.82524723013376533</v>
+        <v>0.84764225956972616</v>
       </c>
       <c r="I33">
-        <v>9.4494787189754147E-3</v>
+        <v>9.2015861512443464E-3</v>
       </c>
       <c r="J33">
         <v>7</v>
@@ -2101,84 +2493,93 @@
       <c r="K33">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L33" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M33" t="b">
-        <v>0</v>
-      </c>
-      <c r="N33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>100</v>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N33" t="b">
+        <v>1</v>
+      </c>
+      <c r="O33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34">
-        <v>8.1225115241353299E-2</v>
+        <v>0.10254096048517573</v>
       </c>
       <c r="D34">
-        <v>5.7723011211245536E-3</v>
+        <v>7.760014711370695E-3</v>
       </c>
       <c r="E34">
-        <v>1520.5333658577395</v>
+        <v>2131.0264997118998</v>
       </c>
       <c r="F34">
-        <v>16.846259671692582</v>
+        <v>23.68953723653129</v>
       </c>
       <c r="G34">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H34">
-        <v>0.84954975594994109</v>
+        <v>0.86242446167110387</v>
       </c>
       <c r="I34">
-        <v>1.0691817547111021E-2</v>
+        <v>1.0411334127412563E-2</v>
       </c>
       <c r="J34">
         <v>7</v>
       </c>
       <c r="K34">
-        <v>6.6666666666665248E-3</v>
-      </c>
-      <c r="L34" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M34" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>250</v>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N34" t="b">
+        <v>1</v>
+      </c>
+      <c r="O34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35">
-        <v>0.19283924538055733</v>
+        <v>0.25258983591673478</v>
       </c>
       <c r="D35">
-        <v>3.7994566240105191E-3</v>
+        <v>5.1078137953746265E-3</v>
       </c>
       <c r="E35">
-        <v>3861.3488482563212</v>
+        <v>5376.2423516491299</v>
       </c>
       <c r="F35">
-        <v>123.55453666289652</v>
+        <v>171.41553740190167</v>
       </c>
       <c r="G35">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H35">
-        <v>0.85748522721876064</v>
+        <v>0.86478601525810028</v>
       </c>
       <c r="I35">
-        <v>2.8079279007468959E-3</v>
+        <v>2.7342662228892517E-3</v>
       </c>
       <c r="J35">
         <v>7</v>
@@ -2186,40 +2587,46 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M35" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>500</v>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N35" t="b">
+        <v>1</v>
+      </c>
+      <c r="O35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
       </c>
       <c r="C36">
-        <v>0.37091792560795961</v>
+        <v>0.49199057911235311</v>
       </c>
       <c r="D36">
-        <v>4.6187652758878518E-2</v>
+        <v>6.2092544614642982E-2</v>
       </c>
       <c r="E36">
-        <v>7733.2430663175719</v>
+        <v>10742.809784951498</v>
       </c>
       <c r="F36">
-        <v>168.65322102965578</v>
+        <v>227.99541905232252</v>
       </c>
       <c r="G36">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H36">
-        <v>0.86293950750484349</v>
+        <v>0.86831614499487342</v>
       </c>
       <c r="I36">
-        <v>1.7067124550400308E-2</v>
+        <v>1.6619394738586531E-2</v>
       </c>
       <c r="J36">
         <v>7.003333333333333</v>
@@ -2227,40 +2634,46 @@
       <c r="K36">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L36" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M36" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>10</v>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N36" t="b">
+        <v>1</v>
+      </c>
+      <c r="O36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
       </c>
       <c r="C37">
-        <v>2.7477181536455439E-2</v>
+        <v>3.0284723760205978E-2</v>
       </c>
       <c r="D37">
-        <v>2.1709691704549471E-3</v>
+        <v>2.9185505653905632E-3</v>
       </c>
       <c r="E37">
-        <v>87.765982918661919</v>
+        <v>146.4990848485925</v>
       </c>
       <c r="F37">
-        <v>6.8236842995343849</v>
+        <v>9.0611592116377686</v>
       </c>
       <c r="G37">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H37">
-        <v>0.49105043979515156</v>
+        <v>0.59368069552512281</v>
       </c>
       <c r="I37">
-        <v>4.0212050244504943E-2</v>
+        <v>3.9157148838269207E-2</v>
       </c>
       <c r="J37">
         <v>8.9933333333333341</v>
@@ -2268,43 +2681,46 @@
       <c r="K37">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L37" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M37" t="b">
-        <v>0</v>
-      </c>
-      <c r="N37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>50</v>
+      <c r="L37">
+        <v>3</v>
+      </c>
+      <c r="M37" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N37" t="b">
+        <v>1</v>
+      </c>
+      <c r="O37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38">
-        <v>4.6654075875473489E-2</v>
+        <v>5.6065253754488377E-2</v>
       </c>
       <c r="D38">
-        <v>1.932255628838561E-3</v>
+        <v>2.5976351183485888E-3</v>
       </c>
       <c r="E38">
-        <v>745.73507453008813</v>
+        <v>1057.3248335934907</v>
       </c>
       <c r="F38">
-        <v>2.4522627795397813</v>
+        <v>3.2855233722538006</v>
       </c>
       <c r="G38">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H38">
-        <v>0.82760524162001892</v>
+        <v>0.84993841224456268</v>
       </c>
       <c r="I38">
-        <v>7.1400137289420263E-3</v>
+        <v>6.9527064298263502E-3</v>
       </c>
       <c r="J38">
         <v>9.0033333333333321</v>
@@ -2312,43 +2728,46 @@
       <c r="K38">
         <v>1.527525231651914E-2</v>
       </c>
-      <c r="L38" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M38" t="b">
-        <v>0</v>
-      </c>
-      <c r="N38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>100</v>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N38" t="b">
+        <v>1</v>
+      </c>
+      <c r="O38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
       </c>
       <c r="C39">
-        <v>7.5060878536152661E-2</v>
+        <v>9.425404569799134E-2</v>
       </c>
       <c r="D39">
-        <v>1.709650681336478E-3</v>
+        <v>2.2983753203594639E-3</v>
       </c>
       <c r="E39">
-        <v>1525.7983955330426</v>
+        <v>2137.2423128783271</v>
       </c>
       <c r="F39">
-        <v>15.223770471881075</v>
+        <v>21.592364625863155</v>
       </c>
       <c r="G39">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H39">
-        <v>0.86096754112542595</v>
+        <v>0.87354271878063638</v>
       </c>
       <c r="I39">
-        <v>3.1667220352119148E-3</v>
+        <v>3.0836479440428462E-3</v>
       </c>
       <c r="J39">
         <v>8.9966666666666679</v>
@@ -2356,40 +2775,46 @@
       <c r="K39">
         <v>1.130388330520854E-2</v>
       </c>
-      <c r="L39" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M39" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>250</v>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N39" t="b">
+        <v>1</v>
+      </c>
+      <c r="O39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
       </c>
       <c r="B40" t="s">
         <v>9</v>
       </c>
       <c r="C40">
-        <v>0.14724889280100512</v>
+        <v>0.19130027404353525</v>
       </c>
       <c r="D40">
-        <v>1.3021573067636575E-2</v>
+        <v>1.7505600704067623E-2</v>
       </c>
       <c r="E40">
-        <v>4061.6240092655135</v>
+        <v>5647.7192801364799</v>
       </c>
       <c r="F40">
-        <v>113.46011097163016</v>
+        <v>156.1407712755346</v>
       </c>
       <c r="G40">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H40">
-        <v>0.891178051135746</v>
+        <v>0.89759495966349734</v>
       </c>
       <c r="I40">
-        <v>9.6233861697928129E-3</v>
+        <v>9.3709314070652278E-3</v>
       </c>
       <c r="J40">
         <v>8.99</v>
@@ -2397,40 +2822,46 @@
       <c r="K40">
         <v>0</v>
       </c>
-      <c r="L40" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>500</v>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N40" t="b">
+        <v>1</v>
+      </c>
+      <c r="O40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
       </c>
       <c r="C41">
-        <v>0.34461630517317582</v>
+        <v>0.45663189680801625</v>
       </c>
       <c r="D41">
-        <v>1.669494178791131E-2</v>
+        <v>2.2443907752066353E-2</v>
       </c>
       <c r="E41">
-        <v>7933.9831987615134</v>
+        <v>11017.70676155446</v>
       </c>
       <c r="F41">
-        <v>85.182562804527507</v>
+        <v>115.83320189606503</v>
       </c>
       <c r="G41">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H41">
-        <v>0.87265840433169117</v>
+        <v>0.87778008148352982</v>
       </c>
       <c r="I41">
-        <v>6.1690654067973472E-3</v>
+        <v>6.0072294463520961E-3</v>
       </c>
       <c r="J41">
         <v>8.99</v>
@@ -2438,40 +2869,46 @@
       <c r="K41">
         <v>0</v>
       </c>
-      <c r="L41" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M41" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>10</v>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N41" t="b">
+        <v>1</v>
+      </c>
+      <c r="O41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42">
-        <v>7.1637680674813534E-2</v>
+        <v>9.2979221049804203E-2</v>
       </c>
       <c r="D42">
-        <v>2.7490212866000526E-3</v>
+        <v>3.6956571007389942E-3</v>
       </c>
       <c r="E42">
-        <v>-59.564228994485539</v>
+        <v>-62.244728575741895</v>
       </c>
       <c r="F42">
-        <v>9.3373018994890664</v>
+        <v>12.547882033388781</v>
       </c>
       <c r="G42">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H42">
-        <v>-0.32691797465356276</v>
+        <v>-0.24746894595136126</v>
       </c>
       <c r="I42">
-        <v>5.0919093464975189E-2</v>
+        <v>4.9583309216874316E-2</v>
       </c>
       <c r="J42">
         <v>3</v>
@@ -2479,40 +2916,49 @@
       <c r="K42">
         <v>0</v>
       </c>
-      <c r="L42" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M42" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>50</v>
+      <c r="L42">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N42" t="b">
+        <v>1</v>
+      </c>
+      <c r="O42" t="b">
+        <v>0</v>
+      </c>
+      <c r="P42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43">
-        <v>0.28850039619766976</v>
+        <v>0.38451942789149257</v>
       </c>
       <c r="D43">
-        <v>1.0852888574018E-2</v>
+        <v>1.4590121552570527E-2</v>
       </c>
       <c r="E43">
-        <v>-59.664925566332045</v>
+        <v>-36.294390211634443</v>
       </c>
       <c r="F43">
-        <v>36.272302515265402</v>
+        <v>48.991028259487649</v>
       </c>
       <c r="G43">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H43">
-        <v>-6.6058113074162358E-2</v>
+        <v>-2.9186385651387443E-2</v>
       </c>
       <c r="I43">
-        <v>4.0103272186477544E-2</v>
+        <v>3.9051224405602276E-2</v>
       </c>
       <c r="J43">
         <v>3</v>
@@ -2520,40 +2966,49 @@
       <c r="K43">
         <v>0</v>
       </c>
-      <c r="L43" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>100</v>
+      <c r="L43">
+        <v>3</v>
+      </c>
+      <c r="M43" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N43" t="b">
+        <v>1</v>
+      </c>
+      <c r="O43" t="b">
+        <v>0</v>
+      </c>
+      <c r="P43" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44">
-        <v>0.57057409158014849</v>
+        <v>0.76372626064804372</v>
       </c>
       <c r="D44">
-        <v>2.9571729366117443E-2</v>
+        <v>3.9754865539141787E-2</v>
       </c>
       <c r="E44">
-        <v>-101.92351680954745</v>
+        <v>-60.833146819366171</v>
       </c>
       <c r="F44">
-        <v>98.603196410247961</v>
+        <v>132.87959293986219</v>
       </c>
       <c r="G44">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H44">
-        <v>-5.6853056739888524E-2</v>
+        <v>-2.4664201967946945E-2</v>
       </c>
       <c r="I44">
-        <v>5.4774608652688621E-2</v>
+        <v>5.3337680882470359E-2</v>
       </c>
       <c r="J44">
         <v>3</v>
@@ -2561,40 +3016,49 @@
       <c r="K44">
         <v>0</v>
       </c>
-      <c r="L44" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>250</v>
+      <c r="L44">
+        <v>3</v>
+      </c>
+      <c r="M44" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N44" t="b">
+        <v>1</v>
+      </c>
+      <c r="O44" t="b">
+        <v>0</v>
+      </c>
+      <c r="P44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45">
-        <v>1.3947328680001967</v>
+        <v>1.8716872098992294</v>
       </c>
       <c r="D45">
-        <v>3.1923482133670154E-2</v>
+        <v>4.2916453212890913E-2</v>
       </c>
       <c r="E45">
-        <v>-137.52189036686357</v>
+        <v>-12.53490908881372</v>
       </c>
       <c r="F45">
-        <v>105.69023029784637</v>
+        <v>140.91674003905325</v>
       </c>
       <c r="G45">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H45">
-        <v>-3.0755110980200395E-2</v>
+        <v>-1.9337671383949661E-3</v>
       </c>
       <c r="I45">
-        <v>2.3592540998009209E-2</v>
+        <v>2.2973626903250322E-2</v>
       </c>
       <c r="J45">
         <v>3.0033333333333334</v>
@@ -2602,40 +3066,49 @@
       <c r="K45">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L45" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M45" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>500</v>
+      <c r="L45">
+        <v>3</v>
+      </c>
+      <c r="M45" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N45" t="b">
+        <v>1</v>
+      </c>
+      <c r="O45" t="b">
+        <v>0</v>
+      </c>
+      <c r="P45" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46">
-        <v>2.793053672110549</v>
+        <v>3.7515250394610482</v>
       </c>
       <c r="D46">
-        <v>3.927642597573304E-2</v>
+        <v>5.2801410908094308E-2</v>
       </c>
       <c r="E46">
-        <v>-290.77853578017698</v>
+        <v>-51.1630042370493</v>
       </c>
       <c r="F46">
-        <v>132.05674053677515</v>
+        <v>178.52316642270375</v>
       </c>
       <c r="G46">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H46">
-        <v>-3.2080914497226588E-2</v>
+        <v>-4.115323175071013E-3</v>
       </c>
       <c r="I46">
-        <v>1.4513308513898399E-2</v>
+        <v>1.4132574145286118E-2</v>
       </c>
       <c r="J46">
         <v>3</v>
@@ -2643,40 +3116,49 @@
       <c r="K46">
         <v>0</v>
       </c>
-      <c r="L46" s="1">
-        <v>42513</v>
-      </c>
-      <c r="M46" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>10</v>
+      <c r="L46">
+        <v>3</v>
+      </c>
+      <c r="M46" s="1">
+        <v>42932</v>
+      </c>
+      <c r="N46" t="b">
+        <v>1</v>
+      </c>
+      <c r="O46" t="b">
+        <v>0</v>
+      </c>
+      <c r="P46" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47">
-        <v>6.2830124537222698E-2</v>
+        <v>8.113874984694136E-2</v>
       </c>
       <c r="D47">
-        <v>2.7478440503592282E-3</v>
+        <v>3.6940744787731881E-3</v>
       </c>
       <c r="E47">
-        <v>-29.65061942103533</v>
+        <v>-22.109245076183274</v>
       </c>
       <c r="F47">
-        <v>8.9633885030062039</v>
+        <v>12.211784691453987</v>
       </c>
       <c r="G47">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H47">
-        <v>-0.16377890535858927</v>
+        <v>-8.8609579694777063E-2</v>
       </c>
       <c r="I47">
-        <v>5.0897287958241104E-2</v>
+        <v>4.9562075744134404E-2</v>
       </c>
       <c r="J47">
         <v>5</v>
@@ -2684,40 +3166,46 @@
       <c r="K47">
         <v>0</v>
       </c>
-      <c r="L47" s="1">
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47" s="1">
         <v>42513</v>
       </c>
-      <c r="M47" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>50</v>
+      <c r="N47" t="b">
+        <v>1</v>
+      </c>
+      <c r="O47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48">
-        <v>0.25518588747287141</v>
+        <v>0.33973294285168271</v>
       </c>
       <c r="D48">
-        <v>1.827889685143079E-2</v>
+        <v>2.4573303696099655E-2</v>
       </c>
       <c r="E48">
-        <v>51.515227957817558</v>
+        <v>112.63682279107782</v>
       </c>
       <c r="F48">
-        <v>61.549939761606275</v>
+        <v>83.288604192228092</v>
       </c>
       <c r="G48">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H48">
-        <v>5.704467214633905E-2</v>
+        <v>9.0686986981318662E-2</v>
       </c>
       <c r="I48">
-        <v>6.7543637871340115E-2</v>
+        <v>6.577173422207265E-2</v>
       </c>
       <c r="J48">
         <v>5.01</v>
@@ -2725,81 +3213,93 @@
       <c r="K48">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L48" s="1">
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48" s="1">
         <v>42513</v>
       </c>
-      <c r="M48" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>100</v>
+      <c r="N48" t="b">
+        <v>1</v>
+      </c>
+      <c r="O48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49">
-        <v>0.53877103790659875</v>
+        <v>0.72097170588822923</v>
       </c>
       <c r="D49">
-        <v>1.0486599838239756E-2</v>
+        <v>1.4097699913677588E-2</v>
       </c>
       <c r="E49">
-        <v>3.6481158066157136</v>
+        <v>81.430385529346736</v>
       </c>
       <c r="F49">
-        <v>35.131425616306437</v>
+        <v>47.034780740212817</v>
       </c>
       <c r="G49">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H49">
-        <v>2.0545505008660991E-3</v>
+        <v>3.2698054629445326E-2</v>
       </c>
       <c r="I49">
-        <v>1.9423936798740733E-2</v>
+        <v>1.8914379635675639E-2</v>
       </c>
       <c r="J49">
         <v>5</v>
       </c>
       <c r="K49">
-        <v>7.2648315725676342E-3</v>
-      </c>
-      <c r="L49" s="1">
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49" s="1">
         <v>42513</v>
       </c>
-      <c r="M49" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>250</v>
+      <c r="N49" t="b">
+        <v>1</v>
+      </c>
+      <c r="O49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50">
-        <v>1.2282024280207258</v>
+        <v>1.6478113868929671</v>
       </c>
       <c r="D50">
-        <v>9.0162634306176284E-2</v>
+        <v>0.12121047636814132</v>
       </c>
       <c r="E50">
-        <v>405.86763730163483</v>
+        <v>716.28802903687119</v>
       </c>
       <c r="F50">
-        <v>292.21898379112878</v>
+        <v>391.55726136603471</v>
       </c>
       <c r="G50">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H50">
-        <v>9.2316558212439045E-2</v>
+        <v>0.11790930574767226</v>
       </c>
       <c r="I50">
-        <v>6.6633258785808516E-2</v>
+        <v>6.4885237534272514E-2</v>
       </c>
       <c r="J50">
         <v>5.0066666666666668</v>
@@ -2807,40 +3307,46 @@
       <c r="K50">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L50" s="1">
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50" s="1">
         <v>42513</v>
       </c>
-      <c r="M50" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>500</v>
+      <c r="N50" t="b">
+        <v>1</v>
+      </c>
+      <c r="O50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51">
-        <v>2.5029363166617213</v>
+        <v>3.3615046820566392</v>
       </c>
       <c r="D51">
-        <v>4.712360998074925E-2</v>
+        <v>6.3350802224307598E-2</v>
       </c>
       <c r="E51">
-        <v>675.96374433102903</v>
+        <v>1246.2384743335954</v>
       </c>
       <c r="F51">
-        <v>148.50882399295071</v>
+        <v>196.5178250256086</v>
       </c>
       <c r="G51">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H51">
-        <v>7.5122390800120495E-2</v>
+        <v>0.10027566798202013</v>
       </c>
       <c r="I51">
-        <v>1.7412976688912403E-2</v>
+        <v>1.6956173977183166E-2</v>
       </c>
       <c r="J51">
         <v>5.0066666666666668</v>
@@ -2848,40 +3354,46 @@
       <c r="K51">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51" s="1">
         <v>42513</v>
       </c>
-      <c r="M51" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>10</v>
+      <c r="N51" t="b">
+        <v>1</v>
+      </c>
+      <c r="O51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>71</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52">
-        <v>5.0687170310478459E-2</v>
+        <v>6.4814323684524097E-2</v>
       </c>
       <c r="D52">
-        <v>1.9351763981075181E-3</v>
+        <v>2.6015616654950406E-3</v>
       </c>
       <c r="E52">
-        <v>11.156355867747566</v>
+        <v>32.786674108015383</v>
       </c>
       <c r="F52">
-        <v>6.6113633014463886</v>
+        <v>9.059210384753225</v>
       </c>
       <c r="G52">
-        <v>5.3988024914288308</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="H52">
-        <v>6.1140495675667011E-2</v>
+        <v>0.1304094061406004</v>
       </c>
       <c r="I52">
-        <v>3.5844548882457097E-2</v>
+        <v>3.4904222169641348E-2</v>
       </c>
       <c r="J52">
         <v>6.9933333333333332</v>
@@ -2889,40 +3401,46 @@
       <c r="K52">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52" s="1">
         <v>42513</v>
       </c>
-      <c r="M52" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>50</v>
+      <c r="N52" t="b">
+        <v>1</v>
+      </c>
+      <c r="O52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>72</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53">
-        <v>0.22113127562178117</v>
+        <v>0.29395149739185283</v>
       </c>
       <c r="D53">
-        <v>1.3060919925640709E-2</v>
+        <v>1.7558496800537834E-2</v>
       </c>
       <c r="E53">
-        <v>164.30343427868624</v>
+        <v>264.45159204936715</v>
       </c>
       <c r="F53">
-        <v>43.632964250568179</v>
+        <v>58.746229537654628</v>
       </c>
       <c r="G53">
-        <v>27.062351729187554</v>
+        <v>37.361495765232505</v>
       </c>
       <c r="H53">
-        <v>0.18288226450296075</v>
+        <v>0.21322342328329558</v>
       </c>
       <c r="I53">
-        <v>4.826232419244663E-2</v>
+        <v>4.6996236207644905E-2</v>
       </c>
       <c r="J53">
         <v>7</v>
@@ -2930,40 +3448,46 @@
       <c r="K53">
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53" s="1">
         <v>42513</v>
       </c>
-      <c r="M53" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>100</v>
+      <c r="N53" t="b">
+        <v>1</v>
+      </c>
+      <c r="O53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>73</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54">
-        <v>0.4677852800535664</v>
+        <v>0.62554173546942815</v>
       </c>
       <c r="D54">
-        <v>3.1731658302967154E-2</v>
+        <v>4.2658574124982848E-2</v>
       </c>
       <c r="E54">
-        <v>241.20601014559998</v>
+        <v>400.87442204851419</v>
       </c>
       <c r="F54">
-        <v>105.63404872299783</v>
+        <v>141.81063938791735</v>
       </c>
       <c r="G54">
-        <v>53.988024914288303</v>
+        <v>74.534297107408278</v>
       </c>
       <c r="H54">
-        <v>0.1335388156980645</v>
+        <v>0.16073303197857225</v>
       </c>
       <c r="I54">
-        <v>5.8775364265213431E-2</v>
+        <v>5.7233482813300512E-2</v>
       </c>
       <c r="J54">
         <v>7.003333333333333</v>
@@ -2971,40 +3495,46 @@
       <c r="K54">
         <v>1.1180339887498709E-2</v>
       </c>
-      <c r="L54" s="1">
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54" s="1">
         <v>42513</v>
       </c>
-      <c r="M54" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>250</v>
+      <c r="N54" t="b">
+        <v>1</v>
+      </c>
+      <c r="O54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>74</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55">
-        <v>1.1131170497518519</v>
+        <v>1.4930959259891992</v>
       </c>
       <c r="D55">
-        <v>3.4142466646762189E-2</v>
+        <v>4.5899553384654609E-2</v>
       </c>
       <c r="E55">
-        <v>800.54853135819849</v>
+        <v>1250.6736407439914</v>
       </c>
       <c r="F55">
-        <v>119.62093713221959</v>
+        <v>162.01960996802899</v>
       </c>
       <c r="G55">
-        <v>135.31175864593777</v>
+        <v>186.80747882616251</v>
       </c>
       <c r="H55">
-        <v>0.17736857395780428</v>
+        <v>0.20073011242840547</v>
       </c>
       <c r="I55">
-        <v>2.5232446158726423E-2</v>
+        <v>2.4570511669592936E-2</v>
       </c>
       <c r="J55">
         <v>6.9933333333333332</v>
@@ -3012,40 +3542,46 @@
       <c r="K55">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L55" s="1">
+      <c r="L55">
+        <v>3</v>
+      </c>
+      <c r="M55" s="1">
         <v>42513</v>
       </c>
-      <c r="M55" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>500</v>
+      <c r="N55" t="b">
+        <v>1</v>
+      </c>
+      <c r="O55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>75</v>
       </c>
       <c r="B56" t="s">
         <v>13</v>
       </c>
       <c r="C56">
-        <v>2.3170579362873749</v>
+        <v>3.1116183826479085</v>
       </c>
       <c r="D56">
-        <v>5.6960147934091529E-2</v>
+        <v>7.6574588999315907E-2</v>
       </c>
       <c r="E56">
-        <v>1297.9285626575147</v>
+        <v>2083.5512261853114</v>
       </c>
       <c r="F56">
-        <v>160.63598148202911</v>
+        <v>209.06535303022946</v>
       </c>
       <c r="G56">
-        <v>270.62351729187554</v>
+        <v>373.61495765232502</v>
       </c>
       <c r="H56">
-        <v>0.14380761898517525</v>
+        <v>0.16715904464845102</v>
       </c>
       <c r="I56">
-        <v>2.1047745038602485E-2</v>
+        <v>2.0495589759169652E-2</v>
       </c>
       <c r="J56">
         <v>7.003333333333333</v>
@@ -3053,40 +3589,46 @@
       <c r="K56">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L56" s="1">
+      <c r="L56">
+        <v>3</v>
+      </c>
+      <c r="M56" s="1">
         <v>42513</v>
       </c>
-      <c r="M56" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>10</v>
+      <c r="N56" t="b">
+        <v>1</v>
+      </c>
+      <c r="O56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>76</v>
       </c>
       <c r="B57" t="s">
         <v>13</v>
       </c>
       <c r="C57">
-        <v>1.5470103149026889E-2</v>
+        <v>1.7470127058317454E-2</v>
       </c>
       <c r="D57">
-        <v>2.8530304451099975E-4</v>
+        <v>3.8354822039722049E-4</v>
       </c>
       <c r="E57">
-        <v>270.81622261908865</v>
+        <v>153.27457571384403</v>
       </c>
       <c r="F57">
-        <v>3.5223545816029764</v>
+        <v>1.2712899478853406</v>
       </c>
       <c r="G57">
-        <v>9.778649999999999</v>
+        <v>6.4061380281690141</v>
       </c>
       <c r="H57">
-        <v>0.84179714838932884</v>
+        <v>0.72729081107060189</v>
       </c>
       <c r="I57">
-        <v>2.9176117819023442E-3</v>
+        <v>5.9871988194866626E-3</v>
       </c>
       <c r="J57">
         <v>9</v>
@@ -3094,43 +3636,46 @@
       <c r="K57">
         <v>0</v>
       </c>
-      <c r="L57" s="1">
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57" s="1">
         <v>42844</v>
       </c>
-      <c r="M57" t="b">
-        <v>0</v>
-      </c>
-      <c r="N57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>50</v>
+      <c r="N57" t="b">
+        <v>0</v>
+      </c>
+      <c r="O57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>77</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58">
-        <v>2.7605162942424016E-2</v>
+        <v>3.3783940309587847E-2</v>
       </c>
       <c r="D58">
-        <v>2.9100625707902512E-3</v>
+        <v>3.9121535565251565E-3</v>
       </c>
       <c r="E58">
-        <v>1543.9279231594101</v>
+        <v>958.91062715253076</v>
       </c>
       <c r="F58">
-        <v>27.390610686569982</v>
+        <v>14.2038741118063</v>
       </c>
       <c r="G58">
-        <v>48.963600000000007</v>
+        <v>32.076777464788734</v>
       </c>
       <c r="H58">
-        <v>0.94362105126578921</v>
+        <v>0.89467788543698601</v>
       </c>
       <c r="I58">
-        <v>5.9433182421027844E-3</v>
+        <v>1.2196217530952449E-2</v>
       </c>
       <c r="J58">
         <v>8.99</v>
@@ -3138,43 +3683,46 @@
       <c r="K58">
         <v>1.7320508075688405E-2</v>
       </c>
-      <c r="L58" s="1">
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58" s="1">
         <v>42844</v>
       </c>
-      <c r="M58" t="b">
-        <v>1</v>
-      </c>
-      <c r="N58" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>100</v>
+      <c r="N58" t="b">
+        <v>1</v>
+      </c>
+      <c r="O58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>78</v>
       </c>
       <c r="B59" t="s">
         <v>13</v>
       </c>
       <c r="C59">
-        <v>6.3374840438173194E-2</v>
+        <v>8.1871040716075705E-2</v>
       </c>
       <c r="D59">
-        <v>9.8295713299239654E-3</v>
+        <v>1.3214421168626938E-2</v>
       </c>
       <c r="E59">
-        <v>3025.0443274560475</v>
+        <v>1848.3129872127865</v>
       </c>
       <c r="F59">
-        <v>50.819988198928094</v>
+        <v>52.367350197522789</v>
       </c>
       <c r="G59">
-        <v>97.786500000000004</v>
+        <v>64.061380281690148</v>
       </c>
       <c r="H59">
-        <v>0.93519060357189066</v>
+        <v>0.87219906852447904</v>
       </c>
       <c r="I59">
-        <v>1.0052073987640393E-2</v>
+        <v>2.0627749684007154E-2</v>
       </c>
       <c r="J59">
         <v>9</v>
@@ -3182,40 +3730,46 @@
       <c r="K59">
         <v>1.4529663145135268E-2</v>
       </c>
-      <c r="L59" s="1">
+      <c r="L59">
+        <v>3</v>
+      </c>
+      <c r="M59" s="1">
         <v>42844</v>
       </c>
-      <c r="M59" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>250</v>
+      <c r="N59" t="b">
+        <v>1</v>
+      </c>
+      <c r="O59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>79</v>
       </c>
       <c r="B60" t="s">
         <v>13</v>
       </c>
       <c r="C60">
-        <v>0.24122852931518332</v>
+        <v>0.32096931594400874</v>
       </c>
       <c r="D60">
-        <v>3.7288986971533745E-2</v>
+        <v>5.0129589811635109E-2</v>
       </c>
       <c r="E60">
-        <v>7332.0338173200971</v>
+        <v>4261.4862370324581</v>
       </c>
       <c r="F60">
-        <v>86.333322355887105</v>
+        <v>135.55131259547608</v>
       </c>
       <c r="G60">
-        <v>244.81799999999998</v>
+        <v>160.38388732394367</v>
       </c>
       <c r="H60">
-        <v>0.90146617923715444</v>
+        <v>0.79987433818977438</v>
       </c>
       <c r="I60">
-        <v>1.5231309369218682E-2</v>
+        <v>3.1256001240562943E-2</v>
       </c>
       <c r="J60">
         <v>9.0066666666666659</v>
@@ -3223,40 +3777,46 @@
       <c r="K60">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L60" s="1">
+      <c r="L60">
+        <v>3</v>
+      </c>
+      <c r="M60" s="1">
         <v>42844</v>
       </c>
-      <c r="M60" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>500</v>
+      <c r="N60" t="b">
+        <v>1</v>
+      </c>
+      <c r="O60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>80</v>
       </c>
       <c r="B61" t="s">
         <v>13</v>
       </c>
       <c r="C61">
-        <v>0.48770208015804167</v>
+        <v>0.65231696056095057</v>
       </c>
       <c r="D61">
-        <v>2.8512789654999628E-2</v>
+        <v>3.8331275957743167E-2</v>
       </c>
       <c r="E61">
-        <v>14679.955354889733</v>
+        <v>8508.5565209118431</v>
       </c>
       <c r="F61">
-        <v>130.33299320161686</v>
+        <v>108.47414385684134</v>
       </c>
       <c r="G61">
-        <v>489.63599999999997</v>
+        <v>320.76777464788734</v>
       </c>
       <c r="H61">
-        <v>0.9003949709257405</v>
+        <v>0.79663887331668182</v>
       </c>
       <c r="I61">
-        <v>5.8232625164407106E-3</v>
+        <v>1.1949852506169043E-2</v>
       </c>
       <c r="J61">
         <v>9.0033333333333321</v>
@@ -3264,40 +3824,46 @@
       <c r="K61">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L61" s="1">
+      <c r="L61">
+        <v>3</v>
+      </c>
+      <c r="M61" s="1">
         <v>42844</v>
       </c>
-      <c r="M61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>10</v>
+      <c r="N61" t="b">
+        <v>0</v>
+      </c>
+      <c r="O61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>6.0481530616457869E-2</v>
+        <v>7.7981408780746234E-2</v>
       </c>
       <c r="D62">
-        <v>4.110913887167042E-3</v>
+        <v>5.5265225379266892E-3</v>
       </c>
       <c r="E62">
-        <v>92.47011910287894</v>
+        <v>-35.530149901913376</v>
       </c>
       <c r="F62">
-        <v>4.7370138367286376</v>
+        <v>17.576284986578486</v>
       </c>
       <c r="G62">
-        <v>9.778649999999999</v>
+        <v>6.4061380281690141</v>
       </c>
       <c r="H62">
-        <v>0.38149406496338573</v>
+        <v>-0.21729204768687574</v>
       </c>
       <c r="I62">
-        <v>4.2039687351188987E-2</v>
+        <v>8.6269176743078393E-2</v>
       </c>
       <c r="J62">
         <v>2.9933333333333336</v>
@@ -3305,40 +3871,49 @@
       <c r="K62">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L62" s="1">
+      <c r="L62">
+        <v>3</v>
+      </c>
+      <c r="M62" s="1">
         <v>42844</v>
       </c>
-      <c r="M62" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>50</v>
+      <c r="N62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="b">
+        <v>0</v>
+      </c>
+      <c r="P62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>0.22484100142547692</v>
+        <v>0.29893868122162187</v>
       </c>
       <c r="D63">
-        <v>5.5367848080272513E-3</v>
+        <v>7.4433974705073753E-3</v>
       </c>
       <c r="E63">
-        <v>627.08534477244473</v>
+        <v>50.878956083991632</v>
       </c>
       <c r="F63">
-        <v>32.954498809913645</v>
+        <v>14.328542199692317</v>
       </c>
       <c r="G63">
-        <v>48.963600000000007</v>
+        <v>32.076777464788734</v>
       </c>
       <c r="H63">
-        <v>0.54079969318947774</v>
+        <v>6.8052638548955477E-2</v>
       </c>
       <c r="I63">
-        <v>1.1307961032332713E-2</v>
+        <v>2.3204941577058824E-2</v>
       </c>
       <c r="J63">
         <v>3.0033333333333334</v>
@@ -3346,40 +3921,46 @@
       <c r="K63">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L63" s="1">
+      <c r="L63">
+        <v>3</v>
+      </c>
+      <c r="M63" s="1">
         <v>42844</v>
       </c>
-      <c r="M63" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>100</v>
+      <c r="N63" t="b">
+        <v>1</v>
+      </c>
+      <c r="O63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>83</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>0.44869950063276254</v>
+        <v>0.59988369615796533</v>
       </c>
       <c r="D64">
-        <v>4.3949423146833954E-3</v>
+        <v>5.9083572221755995E-3</v>
       </c>
       <c r="E64">
-        <v>1334.6731089275274</v>
+        <v>103.36831162329558</v>
       </c>
       <c r="F64">
-        <v>206.78881287892077</v>
+        <v>26.404836598833889</v>
       </c>
       <c r="G64">
-        <v>97.786500000000004</v>
+        <v>64.061380281690148</v>
       </c>
       <c r="H64">
-        <v>0.54114371551005247</v>
+        <v>6.3579814359038159E-2</v>
       </c>
       <c r="I64">
-        <v>4.4944264440218446E-3</v>
+        <v>9.222962721370383E-3</v>
       </c>
       <c r="J64">
         <v>3.0033333333333334</v>
@@ -3387,40 +3968,46 @@
       <c r="K64">
         <v>8.3333333333332742E-3</v>
       </c>
-      <c r="L64" s="1">
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64" s="1">
         <v>42844</v>
       </c>
-      <c r="M64" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>250</v>
+      <c r="N64" t="b">
+        <v>1</v>
+      </c>
+      <c r="O64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>84</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C65">
-        <v>1.1138370878600525</v>
+        <v>1.4940639119267203</v>
       </c>
       <c r="D65">
-        <v>5.0491560213509853E-2</v>
+        <v>6.7878518780489824E-2</v>
       </c>
       <c r="E65">
-        <v>3279.9381783940717</v>
+        <v>279.73919096165804</v>
       </c>
       <c r="F65">
-        <v>576.72918203223719</v>
+        <v>203.03810549403423</v>
       </c>
       <c r="G65">
-        <v>244.81799999999998</v>
+        <v>160.38388732394367</v>
       </c>
       <c r="H65">
-        <v>0.54503464293473003</v>
+        <v>6.8445130707546056E-2</v>
       </c>
       <c r="I65">
-        <v>2.062412086264484E-2</v>
+        <v>4.2322529970475586E-2</v>
       </c>
       <c r="J65">
         <v>2.9933333333333336</v>
@@ -3428,40 +4015,46 @@
       <c r="K65">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L65" s="1">
+      <c r="L65">
+        <v>3</v>
+      </c>
+      <c r="M65" s="1">
         <v>42844</v>
       </c>
-      <c r="M65" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>500</v>
+      <c r="N65" t="b">
+        <v>1</v>
+      </c>
+      <c r="O65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>85</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>2.2575352245890699</v>
+        <v>3.0315988014190034</v>
       </c>
       <c r="D66">
-        <v>8.5096172372693679E-3</v>
+        <v>1.1439935922206056E-2</v>
       </c>
       <c r="E66">
-        <v>6646.1784208833124</v>
+        <v>443.79330772077441</v>
       </c>
       <c r="F66">
-        <v>1187.0797757543103</v>
+        <v>87.512279964524851</v>
       </c>
       <c r="G66">
-        <v>489.63599999999997</v>
+        <v>320.76777464788734</v>
       </c>
       <c r="H66">
-        <v>0.53893602092389647</v>
+        <v>5.4892965870139136E-2</v>
       </c>
       <c r="I66">
-        <v>1.7379476258423448E-3</v>
+        <v>3.5664230718824145E-3</v>
       </c>
       <c r="J66">
         <v>2.9933333333333336</v>
@@ -3469,40 +4062,46 @@
       <c r="K66">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L66" s="1">
+      <c r="L66">
+        <v>3</v>
+      </c>
+      <c r="M66" s="1">
         <v>42844</v>
       </c>
-      <c r="M66" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>10</v>
+      <c r="N66" t="b">
+        <v>1</v>
+      </c>
+      <c r="O66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C67">
-        <v>5.492253380120219E-2</v>
+        <v>7.0508150514822163E-2</v>
       </c>
       <c r="D67">
-        <v>1.7279719631377608E-3</v>
+        <v>2.3230056044222414E-3</v>
       </c>
       <c r="E67">
-        <v>114.44991418286077</v>
+        <v>-17.33410638469973</v>
       </c>
       <c r="F67">
-        <v>10.700471541638096</v>
+        <v>7.1697227680379099</v>
       </c>
       <c r="G67">
-        <v>9.778649999999999</v>
+        <v>6.4061380281690141</v>
       </c>
       <c r="H67">
-        <v>0.43834237035580376</v>
+        <v>-0.10063426989528379</v>
       </c>
       <c r="I67">
-        <v>1.7670864210681043E-2</v>
+        <v>3.6262184707971441E-2</v>
       </c>
       <c r="J67">
         <v>5.0233333333333334</v>
@@ -3510,40 +4109,49 @@
       <c r="K67">
         <v>4.6188021535170098E-2</v>
       </c>
-      <c r="L67" s="1">
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67" s="1">
         <v>42845</v>
       </c>
-      <c r="M67" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>50</v>
+      <c r="N67" t="b">
+        <v>1</v>
+      </c>
+      <c r="O67" t="b">
+        <v>0</v>
+      </c>
+      <c r="P67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>87</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C68">
-        <v>0.22488442080888602</v>
+        <v>0.29899705223292966</v>
       </c>
       <c r="D68">
-        <v>2.3291800596308226E-3</v>
+        <v>3.1312419689992167E-3</v>
       </c>
       <c r="E68">
-        <v>735.87745446631959</v>
+        <v>60.609959911215491</v>
       </c>
       <c r="F68">
-        <v>25.04598557760059</v>
+        <v>9.7368747380039284</v>
       </c>
       <c r="G68">
-        <v>48.963600000000007</v>
+        <v>32.076777464788734</v>
       </c>
       <c r="H68">
-        <v>0.54071101632868901</v>
+        <v>6.7870665745197692E-2</v>
       </c>
       <c r="I68">
-        <v>4.7569624366485246E-3</v>
+        <v>9.7617099237491782E-3</v>
       </c>
       <c r="J68">
         <v>4.99</v>
@@ -3551,40 +4159,46 @@
       <c r="K68">
         <v>2.6457513110645845E-2</v>
       </c>
-      <c r="L68" s="1">
+      <c r="L68">
+        <v>3</v>
+      </c>
+      <c r="M68" s="1">
         <v>42845</v>
       </c>
-      <c r="M68" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>100</v>
+      <c r="N68" t="b">
+        <v>1</v>
+      </c>
+      <c r="O68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>88</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C69">
-        <v>0.43585920479369039</v>
+        <v>0.58262179617757426</v>
       </c>
       <c r="D69">
-        <v>6.0905212186081392E-3</v>
+        <v>8.1878150956731701E-3</v>
       </c>
       <c r="E69">
-        <v>1324.2049550090051</v>
+        <v>143.48107660851079</v>
       </c>
       <c r="F69">
-        <v>226.27993517601215</v>
+        <v>43.288902847488814</v>
       </c>
       <c r="G69">
-        <v>97.786500000000004</v>
+        <v>64.061380281690148</v>
       </c>
       <c r="H69">
-        <v>0.5542746649141852</v>
+        <v>9.052569018076928E-2</v>
       </c>
       <c r="I69">
-        <v>6.2283865550030989E-3</v>
+        <v>1.2781203058176186E-2</v>
       </c>
       <c r="J69">
         <v>4.9933333333333332</v>
@@ -3592,40 +4206,46 @@
       <c r="K69">
         <v>2.0816659994661382E-2</v>
       </c>
-      <c r="L69" s="1">
+      <c r="L69">
+        <v>3</v>
+      </c>
+      <c r="M69" s="1">
         <v>42845</v>
       </c>
-      <c r="M69" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>250</v>
+      <c r="N69" t="b">
+        <v>1</v>
+      </c>
+      <c r="O69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>89</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C70">
-        <v>1.0842987497529546</v>
+        <v>1.4543539360521651</v>
       </c>
       <c r="D70">
-        <v>1.6649034734365097E-2</v>
+        <v>2.2382192432058107E-2</v>
       </c>
       <c r="E70">
-        <v>3793.3390740114323</v>
+        <v>410.9410134878471</v>
       </c>
       <c r="F70">
-        <v>436.9919422995963</v>
+        <v>5.5236786080083462</v>
       </c>
       <c r="G70">
-        <v>244.81799999999998</v>
+        <v>160.38388732394367</v>
       </c>
       <c r="H70">
-        <v>0.55710007035718179</v>
+        <v>9.3204460673372666E-2</v>
       </c>
       <c r="I70">
-        <v>6.8005762380074983E-3</v>
+        <v>1.3955387168569113E-2</v>
       </c>
       <c r="J70">
         <v>5.0366666666666662</v>
@@ -3633,40 +4253,46 @@
       <c r="K70">
         <v>1.5275252316519626E-2</v>
       </c>
-      <c r="L70" s="1">
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70" s="1">
         <v>42845</v>
       </c>
-      <c r="M70" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>500</v>
+      <c r="N70" t="b">
+        <v>1</v>
+      </c>
+      <c r="O70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C71">
-        <v>2.0740251742188565</v>
+        <v>2.7848963753543354</v>
       </c>
       <c r="D71">
-        <v>1.5227231501892778E-2</v>
+        <v>2.0470785911652772E-2</v>
       </c>
       <c r="E71">
-        <v>7186.3934914274823</v>
+        <v>1080.5034760870349</v>
       </c>
       <c r="F71">
-        <v>1426.1909061889894</v>
+        <v>251.63575572743022</v>
       </c>
       <c r="G71">
-        <v>489.63599999999997</v>
+        <v>320.76777464788734</v>
       </c>
       <c r="H71">
-        <v>0.5764148930595675</v>
+        <v>0.13180294422924274</v>
       </c>
       <c r="I71">
-        <v>3.1099084834229291E-3</v>
+        <v>6.3818087506215719E-3</v>
       </c>
       <c r="J71">
         <v>5.0133333333333328</v>
@@ -3674,40 +4300,46 @@
       <c r="K71">
         <v>4.1633319989322265E-2</v>
       </c>
-      <c r="L71" s="1">
+      <c r="L71">
+        <v>3</v>
+      </c>
+      <c r="M71" s="1">
         <v>42845</v>
       </c>
-      <c r="M71" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10</v>
+      <c r="N71" t="b">
+        <v>1</v>
+      </c>
+      <c r="O71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>91</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>5.1900281568150797E-2</v>
+        <v>6.6445174364093765E-2</v>
       </c>
       <c r="D72">
-        <v>2.2205365515011485E-3</v>
+        <v>2.9851866604333039E-3</v>
       </c>
       <c r="E72">
-        <v>120.2965404934521</v>
+        <v>-6.1593958997669098</v>
       </c>
       <c r="F72">
-        <v>22.847191531433218</v>
+        <v>8.2150716987222463</v>
       </c>
       <c r="G72">
-        <v>9.778649999999999</v>
+        <v>6.4061380281690141</v>
       </c>
       <c r="H72">
-        <v>0.469249011180983</v>
+        <v>-3.7211094608352688E-2</v>
       </c>
       <c r="I72">
-        <v>2.2708007255614518E-2</v>
+        <v>4.6598850154443525E-2</v>
       </c>
       <c r="J72">
         <v>6.9733333333333336</v>
@@ -3715,40 +4347,49 @@
       <c r="K72">
         <v>3.2145502536643E-2</v>
       </c>
-      <c r="L72" s="1">
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72" s="1">
         <v>42844</v>
       </c>
-      <c r="M72" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>50</v>
+      <c r="N72" t="b">
+        <v>1</v>
+      </c>
+      <c r="O72" t="b">
+        <v>0</v>
+      </c>
+      <c r="P72" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>92</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C73">
-        <v>0.20980473737701746</v>
+        <v>0.2787246231238753</v>
       </c>
       <c r="D73">
-        <v>1.893878508829014E-3</v>
+        <v>2.5460426927968608E-3</v>
       </c>
       <c r="E73">
-        <v>772.37480257413097</v>
+        <v>116.27308679484163</v>
       </c>
       <c r="F73">
-        <v>51.904722149829389</v>
+        <v>13.567414324332047</v>
       </c>
       <c r="G73">
-        <v>48.963600000000007</v>
+        <v>32.076777464788734</v>
       </c>
       <c r="H73">
-        <v>0.57150875879833707</v>
+        <v>0.13107037192300128</v>
       </c>
       <c r="I73">
-        <v>3.8679315018278803E-3</v>
+        <v>7.9373393901294876E-3</v>
       </c>
       <c r="J73">
         <v>6.9833333333333334</v>
@@ -3756,40 +4397,46 @@
       <c r="K73">
         <v>3.0550504633038766E-2</v>
       </c>
-      <c r="L73" s="1">
+      <c r="L73">
+        <v>3</v>
+      </c>
+      <c r="M73" s="1">
         <v>42844</v>
       </c>
-      <c r="M73" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>100</v>
+      <c r="N73" t="b">
+        <v>1</v>
+      </c>
+      <c r="O73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>93</v>
       </c>
       <c r="B74" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C74">
-        <v>0.40754055663872069</v>
+        <v>0.54455151507521149</v>
       </c>
       <c r="D74">
-        <v>5.2718281719955091E-3</v>
+        <v>7.0872020208352579E-3</v>
       </c>
       <c r="E74">
-        <v>1557.2607790595678</v>
+        <v>262.83594063722995</v>
       </c>
       <c r="F74">
-        <v>191.88410186275289</v>
+        <v>41.760109234130738</v>
       </c>
       <c r="G74">
-        <v>97.786500000000004</v>
+        <v>64.061380281690148</v>
       </c>
       <c r="H74">
-        <v>0.58323433537480052</v>
+        <v>0.14995350914901565</v>
       </c>
       <c r="I74">
-        <v>5.3911615325178009E-3</v>
+        <v>1.1063142863409212E-2</v>
       </c>
       <c r="J74">
         <v>6.9733333333333336</v>
@@ -3797,40 +4444,46 @@
       <c r="K74">
         <v>2.5385910352879595E-2</v>
       </c>
-      <c r="L74" s="1">
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74" s="1">
         <v>42844</v>
       </c>
-      <c r="M74" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>250</v>
+      <c r="N74" t="b">
+        <v>1</v>
+      </c>
+      <c r="O74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>94</v>
       </c>
       <c r="B75" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C75">
-        <v>0.99181941030825049</v>
+        <v>1.3300289884221053</v>
       </c>
       <c r="D75">
-        <v>5.2569429549846669E-2</v>
+        <v>7.0671910233903498E-2</v>
       </c>
       <c r="E75">
-        <v>4122.4980908609041</v>
+        <v>782.7731442038488</v>
       </c>
       <c r="F75">
-        <v>828.50446916051305</v>
+        <v>282.46835386453978</v>
       </c>
       <c r="G75">
-        <v>244.81799999999998</v>
+        <v>160.38388732394367</v>
       </c>
       <c r="H75">
-        <v>0.59487480074657484</v>
+        <v>0.17072156647774084</v>
       </c>
       <c r="I75">
-        <v>2.1472861288731531E-2</v>
+        <v>4.4064220797417376E-2</v>
       </c>
       <c r="J75">
         <v>7.0166666666666666</v>
@@ -3838,40 +4491,46 @@
       <c r="K75">
         <v>2.5166114784235707E-2</v>
       </c>
-      <c r="L75" s="1">
+      <c r="L75">
+        <v>3</v>
+      </c>
+      <c r="M75" s="1">
         <v>42844</v>
       </c>
-      <c r="M75" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>500</v>
+      <c r="N75" t="b">
+        <v>1</v>
+      </c>
+      <c r="O75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>95</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C76">
-        <v>1.9773999415280228</v>
+        <v>2.6549978805536329</v>
       </c>
       <c r="D76">
-        <v>1.5339770212439482E-2</v>
+        <v>2.0622077750230831E-2</v>
       </c>
       <c r="E76">
-        <v>7797.2186700330813</v>
+        <v>1478.4884465379084</v>
       </c>
       <c r="F76">
-        <v>768.60264682482546</v>
+        <v>182.03281710837933</v>
       </c>
       <c r="G76">
-        <v>489.63599999999997</v>
+        <v>320.76777464788734</v>
       </c>
       <c r="H76">
-        <v>0.59614898791591653</v>
+        <v>0.17229906169094686</v>
       </c>
       <c r="I76">
-        <v>3.1328926411537312E-3</v>
+        <v>6.4289742861071454E-3</v>
       </c>
       <c r="J76">
         <v>6.9833333333333334</v>
@@ -3879,40 +4538,46 @@
       <c r="K76">
         <v>3.2145502536643007E-2</v>
       </c>
-      <c r="L76" s="1">
+      <c r="L76">
+        <v>3</v>
+      </c>
+      <c r="M76" s="1">
         <v>42844</v>
       </c>
-      <c r="M76" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10</v>
+      <c r="N76" t="b">
+        <v>1</v>
+      </c>
+      <c r="O76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>96</v>
       </c>
       <c r="B77" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C77">
-        <v>4.714849056263698E-2</v>
+        <v>6.0057086262937605E-2</v>
       </c>
       <c r="D77">
-        <v>3.5789352486523553E-3</v>
+        <v>4.8113550554297457E-3</v>
       </c>
       <c r="E77">
-        <v>127.81352619499012</v>
+        <v>10.279792909169773</v>
       </c>
       <c r="F77">
-        <v>17.864401649697054</v>
+        <v>12.353667306062254</v>
       </c>
       <c r="G77">
-        <v>9.778649999999999</v>
+        <v>6.4061380281690141</v>
       </c>
       <c r="H77">
-        <v>0.5178425389738156</v>
+        <v>6.2507145508649498E-2</v>
       </c>
       <c r="I77">
-        <v>3.6599482021059691E-2</v>
+        <v>7.5105391645844913E-2</v>
       </c>
       <c r="J77">
         <v>8.99</v>
@@ -3920,40 +4585,46 @@
       <c r="K77">
         <v>1.7320508075688402E-2</v>
       </c>
-      <c r="L77" s="1">
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77" s="1">
         <v>42844</v>
       </c>
-      <c r="M77" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>50</v>
+      <c r="N77" t="b">
+        <v>1</v>
+      </c>
+      <c r="O77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>97</v>
       </c>
       <c r="B78" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0.18504121570602919</v>
+        <v>0.24543368967465518</v>
       </c>
       <c r="D78">
-        <v>6.6715649459351198E-3</v>
+        <v>8.9689434147599539E-3</v>
       </c>
       <c r="E78">
-        <v>727.21203336213875</v>
+        <v>179.12297471512332</v>
       </c>
       <c r="F78">
-        <v>85.942098216403082</v>
+        <v>23.71677629654836</v>
       </c>
       <c r="G78">
-        <v>48.963600000000007</v>
+        <v>32.076777464788734</v>
       </c>
       <c r="H78">
-        <v>0.62208412840144678</v>
+        <v>0.23485552766616835</v>
       </c>
       <c r="I78">
-        <v>1.3625560510124042E-2</v>
+        <v>2.7960861793568024E-2</v>
       </c>
       <c r="J78">
         <v>8.9866666666666664</v>
@@ -3961,40 +4632,46 @@
       <c r="K78">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L78" s="1">
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78" s="1">
         <v>42844</v>
       </c>
-      <c r="M78" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>100</v>
+      <c r="N78" t="b">
+        <v>1</v>
+      </c>
+      <c r="O78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C79">
-        <v>0.35887005931490501</v>
+        <v>0.47912114903620662</v>
       </c>
       <c r="D79">
-        <v>1.5337849075370707E-3</v>
+        <v>2.061949506239104E-3</v>
       </c>
       <c r="E79">
-        <v>1477.9033340471351</v>
+        <v>385.6546891187815</v>
       </c>
       <c r="F79">
-        <v>97.898483982226224</v>
+        <v>27.765939826143953</v>
       </c>
       <c r="G79">
-        <v>97.786500000000004</v>
+        <v>64.061380281690148</v>
       </c>
       <c r="H79">
-        <v>0.63300654045813587</v>
+        <v>0.2520904998777434</v>
       </c>
       <c r="I79">
-        <v>1.5685037377726563E-3</v>
+        <v>3.2187091460913267E-3</v>
       </c>
       <c r="J79">
         <v>8.9800000000000022</v>
@@ -4002,40 +4679,46 @@
       <c r="K79">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L79" s="1">
+      <c r="L79">
+        <v>3</v>
+      </c>
+      <c r="M79" s="1">
         <v>42844</v>
       </c>
-      <c r="M79" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>250</v>
+      <c r="N79" t="b">
+        <v>1</v>
+      </c>
+      <c r="O79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>99</v>
       </c>
       <c r="B80" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C80">
-        <v>0.95626814546843786</v>
+        <v>1.2822355118906807</v>
       </c>
       <c r="D80">
-        <v>4.5362455259829855E-2</v>
+        <v>6.0983187254720864E-2</v>
       </c>
       <c r="E80">
-        <v>3755.1320098543606</v>
+        <v>813.20836822099318</v>
       </c>
       <c r="F80">
-        <v>1084.4336807657073</v>
+        <v>287.61261090604239</v>
       </c>
       <c r="G80">
-        <v>244.81799999999998</v>
+        <v>160.38388732394367</v>
       </c>
       <c r="H80">
-        <v>0.60939630849511151</v>
+        <v>0.20052099167491863</v>
       </c>
       <c r="I80">
-        <v>1.8529052300006489E-2</v>
+        <v>3.8023262979994171E-2</v>
       </c>
       <c r="J80">
         <v>8.9966666666666661</v>
@@ -4043,40 +4726,46 @@
       <c r="K80">
         <v>2.5166114784235295E-2</v>
       </c>
-      <c r="L80" s="1">
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80" s="1">
         <v>42844</v>
       </c>
-      <c r="M80" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>500</v>
+      <c r="N80" t="b">
+        <v>1</v>
+      </c>
+      <c r="O80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>100</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C81">
-        <v>1.9133464829579239</v>
+        <v>2.568887372735686</v>
       </c>
       <c r="D81">
-        <v>7.4897715451120839E-2</v>
+        <v>0.1006890253215902</v>
       </c>
       <c r="E81">
-        <v>7016.7029571436624</v>
+        <v>1491.3089682472137</v>
       </c>
       <c r="F81">
-        <v>427.21305716109964</v>
+        <v>98.99498390340446</v>
       </c>
       <c r="G81">
-        <v>489.63599999999997</v>
+        <v>320.76777464788734</v>
       </c>
       <c r="H81">
-        <v>0.60923084026543728</v>
+        <v>0.1991441859907527</v>
       </c>
       <c r="I81">
-        <v>1.5296611248176354E-2</v>
+        <v>3.1390006503028339E-2</v>
       </c>
       <c r="J81">
         <v>8.99</v>
@@ -4084,11 +4773,17 @@
       <c r="K81">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L81" s="1">
+      <c r="L81">
+        <v>3</v>
+      </c>
+      <c r="M81" s="1">
         <v>42844</v>
       </c>
-      <c r="M81" t="b">
-        <v>1</v>
+      <c r="N81" t="b">
+        <v>1</v>
+      </c>
+      <c r="O81" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$R$105</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="130">
   <si>
     <t>Mineral</t>
   </si>
@@ -327,6 +330,93 @@
   </si>
   <si>
     <t>RaPYRpH9_500</t>
+  </si>
+  <si>
+    <t>RaGlassAGW_1</t>
+  </si>
+  <si>
+    <t>RaMontAGW_1</t>
+  </si>
+  <si>
+    <t>RaFHYAGW_1</t>
+  </si>
+  <si>
+    <t>RaGOEAGW_1</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>RaFHYpH3_2</t>
+  </si>
+  <si>
+    <t>RaFHYpH5_2</t>
+  </si>
+  <si>
+    <t>RaFHYpH7_2</t>
+  </si>
+  <si>
+    <t>RaFHYpH9_2</t>
+  </si>
+  <si>
+    <t>RaMontpH3_2</t>
+  </si>
+  <si>
+    <t>RaMontpH5_2</t>
+  </si>
+  <si>
+    <t>RaMontpH7_2</t>
+  </si>
+  <si>
+    <t>RaMontpH9_2</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Ionic Strength (meq)</t>
+  </si>
+  <si>
+    <t>RaGlasspH3_1</t>
+  </si>
+  <si>
+    <t>RaGlasspH3_2</t>
+  </si>
+  <si>
+    <t>RaGlasspH3_3</t>
+  </si>
+  <si>
+    <t>RaGlasspH5_1</t>
+  </si>
+  <si>
+    <t>RaGlasspH5_2</t>
+  </si>
+  <si>
+    <t>RaGlasspH5_3</t>
+  </si>
+  <si>
+    <t>RaGlasspH7_1</t>
+  </si>
+  <si>
+    <t>RaGlasspH7_2</t>
+  </si>
+  <si>
+    <t>RaGlasspH7_3</t>
+  </si>
+  <si>
+    <t>RaGlasspH9_1</t>
+  </si>
+  <si>
+    <t>RaGlasspH9_2</t>
+  </si>
+  <si>
+    <t>RaGlasspH9_3</t>
+  </si>
+  <si>
+    <t>AGW</t>
   </si>
 </sst>
 </file>
@@ -926,3867 +1016,5561 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O58" sqref="O58"/>
+      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>2.836354843868476</v>
+      </c>
+      <c r="F2">
+        <v>6.1182514211824773E-2</v>
+      </c>
+      <c r="G2">
+        <v>1237.2481094575407</v>
+      </c>
+      <c r="H2">
+        <v>203.86016997142852</v>
+      </c>
+      <c r="I2">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J2">
+        <v>0.11576066299615199</v>
+      </c>
+      <c r="K2">
+        <v>1.907377207045996E-2</v>
+      </c>
+      <c r="L2">
+        <v>2.99</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0.353771971251019</v>
+      </c>
+      <c r="F3">
+        <v>2.2335447729961034E-2</v>
+      </c>
+      <c r="G3">
+        <v>64.570834478880585</v>
+      </c>
+      <c r="H3">
+        <v>74.451492433203455</v>
+      </c>
+      <c r="I3">
+        <v>37.314322159468318</v>
+      </c>
+      <c r="J3">
+        <v>5.1913713616123708E-2</v>
+      </c>
+      <c r="K3">
+        <v>5.9857573278451037E-2</v>
+      </c>
+      <c r="L3">
+        <v>3.0399999999999996</v>
+      </c>
+      <c r="M3">
+        <v>2.6457513110645845E-2</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>3.4210462492234441</v>
+      </c>
+      <c r="F4">
+        <v>0.19357988444498583</v>
+      </c>
+      <c r="G4">
+        <v>1050.3444243326874</v>
+      </c>
+      <c r="H4">
+        <v>645.26628148328598</v>
+      </c>
+      <c r="I4">
+        <v>373.61495765232502</v>
+      </c>
+      <c r="J4">
+        <v>8.4339055716562597E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.1812669830292403E-2</v>
+      </c>
+      <c r="L4">
+        <v>3.0625</v>
+      </c>
+      <c r="M4">
+        <v>3.3040379335998273E-2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P4" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>6.2992590413771823E-2</v>
       </c>
-      <c r="D2">
+      <c r="F5">
         <v>2.3283860335737056E-2</v>
       </c>
-      <c r="E2">
+      <c r="G5">
         <v>-85.436982161797758</v>
       </c>
-      <c r="F2">
+      <c r="H5">
         <v>77.612867785790158</v>
       </c>
-      <c r="G2">
+      <c r="I5">
         <v>3.7361495765232502</v>
       </c>
-      <c r="H2">
+      <c r="J5">
         <v>-0.68602967101737022</v>
       </c>
-      <c r="I2">
+      <c r="K5">
         <v>0.62320471541196498</v>
       </c>
-      <c r="J2">
+      <c r="L5">
         <v>3.063333333333333</v>
       </c>
-      <c r="K2">
+      <c r="M5">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1">
-        <v>42922</v>
-      </c>
-      <c r="N2" t="b">
-        <v>1</v>
-      </c>
-      <c r="O2" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>0.80374342185507319</v>
+      </c>
+      <c r="F6">
+        <v>0.26437015864557684</v>
+      </c>
+      <c r="G6">
+        <v>-194.66816926996796</v>
+      </c>
+      <c r="H6">
+        <v>881.23386215192409</v>
+      </c>
+      <c r="I6">
+        <v>74.534297107408278</v>
+      </c>
+      <c r="J6">
+        <v>-7.8353795564519685E-2</v>
+      </c>
+      <c r="K6">
+        <v>0.35469598413815362</v>
+      </c>
+      <c r="L6">
+        <v>3.07</v>
+      </c>
+      <c r="M6">
+        <v>7.071067811865471E-2</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>9.8704665511227405E-2</v>
       </c>
-      <c r="D3">
+      <c r="F7">
         <v>2.2994791011849459E-2</v>
       </c>
-      <c r="E3">
+      <c r="G7">
         <v>-80.567894679397114</v>
       </c>
-      <c r="F3">
+      <c r="H7">
         <v>76.64930337283127</v>
       </c>
-      <c r="G3">
+      <c r="I7">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H3">
+      <c r="J7">
         <v>-0.32428518603976669</v>
       </c>
-      <c r="I3">
+      <c r="K7">
         <v>0.30851288472892607</v>
       </c>
-      <c r="J3">
+      <c r="L7">
         <v>3.0733333333333328</v>
       </c>
-      <c r="K3">
+      <c r="M7">
         <v>3.2145502536643167E-2</v>
       </c>
-      <c r="L3">
-        <v>3</v>
-      </c>
-      <c r="M3" s="1">
-        <v>42922</v>
-      </c>
-      <c r="N3" t="b">
-        <v>1</v>
-      </c>
-      <c r="O3" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.353771971251019</v>
-      </c>
-      <c r="D4">
-        <v>2.2335447729961034E-2</v>
-      </c>
-      <c r="E4">
-        <v>64.570834478880585</v>
-      </c>
-      <c r="F4">
-        <v>74.451492433203455</v>
-      </c>
-      <c r="G4">
-        <v>37.314322159468318</v>
-      </c>
-      <c r="H4">
-        <v>5.1913713616123708E-2</v>
-      </c>
-      <c r="I4">
-        <v>5.9857573278451037E-2</v>
-      </c>
-      <c r="J4">
-        <v>3.0399999999999996</v>
-      </c>
-      <c r="K4">
-        <v>2.6457513110645845E-2</v>
-      </c>
-      <c r="L4">
-        <v>3</v>
-      </c>
-      <c r="M4" s="1">
-        <v>42922</v>
-      </c>
-      <c r="N4" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>0.80374342185507319</v>
-      </c>
-      <c r="D5">
-        <v>0.26437015864557684</v>
-      </c>
-      <c r="E5">
-        <v>-194.66816926996796</v>
-      </c>
-      <c r="F5">
-        <v>881.23386215192409</v>
-      </c>
-      <c r="G5">
-        <v>74.534297107408278</v>
-      </c>
-      <c r="H5">
-        <v>-7.8353795564519685E-2</v>
-      </c>
-      <c r="I5">
-        <v>0.35469598413815362</v>
-      </c>
-      <c r="J5">
-        <v>3.07</v>
-      </c>
-      <c r="K5">
-        <v>7.071067811865471E-2</v>
-      </c>
-      <c r="L5">
-        <v>4</v>
-      </c>
-      <c r="M5" s="1">
-        <v>42922</v>
-      </c>
-      <c r="N5" t="b">
-        <v>1</v>
-      </c>
-      <c r="O5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>3.4210462492234441</v>
-      </c>
-      <c r="D6">
-        <v>0.19357988444498583</v>
-      </c>
-      <c r="E6">
-        <v>1050.3444243326874</v>
-      </c>
-      <c r="F6">
-        <v>645.26628148328598</v>
-      </c>
-      <c r="G6">
-        <v>373.61495765232502</v>
-      </c>
-      <c r="H6">
-        <v>8.4339055716562597E-2</v>
-      </c>
-      <c r="I6">
-        <v>5.1812669830292403E-2</v>
-      </c>
-      <c r="J6">
-        <v>3.0625</v>
-      </c>
-      <c r="K6">
-        <v>3.3040379335998273E-2</v>
-      </c>
-      <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>42922</v>
-      </c>
-      <c r="N6" t="b">
-        <v>1</v>
-      </c>
-      <c r="O6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7">
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
         <v>4.0391140805463834E-2</v>
       </c>
-      <c r="D7">
+      <c r="F8">
         <v>8.3922740679110274E-3</v>
       </c>
-      <c r="E7">
+      <c r="G8">
         <v>-10.098816800771113</v>
       </c>
-      <c r="F7">
+      <c r="H8">
         <v>27.974246893036774</v>
       </c>
-      <c r="G7">
+      <c r="I8">
         <v>3.7361495765232502</v>
       </c>
-      <c r="H7">
+      <c r="J8">
         <v>-8.1090036096751569E-2</v>
       </c>
-      <c r="I7">
+      <c r="K8">
         <v>0.22462361037805759</v>
       </c>
-      <c r="J7">
+      <c r="L8">
         <v>5</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7" s="1">
-        <v>42923</v>
-      </c>
-      <c r="N7" t="b">
-        <v>1</v>
-      </c>
-      <c r="O7" t="b">
-        <v>0</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P8" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
         <v>6.7062660488044074E-2</v>
       </c>
-      <c r="D8">
+      <c r="F9">
         <v>7.6633415886563448E-3</v>
       </c>
-      <c r="E8">
+      <c r="G9">
         <v>24.905455397880697</v>
       </c>
-      <c r="F8">
+      <c r="H9">
         <v>25.544471962187814</v>
       </c>
-      <c r="G8">
+      <c r="I9">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H8">
+      <c r="J9">
         <v>0.10024427557956499</v>
       </c>
-      <c r="I8">
+      <c r="K9">
         <v>0.10281631257101706</v>
       </c>
-      <c r="J8">
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" s="1">
-        <v>42924</v>
-      </c>
-      <c r="N8" t="b">
-        <v>1</v>
-      </c>
-      <c r="O8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>0.26609304783593918</v>
-      </c>
-      <c r="D9">
-        <v>0.10178370546214263</v>
-      </c>
-      <c r="E9">
-        <v>356.83391252914686</v>
-      </c>
-      <c r="F9">
-        <v>339.2790182071422</v>
-      </c>
-      <c r="G9">
-        <v>37.314322159468318</v>
-      </c>
-      <c r="H9">
-        <v>0.2868876280299269</v>
-      </c>
-      <c r="I9">
-        <v>0.27277382938153033</v>
-      </c>
-      <c r="J9">
-        <v>5</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>42925</v>
-      </c>
-      <c r="N9" t="b">
-        <v>1</v>
-      </c>
-      <c r="O9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P9" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>0.64816713542067095</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>9.1362251228114533E-3</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>323.91945217803931</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>30.45408374270469</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>74.534297107408278</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.13037734227690609</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>1.2257746403170044E-2</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>5</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42926</v>
-      </c>
-      <c r="N10" t="b">
-        <v>1</v>
-      </c>
-      <c r="O10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P10" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>3.1796521179014725</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>0.16668945435813864</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>1854.9915287392591</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>555.63151452712827</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>373.61495765232502</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.14894945912193314</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>4.4615305395041285E-2</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>5</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
         <v>4</v>
       </c>
-      <c r="M11" s="1">
-        <v>42927</v>
-      </c>
-      <c r="N11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="O11" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P11" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>0.26609304783593918</v>
+      </c>
+      <c r="F12">
+        <v>0.10178370546214263</v>
+      </c>
+      <c r="G12">
+        <v>356.83391252914686</v>
+      </c>
+      <c r="H12">
+        <v>339.2790182071422</v>
+      </c>
+      <c r="I12">
+        <v>37.314322159468318</v>
+      </c>
+      <c r="J12">
+        <v>0.2868876280299269</v>
+      </c>
+      <c r="K12">
+        <v>0.27277382938153033</v>
+      </c>
+      <c r="L12">
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P12" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
+        <v>2.8070720531957254</v>
+      </c>
+      <c r="F13">
+        <v>5.3673001843873143E-2</v>
+      </c>
+      <c r="G13">
+        <v>1334.8183835903908</v>
+      </c>
+      <c r="H13">
+        <v>178.83847075794205</v>
+      </c>
+      <c r="I13">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J13">
+        <v>0.12488963198466563</v>
+      </c>
+      <c r="K13">
+        <v>1.6732666460273611E-2</v>
+      </c>
+      <c r="L13">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M13">
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P13" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>3.9273468600308621E-2</v>
+      </c>
+      <c r="F14">
+        <v>3.9313962676093203E-3</v>
+      </c>
+      <c r="G14">
+        <v>117.53609502366551</v>
+      </c>
+      <c r="H14">
+        <v>13.104654225364399</v>
+      </c>
+      <c r="I14">
+        <v>7.4534297107408278</v>
+      </c>
+      <c r="J14">
+        <v>0.47308192168615659</v>
+      </c>
+      <c r="K14">
+        <v>5.274613728420819E-2</v>
+      </c>
+      <c r="L14">
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="M14">
+        <v>2.8867513459481187E-2</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
         <v>2.713274045291543E-2</v>
       </c>
-      <c r="D12">
+      <c r="F15">
         <v>1.9110762203865689E-3</v>
       </c>
-      <c r="E12">
+      <c r="G15">
         <v>34.09585104105691</v>
       </c>
-      <c r="F12">
+      <c r="H15">
         <v>6.3702540679552238</v>
       </c>
-      <c r="G12">
+      <c r="I15">
         <v>3.7361495765232502</v>
       </c>
-      <c r="H12">
+      <c r="J15">
         <v>0.27377799263153829</v>
       </c>
-      <c r="I12">
+      <c r="K15">
         <v>5.1150955850246205E-2</v>
       </c>
-      <c r="J12">
+      <c r="L15">
         <v>6.9600000000000009</v>
       </c>
-      <c r="K12">
+      <c r="M15">
         <v>4.3588989435406622E-2</v>
       </c>
-      <c r="L12">
-        <v>3</v>
-      </c>
-      <c r="M12" s="1">
-        <v>42928</v>
-      </c>
-      <c r="N12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>3.9273468600308621E-2</v>
-      </c>
-      <c r="D13">
-        <v>3.9313962676093203E-3</v>
-      </c>
-      <c r="E13">
-        <v>117.53609502366551</v>
-      </c>
-      <c r="F13">
-        <v>13.104654225364399</v>
-      </c>
-      <c r="G13">
-        <v>7.4534297107408278</v>
-      </c>
-      <c r="H13">
-        <v>0.47308192168615659</v>
-      </c>
-      <c r="I13">
-        <v>5.274613728420819E-2</v>
-      </c>
-      <c r="J13">
-        <v>6.9333333333333336</v>
-      </c>
-      <c r="K13">
-        <v>2.8867513459481187E-2</v>
-      </c>
-      <c r="L13">
-        <v>3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>42929</v>
-      </c>
-      <c r="N13" t="b">
-        <v>1</v>
-      </c>
-      <c r="O13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0.33180730924812279</v>
+      </c>
+      <c r="F16">
+        <v>2.1257075589207617E-2</v>
+      </c>
+      <c r="G16">
+        <v>1378.4522060865331</v>
+      </c>
+      <c r="H16">
+        <v>70.856918630692036</v>
+      </c>
+      <c r="I16">
+        <v>74.534297107408278</v>
+      </c>
+      <c r="J16">
+        <v>0.55482600343038169</v>
+      </c>
+      <c r="K16">
+        <v>2.8519857856276504E-2</v>
+      </c>
+      <c r="L16">
+        <v>6.9600000000000009</v>
+      </c>
+      <c r="M16">
+        <v>2.6457513110645845E-2</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>0.15574795741409928</v>
       </c>
-      <c r="D14">
+      <c r="F17">
         <v>6.7856797745486155E-3</v>
       </c>
-      <c r="E14">
+      <c r="G17">
         <v>724.65088060194648</v>
       </c>
-      <c r="F14">
+      <c r="H17">
         <v>22.618932581828766</v>
       </c>
-      <c r="G14">
+      <c r="I17">
         <v>37.314322159468318</v>
       </c>
-      <c r="H14">
+      <c r="J17">
         <v>0.5826054222598841</v>
       </c>
-      <c r="I14">
+      <c r="K17">
         <v>1.8185188372306517E-2</v>
       </c>
-      <c r="J14">
+      <c r="L17">
         <v>6.9833333333333334</v>
       </c>
-      <c r="K14">
+      <c r="M17">
         <v>5.5075705472860871E-2</v>
       </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="M14" s="1">
-        <v>42930</v>
-      </c>
-      <c r="N14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O14" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>0.33180730924812279</v>
-      </c>
-      <c r="D15">
-        <v>2.1257075589207617E-2</v>
-      </c>
-      <c r="E15">
-        <v>1378.4522060865331</v>
-      </c>
-      <c r="F15">
-        <v>70.856918630692036</v>
-      </c>
-      <c r="G15">
-        <v>74.534297107408278</v>
-      </c>
-      <c r="H15">
-        <v>0.55482600343038169</v>
-      </c>
-      <c r="I15">
-        <v>2.8519857856276504E-2</v>
-      </c>
-      <c r="J15">
-        <v>6.9600000000000009</v>
-      </c>
-      <c r="K15">
-        <v>2.6457513110645845E-2</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15" s="1">
-        <v>42931</v>
-      </c>
-      <c r="N15" t="b">
-        <v>1</v>
-      </c>
-      <c r="O15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>1.9220481265189371</v>
+      </c>
+      <c r="F18">
+        <v>0.24853379442678503</v>
+      </c>
+      <c r="G18">
+        <v>4283.7185791014808</v>
+      </c>
+      <c r="H18">
+        <v>828.11473552840118</v>
+      </c>
+      <c r="I18">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J18">
+        <v>0.40079762419126902</v>
+      </c>
+      <c r="K18">
+        <v>7.7480911135666117E-2</v>
+      </c>
+      <c r="L18">
+        <v>6.9899999999999993</v>
+      </c>
+      <c r="M18">
+        <v>1.7320508075688915E-2</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>2.0458283885946167</v>
       </c>
-      <c r="D16">
+      <c r="F19">
         <v>0.23688954698594059</v>
       </c>
-      <c r="E16">
+      <c r="G19">
         <v>5634.4039597621122</v>
       </c>
-      <c r="F16">
+      <c r="H19">
         <v>789.6318232864661</v>
       </c>
-      <c r="G16">
+      <c r="I19">
         <v>373.61495765232502</v>
       </c>
-      <c r="H16">
+      <c r="J19">
         <v>0.45242331799295793</v>
       </c>
-      <c r="I16">
+      <c r="K19">
         <v>6.3404727817772191E-2</v>
       </c>
-      <c r="J16">
+      <c r="L19">
         <v>6.9950000000000001</v>
       </c>
-      <c r="K16">
+      <c r="M19">
         <v>3.3166247903554144E-2</v>
       </c>
-      <c r="L16">
+      <c r="N19">
         <v>4</v>
       </c>
-      <c r="M16" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N16" t="b">
-        <v>1</v>
-      </c>
-      <c r="O16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17">
-        <v>1.4815130453074343E-2</v>
-      </c>
-      <c r="D17">
-        <v>5.573883690688687E-4</v>
-      </c>
-      <c r="E17">
-        <v>75.15455104052721</v>
-      </c>
-      <c r="F17">
-        <v>1.8579612302295603</v>
-      </c>
-      <c r="G17">
-        <v>3.7361495765232502</v>
-      </c>
-      <c r="H17">
-        <v>0.60346527488707069</v>
-      </c>
-      <c r="I17">
-        <v>1.4918791596870607E-2</v>
-      </c>
-      <c r="J17">
-        <v>8.9166666666666661</v>
-      </c>
-      <c r="K17">
-        <v>1.527525231651914E-2</v>
-      </c>
-      <c r="L17">
-        <v>3</v>
-      </c>
-      <c r="M17" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N17" t="b">
-        <v>1</v>
-      </c>
-      <c r="O17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>1.4965480027655098E-2</v>
-      </c>
-      <c r="D18">
-        <v>4.6898714669976998E-4</v>
-      </c>
-      <c r="E18">
-        <v>198.56272359917727</v>
-      </c>
-      <c r="F18">
-        <v>1.5632904889992421</v>
-      </c>
-      <c r="G18">
-        <v>7.4534297107408278</v>
-      </c>
-      <c r="H18">
-        <v>0.7992135082982138</v>
-      </c>
-      <c r="I18">
-        <v>6.2922327693508695E-3</v>
-      </c>
-      <c r="J18">
-        <v>8.9066666666666663</v>
-      </c>
-      <c r="K18">
-        <v>1.154700538379227E-2</v>
-      </c>
-      <c r="L18">
-        <v>3</v>
-      </c>
-      <c r="M18" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N18" t="b">
-        <v>1</v>
-      </c>
-      <c r="O18" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19">
-        <v>1.5333983886921492E-2</v>
-      </c>
-      <c r="D19">
-        <v>2.0174097080446373E-4</v>
-      </c>
-      <c r="E19">
-        <v>1192.6974590258721</v>
-      </c>
-      <c r="F19">
-        <v>0.67246990268154394</v>
-      </c>
-      <c r="G19">
-        <v>37.314322159468318</v>
-      </c>
-      <c r="H19">
-        <v>0.95890590261457931</v>
-      </c>
-      <c r="I19">
-        <v>5.406529159025737E-4</v>
-      </c>
-      <c r="J19">
-        <v>8.9166666666666661</v>
-      </c>
-      <c r="K19">
-        <v>2.5166114784235295E-2</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N19" t="b">
-        <v>1</v>
-      </c>
-      <c r="O19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>1.6710714305141112E-2</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>3.264336895498481E-4</v>
       </c>
-      <c r="E20">
+      <c r="G20">
         <v>2428.7741892298059</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>1.0881122984994318</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>74.534297107408278</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>0.97757983243464419</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>4.3796440325917252E-4</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>8.8633333333333333</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>5.0332229568471415E-2</v>
       </c>
-      <c r="L20">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N20" t="b">
-        <v>1</v>
-      </c>
-      <c r="O20" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P20" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21">
-        <v>4.8620016234813795E-2</v>
-      </c>
-      <c r="D21">
-        <v>1.880892966031213E-2</v>
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>12291.765200961454</v>
+        <v>1.4965480027655098E-2</v>
       </c>
       <c r="F21">
-        <v>62.696432201040601</v>
+        <v>4.6898714669976998E-4</v>
       </c>
       <c r="G21">
-        <v>373.61495765232502</v>
+        <v>198.56272359917727</v>
       </c>
       <c r="H21">
-        <v>0.98698659803656519</v>
+        <v>1.5632904889992421</v>
       </c>
       <c r="I21">
-        <v>5.0343085240754518E-3</v>
+        <v>7.4534297107408278</v>
       </c>
       <c r="J21">
-        <v>8.9350000000000005</v>
+        <v>0.7992135082982138</v>
       </c>
       <c r="K21">
-        <v>4.7258156262525892E-2</v>
+        <v>6.2922327693508695E-3</v>
       </c>
       <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="M21" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N21" t="b">
-        <v>1</v>
-      </c>
-      <c r="O21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8.9066666666666663</v>
+      </c>
+      <c r="M21">
+        <v>1.154700538379227E-2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P21" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="E22">
         <v>4.7247693409960177E-2</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>1.0430031575946225E-3</v>
       </c>
-      <c r="E22">
+      <c r="G22">
         <v>89.981763540463064</v>
       </c>
-      <c r="F22">
+      <c r="H22">
         <v>4.100687928993942</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>0.36609460015603984</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>1.3993600236030872E-2</v>
       </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
       <c r="L22">
         <v>3</v>
       </c>
-      <c r="M22" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P22" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="C23">
+      <c r="E23">
         <v>0.12918821155645291</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>1.0648548282682703E-2</v>
       </c>
-      <c r="E23">
+      <c r="G23">
         <v>814.73247697464546</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>34.257381469627951</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>37.361495765232505</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>0.6542209863110684</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>2.8501397132477579E-2</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>3.0033333333333334</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L23">
-        <v>3</v>
-      </c>
-      <c r="M23" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N23" t="b">
-        <v>1</v>
-      </c>
-      <c r="O23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P23" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" t="s">
         <v>9</v>
       </c>
-      <c r="C24">
+      <c r="E24">
         <v>0.2506087591693183</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>1.2889144646155041E-2</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>1660.4250327727475</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>54.401847070698103</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>74.534297107408278</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>0.66376719323162547</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>1.7292904268730199E-2</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>2.9966666666666666</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>3.3333333333332624E-3</v>
       </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N24" t="b">
-        <v>1</v>
-      </c>
-      <c r="O24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="E25">
         <v>0.59238871856178588</v>
       </c>
-      <c r="D25">
+      <c r="F25">
         <v>3.2502488003601802E-2</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>4219.8458943196392</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>22.539371579474654</v>
       </c>
-      <c r="G25">
+      <c r="I25">
         <v>186.80747882616251</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>0.68288811439233366</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>1.7398922252918763E-2</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>2.9966666666666666</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L25">
-        <v>3</v>
-      </c>
-      <c r="M25" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N25" t="b">
-        <v>1</v>
-      </c>
-      <c r="O25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P25" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="C26">
+      <c r="E26">
         <v>1.2130229183383772</v>
       </c>
-      <c r="D26">
+      <c r="F26">
         <v>6.2587665814861429E-2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
         <v>8400.4142021796979</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>137.64054200277062</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>373.61495765232502</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>0.6753280634264166</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>1.6751916520725451E-2</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>2.9933333333333336</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N26" t="b">
-        <v>1</v>
-      </c>
-      <c r="O26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="E27">
         <v>3.355703803049221E-2</v>
       </c>
-      <c r="D27">
+      <c r="F27">
         <v>7.0514655406576845E-4</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>136.33072420894158</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>4.2954611185173794</v>
       </c>
-      <c r="G27">
+      <c r="I27">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>0.54977722561555042</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>9.4606990530763744E-3</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>4.996666666666667</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L27">
-        <v>3</v>
-      </c>
-      <c r="M27" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N27" t="b">
-        <v>1</v>
-      </c>
-      <c r="O27" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P27" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="C28">
+      <c r="E28">
         <v>6.9322548595458888E-2</v>
       </c>
-      <c r="D28">
+      <c r="F28">
         <v>3.1847944704649373E-3</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>1014.2946577871949</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>6.144892008408763</v>
       </c>
-      <c r="G28">
+      <c r="I28">
         <v>37.361495765232505</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>0.81445456833136642</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>8.5242691847166648E-3</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>4.996666666666667</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N28" t="b">
-        <v>1</v>
-      </c>
-      <c r="O28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P28" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="E29">
         <v>0.1275785866991769</v>
       </c>
-      <c r="D29">
+      <c r="F29">
         <v>8.1126751230673529E-3</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>2072.9800425672088</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>14.457855458206001</v>
       </c>
-      <c r="G29">
+      <c r="I29">
         <v>74.534297107408278</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>0.82883237428894141</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>1.088448598552756E-2</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>5.01</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L29">
-        <v>3</v>
-      </c>
-      <c r="M29" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N29" t="b">
-        <v>1</v>
-      </c>
-      <c r="O29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P29" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-      <c r="C30">
+      <c r="E30">
         <v>0.28117394327231654</v>
       </c>
-      <c r="D30">
+      <c r="F30">
         <v>5.3919307386651886E-3</v>
       </c>
-      <c r="E30">
+      <c r="G30">
         <v>5252.204009090824</v>
       </c>
-      <c r="F30">
+      <c r="H30">
         <v>169.22502601595508</v>
       </c>
-      <c r="G30">
+      <c r="I30">
         <v>186.80747882616251</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>0.84948464320640582</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>2.8863569984170002E-3</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>5</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L30">
-        <v>3</v>
-      </c>
-      <c r="M30" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N30" t="b">
-        <v>1</v>
-      </c>
-      <c r="O30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
+      <c r="E31">
         <v>0.58746255897111122</v>
       </c>
-      <c r="D31">
+      <c r="F31">
         <v>2.3705176018677734E-2</v>
       </c>
-      <c r="E31">
+      <c r="G31">
         <v>10484.950588199532</v>
       </c>
-      <c r="F31">
+      <c r="H31">
         <v>159.48804044897773</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>373.61495765232502</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>0.84276256960841855</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>6.3448145030470396E-3</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>5</v>
       </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N31" t="b">
-        <v>1</v>
-      </c>
-      <c r="O31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>51</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>115</v>
+      </c>
+      <c r="D32" t="s">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="E32">
         <v>3.0435073334786723E-2</v>
       </c>
-      <c r="D32">
+      <c r="F32">
         <v>5.3680072407833325E-4</v>
       </c>
-      <c r="E32">
+      <c r="G32">
         <v>145.54300625830069</v>
       </c>
-      <c r="F32">
+      <c r="H32">
         <v>1.411158484079599</v>
       </c>
-      <c r="G32">
+      <c r="I32">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>0.59166350906981779</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>7.2020632770545068E-3</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>7.003333333333333</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N32" t="b">
-        <v>1</v>
-      </c>
-      <c r="O32" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>52</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="E33">
         <v>5.6923130738860683E-2</v>
       </c>
-      <c r="D33">
+      <c r="F33">
         <v>3.4378502202313732E-3</v>
       </c>
-      <c r="E33">
+      <c r="G33">
         <v>1046.4535174003568</v>
       </c>
-      <c r="F33">
+      <c r="H33">
         <v>11.388440643693272</v>
       </c>
-      <c r="G33">
+      <c r="I33">
         <v>37.361495765232505</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>0.84764225956972616</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>9.2015861512443464E-3</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>7</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L33">
-        <v>3</v>
-      </c>
-      <c r="M33" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N33" t="b">
-        <v>1</v>
-      </c>
-      <c r="O33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P33" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" t="s">
         <v>9</v>
       </c>
-      <c r="C34">
+      <c r="E34">
         <v>0.10254096048517573</v>
       </c>
-      <c r="D34">
+      <c r="F34">
         <v>7.760014711370695E-3</v>
       </c>
-      <c r="E34">
+      <c r="G34">
         <v>2131.0264997118998</v>
       </c>
-      <c r="F34">
+      <c r="H34">
         <v>23.68953723653129</v>
       </c>
-      <c r="G34">
+      <c r="I34">
         <v>74.534297107408278</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>0.86242446167110387</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>1.0411334127412563E-2</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>7</v>
       </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>3</v>
-      </c>
-      <c r="M34" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N34" t="b">
-        <v>1</v>
-      </c>
-      <c r="O34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P34" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="C35">
+      <c r="E35">
         <v>0.25258983591673478</v>
       </c>
-      <c r="D35">
+      <c r="F35">
         <v>5.1078137953746265E-3</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>5376.2423516491299</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>171.41553740190167</v>
       </c>
-      <c r="G35">
+      <c r="I35">
         <v>186.80747882616251</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.86478601525810028</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>2.7342662228892517E-3</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>7</v>
       </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N35" t="b">
-        <v>1</v>
-      </c>
-      <c r="O35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P35" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="E36">
         <v>0.49199057911235311</v>
       </c>
-      <c r="D36">
+      <c r="F36">
         <v>6.2092544614642982E-2</v>
       </c>
-      <c r="E36">
+      <c r="G36">
         <v>10742.809784951498</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>227.99541905232252</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>373.61495765232502</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>0.86831614499487342</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>1.6619394738586531E-2</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>7.003333333333333</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L36">
-        <v>3</v>
-      </c>
-      <c r="M36" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N36" t="b">
-        <v>1</v>
-      </c>
-      <c r="O36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P36" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" t="s">
         <v>9</v>
       </c>
-      <c r="C37">
+      <c r="E37">
         <v>3.0284723760205978E-2</v>
       </c>
-      <c r="D37">
+      <c r="F37">
         <v>2.9185505653905632E-3</v>
       </c>
-      <c r="E37">
+      <c r="G37">
         <v>146.4990848485925</v>
       </c>
-      <c r="F37">
+      <c r="H37">
         <v>9.0611592116377686</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>0.59368069552512281</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>3.9157148838269207E-2</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>8.9933333333333341</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L37">
-        <v>3</v>
-      </c>
-      <c r="M37" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N37" t="b">
-        <v>1</v>
-      </c>
-      <c r="O37" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
+      <c r="E38">
         <v>5.6065253754488377E-2</v>
       </c>
-      <c r="D38">
+      <c r="F38">
         <v>2.5976351183485888E-3</v>
       </c>
-      <c r="E38">
+      <c r="G38">
         <v>1057.3248335934907</v>
       </c>
-      <c r="F38">
+      <c r="H38">
         <v>3.2855233722538006</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>37.361495765232505</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>0.84993841224456268</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>6.9527064298263502E-3</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>9.0033333333333321</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>1.527525231651914E-2</v>
       </c>
-      <c r="L38">
-        <v>3</v>
-      </c>
-      <c r="M38" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N38" t="b">
-        <v>1</v>
-      </c>
-      <c r="O38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>58</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" t="s">
         <v>9</v>
       </c>
-      <c r="C39">
+      <c r="E39">
         <v>9.425404569799134E-2</v>
       </c>
-      <c r="D39">
+      <c r="F39">
         <v>2.2983753203594639E-3</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>2137.2423128783271</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>21.592364625863155</v>
       </c>
-      <c r="G39">
+      <c r="I39">
         <v>74.534297107408278</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>0.87354271878063638</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>3.0836479440428462E-3</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>8.9966666666666679</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>1.130388330520854E-2</v>
       </c>
-      <c r="L39">
-        <v>3</v>
-      </c>
-      <c r="M39" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N39" t="b">
-        <v>1</v>
-      </c>
-      <c r="O39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
         <v>9</v>
       </c>
-      <c r="C40">
+      <c r="E40">
         <v>0.19130027404353525</v>
       </c>
-      <c r="D40">
+      <c r="F40">
         <v>1.7505600704067623E-2</v>
       </c>
-      <c r="E40">
+      <c r="G40">
         <v>5647.7192801364799</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>156.1407712755346</v>
       </c>
-      <c r="G40">
+      <c r="I40">
         <v>186.80747882616251</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>0.89759495966349734</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>9.3709314070652278E-3</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>8.99</v>
       </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>3</v>
-      </c>
-      <c r="M40" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N40" t="b">
-        <v>1</v>
-      </c>
-      <c r="O40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>60</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="C41">
+      <c r="E41">
         <v>0.45663189680801625</v>
       </c>
-      <c r="D41">
+      <c r="F41">
         <v>2.2443907752066353E-2</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>11017.70676155446</v>
       </c>
-      <c r="F41">
+      <c r="H41">
         <v>115.83320189606503</v>
       </c>
-      <c r="G41">
+      <c r="I41">
         <v>373.61495765232502</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>0.87778008148352982</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>6.0072294463520961E-3</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>8.99</v>
       </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>3</v>
-      </c>
-      <c r="M41" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N41" t="b">
-        <v>1</v>
-      </c>
-      <c r="O41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P41" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+      <c r="D42" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>9.2979221049804203E-2</v>
       </c>
-      <c r="D42">
+      <c r="F42">
         <v>3.6956571007389942E-3</v>
       </c>
-      <c r="E42">
+      <c r="G42">
         <v>-62.244728575741895</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>12.547882033388781</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>-0.24746894595136126</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>4.9583309216874316E-2</v>
       </c>
-      <c r="J42">
-        <v>3</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>3</v>
       </c>
-      <c r="M42" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N42" t="b">
-        <v>1</v>
-      </c>
-      <c r="O42" t="b">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="b">
+        <v>0</v>
+      </c>
+      <c r="R42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" t="s">
         <v>13</v>
       </c>
-      <c r="C43">
+      <c r="E43">
         <v>0.38451942789149257</v>
       </c>
-      <c r="D43">
+      <c r="F43">
         <v>1.4590121552570527E-2</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>-36.294390211634443</v>
       </c>
-      <c r="F43">
+      <c r="H43">
         <v>48.991028259487649</v>
       </c>
-      <c r="G43">
+      <c r="I43">
         <v>37.361495765232505</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>-2.9186385651387443E-2</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>3.9051224405602276E-2</v>
       </c>
-      <c r="J43">
-        <v>3</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>3</v>
       </c>
-      <c r="M43" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N43" t="b">
-        <v>1</v>
-      </c>
-      <c r="O43" t="b">
-        <v>0</v>
-      </c>
-      <c r="P43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43" t="b">
+        <v>0</v>
+      </c>
+      <c r="R43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>63</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="E44">
         <v>0.76372626064804372</v>
       </c>
-      <c r="D44">
+      <c r="F44">
         <v>3.9754865539141787E-2</v>
       </c>
-      <c r="E44">
+      <c r="G44">
         <v>-60.833146819366171</v>
       </c>
-      <c r="F44">
+      <c r="H44">
         <v>132.87959293986219</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>74.534297107408278</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>-2.4664201967946945E-2</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>5.3337680882470359E-2</v>
       </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
         <v>3</v>
       </c>
-      <c r="M44" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N44" t="b">
-        <v>1</v>
-      </c>
-      <c r="O44" t="b">
-        <v>0</v>
-      </c>
-      <c r="P44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44" t="b">
+        <v>0</v>
+      </c>
+      <c r="R44" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="E45">
         <v>1.8716872098992294</v>
       </c>
-      <c r="D45">
+      <c r="F45">
         <v>4.2916453212890913E-2</v>
       </c>
-      <c r="E45">
+      <c r="G45">
         <v>-12.53490908881372</v>
       </c>
-      <c r="F45">
+      <c r="H45">
         <v>140.91674003905325</v>
       </c>
-      <c r="G45">
+      <c r="I45">
         <v>186.80747882616251</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>-1.9337671383949661E-3</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>2.2973626903250322E-2</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>3.0033333333333334</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L45">
-        <v>3</v>
-      </c>
-      <c r="M45" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N45" t="b">
-        <v>1</v>
-      </c>
-      <c r="O45" t="b">
-        <v>0</v>
-      </c>
-      <c r="P45" t="s">
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="b">
+        <v>0</v>
+      </c>
+      <c r="R45" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" t="s">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="E46">
         <v>3.7515250394610482</v>
       </c>
-      <c r="D46">
+      <c r="F46">
         <v>5.2801410908094308E-2</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>-51.1630042370493</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>178.52316642270375</v>
       </c>
-      <c r="G46">
+      <c r="I46">
         <v>373.61495765232502</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>-4.115323175071013E-3</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>1.4132574145286118E-2</v>
       </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
       <c r="L46">
         <v>3</v>
       </c>
-      <c r="M46" s="1">
-        <v>42932</v>
-      </c>
-      <c r="N46" t="b">
-        <v>1</v>
-      </c>
-      <c r="O46" t="b">
-        <v>0</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="b">
+        <v>0</v>
+      </c>
+      <c r="R46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
         <v>13</v>
       </c>
-      <c r="C47">
+      <c r="E47">
         <v>8.113874984694136E-2</v>
       </c>
-      <c r="D47">
+      <c r="F47">
         <v>3.6940744787731881E-3</v>
       </c>
-      <c r="E47">
+      <c r="G47">
         <v>-22.109245076183274</v>
       </c>
-      <c r="F47">
+      <c r="H47">
         <v>12.211784691453987</v>
       </c>
-      <c r="G47">
+      <c r="I47">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>-8.8609579694777063E-2</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>4.9562075744134404E-2</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>5</v>
       </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>3</v>
-      </c>
-      <c r="M47" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N47" t="b">
-        <v>1</v>
-      </c>
-      <c r="O47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48" t="s">
+        <v>115</v>
+      </c>
+      <c r="D48" t="s">
         <v>13</v>
       </c>
-      <c r="C48">
+      <c r="E48">
         <v>0.33973294285168271</v>
       </c>
-      <c r="D48">
+      <c r="F48">
         <v>2.4573303696099655E-2</v>
       </c>
-      <c r="E48">
+      <c r="G48">
         <v>112.63682279107782</v>
       </c>
-      <c r="F48">
+      <c r="H48">
         <v>83.288604192228092</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>37.361495765232505</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>9.0686986981318662E-2</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>6.577173422207265E-2</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>5.01</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N48" t="b">
-        <v>1</v>
-      </c>
-      <c r="O48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49" t="s">
+        <v>115</v>
+      </c>
+      <c r="D49" t="s">
         <v>13</v>
       </c>
-      <c r="C49">
+      <c r="E49">
         <v>0.72097170588822923</v>
       </c>
-      <c r="D49">
+      <c r="F49">
         <v>1.4097699913677588E-2</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>81.430385529346736</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>47.034780740212817</v>
       </c>
-      <c r="G49">
+      <c r="I49">
         <v>74.534297107408278</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>3.2698054629445326E-2</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>1.8914379635675639E-2</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>5</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N49" t="b">
-        <v>1</v>
-      </c>
-      <c r="O49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>69</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" t="s">
         <v>13</v>
       </c>
-      <c r="C50">
+      <c r="E50">
         <v>1.6478113868929671</v>
       </c>
-      <c r="D50">
+      <c r="F50">
         <v>0.12121047636814132</v>
       </c>
-      <c r="E50">
+      <c r="G50">
         <v>716.28802903687119</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>391.55726136603471</v>
       </c>
-      <c r="G50">
+      <c r="I50">
         <v>186.80747882616251</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>0.11790930574767226</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>6.4885237534272514E-2</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>5.0066666666666668</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N50" t="b">
-        <v>1</v>
-      </c>
-      <c r="O50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" t="s">
         <v>13</v>
       </c>
-      <c r="C51">
+      <c r="E51">
         <v>3.3615046820566392</v>
       </c>
-      <c r="D51">
+      <c r="F51">
         <v>6.3350802224307598E-2</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>1246.2384743335954</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>196.5178250256086</v>
       </c>
-      <c r="G51">
+      <c r="I51">
         <v>373.61495765232502</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>0.10027566798202013</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>1.6956173977183166E-2</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>5.0066666666666668</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N51" t="b">
-        <v>1</v>
-      </c>
-      <c r="O51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
         <v>13</v>
       </c>
-      <c r="C52">
+      <c r="E52">
         <v>6.4814323684524097E-2</v>
       </c>
-      <c r="D52">
+      <c r="F52">
         <v>2.6015616654950406E-3</v>
       </c>
-      <c r="E52">
+      <c r="G52">
         <v>32.786674108015383</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>9.059210384753225</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>7.4534297107408278</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>0.1304094061406004</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>3.4904222169641348E-2</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>6.9933333333333332</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L52">
-        <v>3</v>
-      </c>
-      <c r="M52" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N52" t="b">
-        <v>1</v>
-      </c>
-      <c r="O52" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>72</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
         <v>13</v>
       </c>
-      <c r="C53">
+      <c r="E53">
         <v>0.29395149739185283</v>
       </c>
-      <c r="D53">
+      <c r="F53">
         <v>1.7558496800537834E-2</v>
       </c>
-      <c r="E53">
+      <c r="G53">
         <v>264.45159204936715</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>58.746229537654628</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>37.361495765232505</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>0.21322342328329558</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>4.6996236207644905E-2</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>7</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>1.9999999999999574E-2</v>
       </c>
-      <c r="L53">
-        <v>3</v>
-      </c>
-      <c r="M53" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N53" t="b">
-        <v>1</v>
-      </c>
-      <c r="O53" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>73</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
         <v>13</v>
       </c>
-      <c r="C54">
+      <c r="E54">
         <v>0.62554173546942815</v>
       </c>
-      <c r="D54">
+      <c r="F54">
         <v>4.2658574124982848E-2</v>
       </c>
-      <c r="E54">
+      <c r="G54">
         <v>400.87442204851419</v>
       </c>
-      <c r="F54">
+      <c r="H54">
         <v>141.81063938791735</v>
       </c>
-      <c r="G54">
+      <c r="I54">
         <v>74.534297107408278</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>0.16073303197857225</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>5.7233482813300512E-2</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>7.003333333333333</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>1.1180339887498709E-2</v>
       </c>
-      <c r="L54">
-        <v>3</v>
-      </c>
-      <c r="M54" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N54" t="b">
-        <v>1</v>
-      </c>
-      <c r="O54" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>74</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" t="s">
         <v>13</v>
       </c>
-      <c r="C55">
+      <c r="E55">
         <v>1.4930959259891992</v>
       </c>
-      <c r="D55">
+      <c r="F55">
         <v>4.5899553384654609E-2</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>1250.6736407439914</v>
       </c>
-      <c r="F55">
+      <c r="H55">
         <v>162.01960996802899</v>
       </c>
-      <c r="G55">
+      <c r="I55">
         <v>186.80747882616251</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>0.20073011242840547</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>2.4570511669592936E-2</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>6.9933333333333332</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L55">
-        <v>3</v>
-      </c>
-      <c r="M55" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N55" t="b">
-        <v>1</v>
-      </c>
-      <c r="O55" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>75</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
+      <c r="E56">
         <v>3.1116183826479085</v>
       </c>
-      <c r="D56">
+      <c r="F56">
         <v>7.6574588999315907E-2</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>2083.5512261853114</v>
       </c>
-      <c r="F56">
+      <c r="H56">
         <v>209.06535303022946</v>
       </c>
-      <c r="G56">
+      <c r="I56">
         <v>373.61495765232502</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>0.16715904464845102</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>2.0495589759169652E-2</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>7.003333333333333</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L56">
-        <v>3</v>
-      </c>
-      <c r="M56" s="1">
-        <v>42513</v>
-      </c>
-      <c r="N56" t="b">
-        <v>1</v>
-      </c>
-      <c r="O56" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N56">
+        <v>3</v>
+      </c>
+      <c r="O56" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>76</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="E57">
         <v>1.7470127058317454E-2</v>
       </c>
-      <c r="D57">
+      <c r="F57">
         <v>3.8354822039722049E-4</v>
       </c>
-      <c r="E57">
+      <c r="G57">
         <v>153.27457571384403</v>
       </c>
-      <c r="F57">
+      <c r="H57">
         <v>1.2712899478853406</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>6.4061380281690141</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>0.72729081107060189</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>5.9871988194866626E-3</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>9</v>
       </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>3</v>
-      </c>
-      <c r="M57" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N57" t="b">
-        <v>0</v>
-      </c>
-      <c r="O57" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>77</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
         <v>13</v>
       </c>
-      <c r="C58">
+      <c r="E58">
         <v>3.3783940309587847E-2</v>
       </c>
-      <c r="D58">
+      <c r="F58">
         <v>3.9121535565251565E-3</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>958.91062715253076</v>
       </c>
-      <c r="F58">
+      <c r="H58">
         <v>14.2038741118063</v>
       </c>
-      <c r="G58">
+      <c r="I58">
         <v>32.076777464788734</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>0.89467788543698601</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>1.2196217530952449E-2</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>8.99</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>1.7320508075688405E-2</v>
       </c>
-      <c r="L58">
-        <v>3</v>
-      </c>
-      <c r="M58" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N58" t="b">
-        <v>1</v>
-      </c>
-      <c r="O58" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>78</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" t="s">
         <v>13</v>
       </c>
-      <c r="C59">
+      <c r="E59">
         <v>8.1871040716075705E-2</v>
       </c>
-      <c r="D59">
+      <c r="F59">
         <v>1.3214421168626938E-2</v>
       </c>
-      <c r="E59">
+      <c r="G59">
         <v>1848.3129872127865</v>
       </c>
-      <c r="F59">
+      <c r="H59">
         <v>52.367350197522789</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>64.061380281690148</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>0.87219906852447904</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>2.0627749684007154E-2</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>9</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>1.4529663145135268E-2</v>
       </c>
-      <c r="L59">
-        <v>3</v>
-      </c>
-      <c r="M59" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N59" t="b">
-        <v>1</v>
-      </c>
-      <c r="O59" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>79</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
+      <c r="E60">
         <v>0.32096931594400874</v>
       </c>
-      <c r="D60">
+      <c r="F60">
         <v>5.0129589811635109E-2</v>
       </c>
-      <c r="E60">
+      <c r="G60">
         <v>4261.4862370324581</v>
       </c>
-      <c r="F60">
+      <c r="H60">
         <v>135.55131259547608</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>160.38388732394367</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>0.79987433818977438</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>3.1256001240562943E-2</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>9.0066666666666659</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L60">
-        <v>3</v>
-      </c>
-      <c r="M60" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N60" t="b">
-        <v>1</v>
-      </c>
-      <c r="O60" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>80</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
         <v>13</v>
       </c>
-      <c r="C61">
+      <c r="E61">
         <v>0.65231696056095057</v>
       </c>
-      <c r="D61">
+      <c r="F61">
         <v>3.8331275957743167E-2</v>
       </c>
-      <c r="E61">
+      <c r="G61">
         <v>8508.5565209118431</v>
       </c>
-      <c r="F61">
+      <c r="H61">
         <v>108.47414385684134</v>
       </c>
-      <c r="G61">
+      <c r="I61">
         <v>320.76777464788734</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>0.79663887331668182</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>1.1949852506169043E-2</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>9.0033333333333321</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L61">
-        <v>3</v>
-      </c>
-      <c r="M61" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N61" t="b">
-        <v>0</v>
-      </c>
-      <c r="O61" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P61" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>81</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" t="s">
         <v>16</v>
       </c>
-      <c r="C62">
+      <c r="E62">
         <v>7.7981408780746234E-2</v>
       </c>
-      <c r="D62">
+      <c r="F62">
         <v>5.5265225379266892E-3</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>-35.530149901913376</v>
       </c>
-      <c r="F62">
+      <c r="H62">
         <v>17.576284986578486</v>
       </c>
-      <c r="G62">
+      <c r="I62">
         <v>6.4061380281690141</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>-0.21729204768687574</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>8.6269176743078393E-2</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>2.9933333333333336</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L62">
-        <v>3</v>
-      </c>
-      <c r="M62" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N62" t="b">
-        <v>1</v>
-      </c>
-      <c r="O62" t="b">
-        <v>0</v>
-      </c>
-      <c r="P62" t="s">
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P62" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="b">
+        <v>0</v>
+      </c>
+      <c r="R62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>82</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
         <v>16</v>
       </c>
-      <c r="C63">
+      <c r="E63">
         <v>0.29893868122162187</v>
       </c>
-      <c r="D63">
+      <c r="F63">
         <v>7.4433974705073753E-3</v>
       </c>
-      <c r="E63">
+      <c r="G63">
         <v>50.878956083991632</v>
       </c>
-      <c r="F63">
+      <c r="H63">
         <v>14.328542199692317</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>32.076777464788734</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>6.8052638548955477E-2</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>2.3204941577058824E-2</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>3.0033333333333334</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>5.7735026918961348E-3</v>
       </c>
-      <c r="L63">
-        <v>3</v>
-      </c>
-      <c r="M63" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N63" t="b">
-        <v>1</v>
-      </c>
-      <c r="O63" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P63" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D64" t="s">
         <v>16</v>
       </c>
-      <c r="C64">
+      <c r="E64">
         <v>0.59988369615796533</v>
       </c>
-      <c r="D64">
+      <c r="F64">
         <v>5.9083572221755995E-3</v>
       </c>
-      <c r="E64">
+      <c r="G64">
         <v>103.36831162329558</v>
       </c>
-      <c r="F64">
+      <c r="H64">
         <v>26.404836598833889</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>64.061380281690148</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>6.3579814359038159E-2</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>9.222962721370383E-3</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>3.0033333333333334</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>8.3333333333332742E-3</v>
       </c>
-      <c r="L64">
-        <v>3</v>
-      </c>
-      <c r="M64" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N64" t="b">
-        <v>1</v>
-      </c>
-      <c r="O64" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N64">
+        <v>3</v>
+      </c>
+      <c r="O64" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P64" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>84</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65" t="s">
+        <v>115</v>
+      </c>
+      <c r="D65" t="s">
         <v>16</v>
       </c>
-      <c r="C65">
+      <c r="E65">
         <v>1.4940639119267203</v>
       </c>
-      <c r="D65">
+      <c r="F65">
         <v>6.7878518780489824E-2</v>
       </c>
-      <c r="E65">
+      <c r="G65">
         <v>279.73919096165804</v>
       </c>
-      <c r="F65">
+      <c r="H65">
         <v>203.03810549403423</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>160.38388732394367</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>6.8445130707546056E-2</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>4.2322529970475586E-2</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>2.9933333333333336</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L65">
-        <v>3</v>
-      </c>
-      <c r="M65" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N65" t="b">
-        <v>1</v>
-      </c>
-      <c r="O65" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>3</v>
+      </c>
+      <c r="O65" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P65" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>85</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" t="s">
         <v>16</v>
       </c>
-      <c r="C66">
+      <c r="E66">
         <v>3.0315988014190034</v>
       </c>
-      <c r="D66">
+      <c r="F66">
         <v>1.1439935922206056E-2</v>
       </c>
-      <c r="E66">
+      <c r="G66">
         <v>443.79330772077441</v>
       </c>
-      <c r="F66">
+      <c r="H66">
         <v>87.512279964524851</v>
       </c>
-      <c r="G66">
+      <c r="I66">
         <v>320.76777464788734</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>5.4892965870139136E-2</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>3.5664230718824145E-3</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>2.9933333333333336</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>1.1547005383792526E-2</v>
       </c>
-      <c r="L66">
-        <v>3</v>
-      </c>
-      <c r="M66" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N66" t="b">
-        <v>1</v>
-      </c>
-      <c r="O66" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N66">
+        <v>3</v>
+      </c>
+      <c r="O66" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
         <v>16</v>
       </c>
-      <c r="C67">
+      <c r="E67">
         <v>7.0508150514822163E-2</v>
       </c>
-      <c r="D67">
+      <c r="F67">
         <v>2.3230056044222414E-3</v>
       </c>
-      <c r="E67">
+      <c r="G67">
         <v>-17.33410638469973</v>
       </c>
-      <c r="F67">
+      <c r="H67">
         <v>7.1697227680379099</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>6.4061380281690141</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>-0.10063426989528379</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>3.6262184707971441E-2</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>5.0233333333333334</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>4.6188021535170098E-2</v>
       </c>
-      <c r="L67">
-        <v>3</v>
-      </c>
-      <c r="M67" s="1">
-        <v>42845</v>
-      </c>
-      <c r="N67" t="b">
-        <v>1</v>
-      </c>
-      <c r="O67" t="b">
-        <v>0</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="b">
+        <v>0</v>
+      </c>
+      <c r="R67" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" t="s">
         <v>16</v>
       </c>
-      <c r="C68">
+      <c r="E68">
         <v>0.29899705223292966</v>
       </c>
-      <c r="D68">
+      <c r="F68">
         <v>3.1312419689992167E-3</v>
       </c>
-      <c r="E68">
+      <c r="G68">
         <v>60.609959911215491</v>
       </c>
-      <c r="F68">
+      <c r="H68">
         <v>9.7368747380039284</v>
       </c>
-      <c r="G68">
+      <c r="I68">
         <v>32.076777464788734</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>6.7870665745197692E-2</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>9.7617099237491782E-3</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>4.99</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>2.6457513110645845E-2</v>
       </c>
-      <c r="L68">
-        <v>3</v>
-      </c>
-      <c r="M68" s="1">
-        <v>42845</v>
-      </c>
-      <c r="N68" t="b">
-        <v>1</v>
-      </c>
-      <c r="O68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P68" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>88</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" t="s">
         <v>16</v>
       </c>
-      <c r="C69">
+      <c r="E69">
         <v>0.58262179617757426</v>
       </c>
-      <c r="D69">
+      <c r="F69">
         <v>8.1878150956731701E-3</v>
       </c>
-      <c r="E69">
+      <c r="G69">
         <v>143.48107660851079</v>
       </c>
-      <c r="F69">
+      <c r="H69">
         <v>43.288902847488814</v>
       </c>
-      <c r="G69">
+      <c r="I69">
         <v>64.061380281690148</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>9.052569018076928E-2</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>1.2781203058176186E-2</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>4.9933333333333332</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>2.0816659994661382E-2</v>
       </c>
-      <c r="L69">
-        <v>3</v>
-      </c>
-      <c r="M69" s="1">
-        <v>42845</v>
-      </c>
-      <c r="N69" t="b">
-        <v>1</v>
-      </c>
-      <c r="O69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>89</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" t="s">
         <v>16</v>
       </c>
-      <c r="C70">
+      <c r="E70">
         <v>1.4543539360521651</v>
       </c>
-      <c r="D70">
+      <c r="F70">
         <v>2.2382192432058107E-2</v>
       </c>
-      <c r="E70">
+      <c r="G70">
         <v>410.9410134878471</v>
       </c>
-      <c r="F70">
+      <c r="H70">
         <v>5.5236786080083462</v>
       </c>
-      <c r="G70">
+      <c r="I70">
         <v>160.38388732394367</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>9.3204460673372666E-2</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>1.3955387168569113E-2</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>5.0366666666666662</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>1.5275252316519626E-2</v>
       </c>
-      <c r="L70">
-        <v>3</v>
-      </c>
-      <c r="M70" s="1">
-        <v>42845</v>
-      </c>
-      <c r="N70" t="b">
-        <v>1</v>
-      </c>
-      <c r="O70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N70">
+        <v>3</v>
+      </c>
+      <c r="O70" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>90</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71" t="s">
+        <v>115</v>
+      </c>
+      <c r="D71" t="s">
         <v>16</v>
       </c>
-      <c r="C71">
+      <c r="E71">
         <v>2.7848963753543354</v>
       </c>
-      <c r="D71">
+      <c r="F71">
         <v>2.0470785911652772E-2</v>
       </c>
-      <c r="E71">
+      <c r="G71">
         <v>1080.5034760870349</v>
       </c>
-      <c r="F71">
+      <c r="H71">
         <v>251.63575572743022</v>
       </c>
-      <c r="G71">
+      <c r="I71">
         <v>320.76777464788734</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>0.13180294422924274</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>6.3818087506215719E-3</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>5.0133333333333328</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>4.1633319989322265E-2</v>
       </c>
-      <c r="L71">
-        <v>3</v>
-      </c>
-      <c r="M71" s="1">
-        <v>42845</v>
-      </c>
-      <c r="N71" t="b">
-        <v>1</v>
-      </c>
-      <c r="O71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>91</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
         <v>16</v>
       </c>
-      <c r="C72">
+      <c r="E72">
         <v>6.6445174364093765E-2</v>
       </c>
-      <c r="D72">
+      <c r="F72">
         <v>2.9851866604333039E-3</v>
       </c>
-      <c r="E72">
+      <c r="G72">
         <v>-6.1593958997669098</v>
       </c>
-      <c r="F72">
+      <c r="H72">
         <v>8.2150716987222463</v>
       </c>
-      <c r="G72">
+      <c r="I72">
         <v>6.4061380281690141</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>-3.7211094608352688E-2</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>4.6598850154443525E-2</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>6.9733333333333336</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>3.2145502536643E-2</v>
       </c>
-      <c r="L72">
-        <v>3</v>
-      </c>
-      <c r="M72" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N72" t="b">
-        <v>1</v>
-      </c>
-      <c r="O72" t="b">
-        <v>0</v>
-      </c>
-      <c r="P72" t="s">
+      <c r="N72">
+        <v>3</v>
+      </c>
+      <c r="O72" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>92</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73" t="s">
+        <v>115</v>
+      </c>
+      <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="C73">
+      <c r="E73">
         <v>0.2787246231238753</v>
       </c>
-      <c r="D73">
+      <c r="F73">
         <v>2.5460426927968608E-3</v>
       </c>
-      <c r="E73">
+      <c r="G73">
         <v>116.27308679484163</v>
       </c>
-      <c r="F73">
+      <c r="H73">
         <v>13.567414324332047</v>
       </c>
-      <c r="G73">
+      <c r="I73">
         <v>32.076777464788734</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>0.13107037192300128</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>7.9373393901294876E-3</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>6.9833333333333334</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>3.0550504633038766E-2</v>
       </c>
-      <c r="L73">
-        <v>3</v>
-      </c>
-      <c r="M73" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N73" t="b">
-        <v>1</v>
-      </c>
-      <c r="O73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N73">
+        <v>3</v>
+      </c>
+      <c r="O73" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>93</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" t="s">
         <v>16</v>
       </c>
-      <c r="C74">
+      <c r="E74">
         <v>0.54455151507521149</v>
       </c>
-      <c r="D74">
+      <c r="F74">
         <v>7.0872020208352579E-3</v>
       </c>
-      <c r="E74">
+      <c r="G74">
         <v>262.83594063722995</v>
       </c>
-      <c r="F74">
+      <c r="H74">
         <v>41.760109234130738</v>
       </c>
-      <c r="G74">
+      <c r="I74">
         <v>64.061380281690148</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>0.14995350914901565</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>1.1063142863409212E-2</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>6.9733333333333336</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>2.5385910352879595E-2</v>
       </c>
-      <c r="L74">
-        <v>3</v>
-      </c>
-      <c r="M74" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N74" t="b">
-        <v>1</v>
-      </c>
-      <c r="O74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" t="s">
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
         <v>16</v>
       </c>
-      <c r="C75">
+      <c r="E75">
         <v>1.3300289884221053</v>
       </c>
-      <c r="D75">
+      <c r="F75">
         <v>7.0671910233903498E-2</v>
       </c>
-      <c r="E75">
+      <c r="G75">
         <v>782.7731442038488</v>
       </c>
-      <c r="F75">
+      <c r="H75">
         <v>282.46835386453978</v>
       </c>
-      <c r="G75">
+      <c r="I75">
         <v>160.38388732394367</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>0.17072156647774084</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>4.4064220797417376E-2</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>7.0166666666666666</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>2.5166114784235707E-2</v>
       </c>
-      <c r="L75">
-        <v>3</v>
-      </c>
-      <c r="M75" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N75" t="b">
-        <v>1</v>
-      </c>
-      <c r="O75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>95</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
         <v>16</v>
       </c>
-      <c r="C76">
+      <c r="E76">
         <v>2.6549978805536329</v>
       </c>
-      <c r="D76">
+      <c r="F76">
         <v>2.0622077750230831E-2</v>
       </c>
-      <c r="E76">
+      <c r="G76">
         <v>1478.4884465379084</v>
       </c>
-      <c r="F76">
+      <c r="H76">
         <v>182.03281710837933</v>
       </c>
-      <c r="G76">
+      <c r="I76">
         <v>320.76777464788734</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>0.17229906169094686</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>6.4289742861071454E-3</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>6.9833333333333334</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>3.2145502536643007E-2</v>
       </c>
-      <c r="L76">
-        <v>3</v>
-      </c>
-      <c r="M76" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N76" t="b">
-        <v>1</v>
-      </c>
-      <c r="O76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>96</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" t="s">
         <v>16</v>
       </c>
-      <c r="C77">
+      <c r="E77">
         <v>6.0057086262937605E-2</v>
       </c>
-      <c r="D77">
+      <c r="F77">
         <v>4.8113550554297457E-3</v>
       </c>
-      <c r="E77">
+      <c r="G77">
         <v>10.279792909169773</v>
       </c>
-      <c r="F77">
+      <c r="H77">
         <v>12.353667306062254</v>
       </c>
-      <c r="G77">
+      <c r="I77">
         <v>6.4061380281690141</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>6.2507145508649498E-2</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>7.5105391645844913E-2</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>8.99</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>1.7320508075688402E-2</v>
       </c>
-      <c r="L77">
-        <v>3</v>
-      </c>
-      <c r="M77" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N77" t="b">
-        <v>1</v>
-      </c>
-      <c r="O77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>97</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78" t="s">
+        <v>115</v>
+      </c>
+      <c r="D78" t="s">
         <v>16</v>
       </c>
-      <c r="C78">
+      <c r="E78">
         <v>0.24543368967465518</v>
       </c>
-      <c r="D78">
+      <c r="F78">
         <v>8.9689434147599539E-3</v>
       </c>
-      <c r="E78">
+      <c r="G78">
         <v>179.12297471512332</v>
       </c>
-      <c r="F78">
+      <c r="H78">
         <v>23.71677629654836</v>
       </c>
-      <c r="G78">
+      <c r="I78">
         <v>32.076777464788734</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>0.23485552766616835</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>2.7960861793568024E-2</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>8.9866666666666664</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>1.154700538379227E-2</v>
       </c>
-      <c r="L78">
-        <v>3</v>
-      </c>
-      <c r="M78" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N78" t="b">
-        <v>1</v>
-      </c>
-      <c r="O78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N78">
+        <v>3</v>
+      </c>
+      <c r="O78" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>98</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" t="s">
         <v>16</v>
       </c>
-      <c r="C79">
+      <c r="E79">
         <v>0.47912114903620662</v>
       </c>
-      <c r="D79">
+      <c r="F79">
         <v>2.061949506239104E-3</v>
       </c>
-      <c r="E79">
+      <c r="G79">
         <v>385.6546891187815</v>
       </c>
-      <c r="F79">
+      <c r="H79">
         <v>27.765939826143953</v>
       </c>
-      <c r="G79">
+      <c r="I79">
         <v>64.061380281690148</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>0.2520904998777434</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>3.2187091460913267E-3</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>8.9800000000000022</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L79">
-        <v>3</v>
-      </c>
-      <c r="M79" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N79" t="b">
-        <v>1</v>
-      </c>
-      <c r="O79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N79">
+        <v>3</v>
+      </c>
+      <c r="O79" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>99</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>115</v>
+      </c>
+      <c r="D80" t="s">
         <v>16</v>
       </c>
-      <c r="C80">
+      <c r="E80">
         <v>1.2822355118906807</v>
       </c>
-      <c r="D80">
+      <c r="F80">
         <v>6.0983187254720864E-2</v>
       </c>
-      <c r="E80">
+      <c r="G80">
         <v>813.20836822099318</v>
       </c>
-      <c r="F80">
+      <c r="H80">
         <v>287.61261090604239</v>
       </c>
-      <c r="G80">
+      <c r="I80">
         <v>160.38388732394367</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>0.20052099167491863</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>3.8023262979994171E-2</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>8.9966666666666661</v>
       </c>
-      <c r="K80">
+      <c r="M80">
         <v>2.5166114784235295E-2</v>
       </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N80" t="b">
-        <v>1</v>
-      </c>
-      <c r="O80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>100</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D81" t="s">
         <v>16</v>
       </c>
-      <c r="C81">
+      <c r="E81">
         <v>2.568887372735686</v>
       </c>
-      <c r="D81">
+      <c r="F81">
         <v>0.1006890253215902</v>
       </c>
-      <c r="E81">
+      <c r="G81">
         <v>1491.3089682472137</v>
       </c>
-      <c r="F81">
+      <c r="H81">
         <v>98.99498390340446</v>
       </c>
-      <c r="G81">
+      <c r="I81">
         <v>320.76777464788734</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>0.1991441859907527</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>3.1390006503028339E-2</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>8.99</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>9.9999999999997868E-3</v>
       </c>
-      <c r="L81">
-        <v>3</v>
-      </c>
-      <c r="M81" s="1">
-        <v>42844</v>
-      </c>
-      <c r="N81" t="b">
-        <v>1</v>
-      </c>
-      <c r="O81" t="b">
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>101</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82">
+        <v>0.61018175760748272</v>
+      </c>
+      <c r="F82">
+        <v>4.7506115760659771E-3</v>
+      </c>
+      <c r="G82" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H82" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I82">
+        <v>64.088623616928359</v>
+      </c>
+      <c r="J82">
+        <v>4.7909405490322556E-2</v>
+      </c>
+      <c r="K82">
+        <v>7.4125660810901925E-3</v>
+      </c>
+      <c r="L82">
+        <v>6.996666666666667</v>
+      </c>
+      <c r="M82">
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>129</v>
+      </c>
+      <c r="D83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83">
+        <v>0.45150104777646582</v>
+      </c>
+      <c r="F83">
+        <v>3.4378587522214728E-3</v>
+      </c>
+      <c r="G83">
+        <v>622.27753927968968</v>
+      </c>
+      <c r="H83">
+        <v>8.2080664694190073</v>
+      </c>
+      <c r="I83">
+        <v>64.088623616928359</v>
+      </c>
+      <c r="J83">
+        <v>0.2955051578651684</v>
+      </c>
+      <c r="K83">
+        <v>5.3642262201951934E-3</v>
+      </c>
+      <c r="L83">
+        <v>6.9899999999999993</v>
+      </c>
+      <c r="M83">
+        <v>2.6457513110645845E-2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84">
+        <v>0.64450125902868771</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>-50.725127815259157</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>64.088623616928359</v>
+      </c>
+      <c r="J84">
+        <v>-5.6406623443997729E-3</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>6.9899999999999993</v>
+      </c>
+      <c r="M84">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84" t="b">
+        <v>0</v>
+      </c>
+      <c r="R84" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>129</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85">
+        <v>0.61535555179158419</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>85.970386776723373</v>
+      </c>
+      <c r="H85">
+        <v>1.0486035262275153</v>
+      </c>
+      <c r="I85">
+        <v>64.088623616928359</v>
+      </c>
+      <c r="J85">
+        <v>3.9836530942374153E-2</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>6.9866666666666672</v>
+      </c>
+      <c r="M85">
+        <v>1.4529663145135506E-2</v>
+      </c>
+      <c r="N85">
+        <v>3</v>
+      </c>
+      <c r="O85" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>115</v>
+      </c>
+      <c r="D86" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86">
+        <v>1.4815130453074343E-2</v>
+      </c>
+      <c r="F86">
+        <v>5.573883690688687E-4</v>
+      </c>
+      <c r="G86">
+        <v>75.15455104052721</v>
+      </c>
+      <c r="H86">
+        <v>1.8579612302295603</v>
+      </c>
+      <c r="I86">
+        <v>3.7361495765232502</v>
+      </c>
+      <c r="J86">
+        <v>0.60346527488707069</v>
+      </c>
+      <c r="K86">
+        <v>1.4918791596870607E-2</v>
+      </c>
+      <c r="L86">
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="M86">
+        <v>1.527525231651914E-2</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87">
+        <v>1.5333983886921492E-2</v>
+      </c>
+      <c r="F87">
+        <v>2.0174097080446373E-4</v>
+      </c>
+      <c r="G87">
+        <v>1192.6974590258721</v>
+      </c>
+      <c r="H87">
+        <v>0.67246990268154394</v>
+      </c>
+      <c r="I87">
+        <v>37.314322159468318</v>
+      </c>
+      <c r="J87">
+        <v>0.95890590261457931</v>
+      </c>
+      <c r="K87">
+        <v>5.406529159025737E-4</v>
+      </c>
+      <c r="L87">
+        <v>8.9166666666666661</v>
+      </c>
+      <c r="M87">
+        <v>2.5166114784235295E-2</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88">
+        <v>4.8620016234813795E-2</v>
+      </c>
+      <c r="F88">
+        <v>1.880892966031213E-2</v>
+      </c>
+      <c r="G88">
+        <v>12291.765200961454</v>
+      </c>
+      <c r="H88">
+        <v>62.696432201040601</v>
+      </c>
+      <c r="I88">
+        <v>373.61495765232502</v>
+      </c>
+      <c r="J88">
+        <v>0.98698659803656519</v>
+      </c>
+      <c r="K88">
+        <v>5.0343085240754518E-3</v>
+      </c>
+      <c r="L88">
+        <v>8.9350000000000005</v>
+      </c>
+      <c r="M88">
+        <v>4.7258156262525892E-2</v>
+      </c>
+      <c r="N88">
+        <v>4</v>
+      </c>
+      <c r="O88" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>115</v>
+      </c>
+      <c r="D89" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89">
+        <v>5.1168773177430328E-2</v>
+      </c>
+      <c r="F89">
+        <v>2.7789234305918582E-2</v>
+      </c>
+      <c r="G89">
+        <v>10517.489581838743</v>
+      </c>
+      <c r="H89">
+        <v>92.593743522319812</v>
+      </c>
+      <c r="I89">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J89">
+        <v>0.98404803187178036</v>
+      </c>
+      <c r="K89">
+        <v>8.6633497820731535E-3</v>
+      </c>
+      <c r="L89">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90" t="s">
+        <v>115</v>
+      </c>
+      <c r="D90" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90">
+        <v>0.84390459333952395</v>
+      </c>
+      <c r="F90">
+        <v>1.3833771676127916E-2</v>
+      </c>
+      <c r="G90">
+        <v>7888.8860646333951</v>
+      </c>
+      <c r="H90">
+        <v>93.981504458795641</v>
+      </c>
+      <c r="I90">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J90">
+        <v>0.73691104280475395</v>
+      </c>
+      <c r="K90">
+        <v>4.3127061910484795E-3</v>
+      </c>
+      <c r="L90">
+        <v>2.9933333333333336</v>
+      </c>
+      <c r="M90">
+        <v>2.3094010767585053E-2</v>
+      </c>
+      <c r="N90">
+        <v>3</v>
+      </c>
+      <c r="O90" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91" t="s">
+        <v>115</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>0.39708334587086741</v>
+      </c>
+      <c r="F91">
+        <v>5.7784708412443207E-3</v>
+      </c>
+      <c r="G91">
+        <v>9266.0226041571277</v>
+      </c>
+      <c r="H91">
+        <v>59.523127101018765</v>
+      </c>
+      <c r="I91">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J91">
+        <v>0.87620846691761567</v>
+      </c>
+      <c r="K91">
+        <v>1.8014499266914195E-3</v>
+      </c>
+      <c r="L91">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="M91">
+        <v>1.0000000000000231E-2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92">
+        <v>0.42144439899925529</v>
+      </c>
+      <c r="F92">
+        <v>2.4667210843056148E-2</v>
+      </c>
+      <c r="G92">
+        <v>9216.3755310484648</v>
+      </c>
+      <c r="H92">
+        <v>59.921778787270824</v>
+      </c>
+      <c r="I92">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J92">
+        <v>0.86861385952442305</v>
+      </c>
+      <c r="K92">
+        <v>7.6900526775589614E-3</v>
+      </c>
+      <c r="L92">
+        <v>7.0066666666666668</v>
+      </c>
+      <c r="M92">
+        <v>1.154700538379227E-2</v>
+      </c>
+      <c r="N92">
+        <v>3</v>
+      </c>
+      <c r="O92" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>113</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93" t="s">
+        <v>115</v>
+      </c>
+      <c r="D93" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>0.37611842430947928</v>
+      </c>
+      <c r="F93">
+        <v>6.2848162499676757E-2</v>
+      </c>
+      <c r="G93">
+        <v>9386.085994166182</v>
+      </c>
+      <c r="H93">
+        <v>172.25125681302248</v>
+      </c>
+      <c r="I93">
+        <v>320.76777464788734</v>
+      </c>
+      <c r="J93">
+        <v>0.88274432345258136</v>
+      </c>
+      <c r="K93">
+        <v>1.9593041279993412E-2</v>
+      </c>
+      <c r="L93">
+        <v>9.0266666666666655</v>
+      </c>
+      <c r="M93">
+        <v>2.0816659994661878E-2</v>
+      </c>
+      <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>117</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>105</v>
+      </c>
+      <c r="E94">
+        <v>3.2014596235370747</v>
+      </c>
+      <c r="F94">
+        <v>3.4263875741648041E-2</v>
+      </c>
+      <c r="I94">
+        <v>327.22000000000003</v>
+      </c>
+      <c r="J94">
+        <v>2.1618598026687114E-2</v>
+      </c>
+      <c r="K94">
+        <v>1.0471204615136011E-2</v>
+      </c>
+      <c r="L94">
+        <v>3.0133333333333332</v>
+      </c>
+      <c r="M94">
+        <v>5.7735026918963907E-3</v>
+      </c>
+      <c r="N94">
+        <v>3</v>
+      </c>
+      <c r="O94" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>118</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95">
+        <v>0.66923081601634216</v>
+      </c>
+      <c r="F95">
+        <v>1.3828282073644324E-2</v>
+      </c>
+      <c r="I95">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="J95">
+        <v>-2.2600721252279837E-2</v>
+      </c>
+      <c r="K95">
+        <v>2.1129946326086869E-2</v>
+      </c>
+      <c r="L95">
+        <v>2.9933333333333336</v>
+      </c>
+      <c r="M95">
+        <v>4.9328828623162339E-2</v>
+      </c>
+      <c r="N95">
+        <v>3</v>
+      </c>
+      <c r="O95" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>105</v>
+      </c>
+      <c r="E96">
+        <v>8.1281434541249337E-2</v>
+      </c>
+      <c r="F96">
+        <v>4.9703669397525296E-3</v>
+      </c>
+      <c r="I96">
+        <v>6.4522253521126771</v>
+      </c>
+      <c r="J96">
+        <v>-0.25974264855202317</v>
+      </c>
+      <c r="K96">
+        <v>7.7033374820441883E-2</v>
+      </c>
+      <c r="L96">
+        <v>3.0033333333333334</v>
+      </c>
+      <c r="M96">
+        <v>1.154700538379227E-2</v>
+      </c>
+      <c r="N96">
+        <v>3</v>
+      </c>
+      <c r="O96" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>120</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
+        <v>105</v>
+      </c>
+      <c r="E97">
+        <v>2.9907785971172474</v>
+      </c>
+      <c r="F97">
+        <v>4.1917238567257278E-2</v>
+      </c>
+      <c r="I97">
+        <v>327.22000000000003</v>
+      </c>
+      <c r="J97">
+        <v>8.6003729259443981E-2</v>
+      </c>
+      <c r="K97">
+        <v>1.2810108968662411E-2</v>
+      </c>
+      <c r="L97">
+        <v>5.04</v>
+      </c>
+      <c r="M97">
+        <v>1.7320508075688915E-2</v>
+      </c>
+      <c r="N97">
+        <v>3</v>
+      </c>
+      <c r="O97" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" t="s">
+        <v>105</v>
+      </c>
+      <c r="E98">
+        <v>0.63022836755157885</v>
+      </c>
+      <c r="F98">
+        <v>6.1823012002880469E-3</v>
+      </c>
+      <c r="I98">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="J98">
+        <v>3.6995954477753869E-2</v>
+      </c>
+      <c r="K98">
+        <v>9.4467043583645015E-3</v>
+      </c>
+      <c r="L98">
+        <v>4.9833333333333334</v>
+      </c>
+      <c r="M98">
+        <v>3.2145502536643007E-2</v>
+      </c>
+      <c r="N98">
+        <v>3</v>
+      </c>
+      <c r="O98" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P98" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99" t="s">
+        <v>115</v>
+      </c>
+      <c r="D99" t="s">
+        <v>105</v>
+      </c>
+      <c r="E99">
+        <v>8.08598661262485E-2</v>
+      </c>
+      <c r="F99">
+        <v>6.0960459938288617E-3</v>
+      </c>
+      <c r="I99">
+        <v>6.4522253521126771</v>
+      </c>
+      <c r="J99">
+        <v>-0.25320895835995932</v>
+      </c>
+      <c r="K99">
+        <v>9.4479743982172001E-2</v>
+      </c>
+      <c r="L99">
+        <v>5</v>
+      </c>
+      <c r="M99">
+        <v>4.3588989435406622E-2</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P99" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100" t="s">
+        <v>115</v>
+      </c>
+      <c r="D100" t="s">
+        <v>105</v>
+      </c>
+      <c r="E100">
+        <v>2.7495825031192815</v>
+      </c>
+      <c r="F100">
+        <v>6.7076105821362975E-2</v>
+      </c>
+      <c r="I100">
+        <v>327.22000000000003</v>
+      </c>
+      <c r="J100">
+        <v>0.15971441136871786</v>
+      </c>
+      <c r="K100">
+        <v>2.0498779359869084E-2</v>
+      </c>
+      <c r="L100">
+        <v>6.9533333333333331</v>
+      </c>
+      <c r="M100">
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P100" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D101" t="s">
+        <v>105</v>
+      </c>
+      <c r="E101">
+        <v>0.58363473958592604</v>
+      </c>
+      <c r="F101">
+        <v>1.4872980252780162E-2</v>
+      </c>
+      <c r="I101">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="J101">
+        <v>0.10819213436537189</v>
+      </c>
+      <c r="K101">
+        <v>2.2726270174164391E-2</v>
+      </c>
+      <c r="L101">
+        <v>6.96</v>
+      </c>
+      <c r="M101">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P101" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>125</v>
+      </c>
+      <c r="B102">
+        <v>10</v>
+      </c>
+      <c r="C102" t="s">
+        <v>115</v>
+      </c>
+      <c r="D102" t="s">
+        <v>105</v>
+      </c>
+      <c r="E102">
+        <v>8.8456941688886084E-2</v>
+      </c>
+      <c r="F102">
+        <v>1.6203201567106279E-2</v>
+      </c>
+      <c r="I102">
+        <v>6.4522253521126771</v>
+      </c>
+      <c r="J102">
+        <v>-0.3709524522407186</v>
+      </c>
+      <c r="K102">
+        <v>0.25112578502548477</v>
+      </c>
+      <c r="L102">
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="M102">
+        <v>1.5275252316519529E-2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P102" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>126</v>
+      </c>
+      <c r="B103">
+        <v>10</v>
+      </c>
+      <c r="C103" t="s">
+        <v>115</v>
+      </c>
+      <c r="D103" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103">
+        <v>2.6027351892170292</v>
+      </c>
+      <c r="F103">
+        <v>0.14471637276230156</v>
+      </c>
+      <c r="I103">
+        <v>327.22000000000003</v>
+      </c>
+      <c r="J103">
+        <v>0.20459165417241329</v>
+      </c>
+      <c r="K103">
+        <v>4.4226016980105733E-2</v>
+      </c>
+      <c r="L103">
+        <v>8.9666666666666668</v>
+      </c>
+      <c r="M103">
+        <v>5.7735026918961348E-3</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P103" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>127</v>
+      </c>
+      <c r="B104">
+        <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>115</v>
+      </c>
+      <c r="D104" t="s">
+        <v>105</v>
+      </c>
+      <c r="E104">
+        <v>0.5478102684034768</v>
+      </c>
+      <c r="F104">
+        <v>1.5979142104889897E-2</v>
+      </c>
+      <c r="I104">
+        <v>65.444000000000003</v>
+      </c>
+      <c r="J104">
+        <v>0.16293278466555114</v>
+      </c>
+      <c r="K104">
+        <v>2.4416511987179729E-2</v>
+      </c>
+      <c r="L104">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="M104">
+        <v>9.9999999999997868E-3</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P104" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="C105" t="s">
+        <v>115</v>
+      </c>
+      <c r="D105" t="s">
+        <v>105</v>
+      </c>
+      <c r="E105">
+        <v>8.9577193421056148E-2</v>
+      </c>
+      <c r="F105">
+        <v>1.6816967897298828E-2</v>
+      </c>
+      <c r="I105">
+        <v>6.4522253521126771</v>
+      </c>
+      <c r="J105">
+        <v>-0.38831470589795108</v>
+      </c>
+      <c r="K105">
+        <v>0.26063826012822572</v>
+      </c>
+      <c r="L105">
+        <v>8.9666666666666668</v>
+      </c>
+      <c r="M105">
+        <v>1.527525231652011E-2</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" s="1">
+        <v>42922</v>
+      </c>
+      <c r="P105" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q105" t="b">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R105">
+    <sortState ref="A2:R89">
+      <sortCondition ref="L1:L105"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="135">
   <si>
     <t>Mineral</t>
   </si>
@@ -417,6 +417,21 @@
   </si>
   <si>
     <t>AGW</t>
+  </si>
+  <si>
+    <t>RaGlassABW_1</t>
+  </si>
+  <si>
+    <t>RaGOEABW_1</t>
+  </si>
+  <si>
+    <t>RaMontABW_1</t>
+  </si>
+  <si>
+    <t>RaFHYABW_1</t>
+  </si>
+  <si>
+    <t>ABW</t>
   </si>
 </sst>
 </file>
@@ -1016,13 +1031,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R105"/>
+  <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D83" sqref="D83"/>
+      <selection pane="bottomRight" activeCell="L106" sqref="L106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5376,10 +5391,10 @@
         <v>105</v>
       </c>
       <c r="E82">
-        <v>0.61018175760748272</v>
+        <v>0.6041387154627802</v>
       </c>
       <c r="F82">
-        <v>4.7506115760659771E-3</v>
+        <v>6.0659801498432345E-3</v>
       </c>
       <c r="G82" t="e">
         <v>#DIV/0!</v>
@@ -5388,13 +5403,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="I82">
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="J82">
-        <v>4.7909405490322556E-2</v>
+        <v>5.0030593958131107E-2</v>
       </c>
       <c r="K82">
-        <v>7.4125660810901925E-3</v>
+        <v>9.5383649690355538E-3</v>
       </c>
       <c r="L82">
         <v>6.996666666666667</v>
@@ -5429,25 +5444,25 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <v>0.45150104777646582</v>
+        <v>0.44875306185450725</v>
       </c>
       <c r="F83">
-        <v>3.4378587522214728E-3</v>
+        <v>3.1521890578884203E-3</v>
       </c>
       <c r="G83">
-        <v>622.27753927968968</v>
+        <v>615.12779390097069</v>
       </c>
       <c r="H83">
-        <v>8.2080664694190073</v>
+        <v>9.345050401447109</v>
       </c>
       <c r="I83">
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="J83">
-        <v>0.2955051578651684</v>
+        <v>0.29436457436295527</v>
       </c>
       <c r="K83">
-        <v>5.3642262201951934E-3</v>
+        <v>4.9566152448285118E-3</v>
       </c>
       <c r="L83">
         <v>6.9899999999999993</v>
@@ -5482,25 +5497,25 @@
         <v>10</v>
       </c>
       <c r="E84">
-        <v>0.64450125902868771</v>
+        <v>0.64004194118429558</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>-50.725127815259157</v>
+        <v>-57.333355475591723</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>8.7023357152673167E-15</v>
       </c>
       <c r="I84">
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="J84">
-        <v>-5.6406623443997729E-3</v>
+        <v>-6.4249271675570164E-3</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1.0622968402425924E-18</v>
       </c>
       <c r="L84">
         <v>6.9899999999999993</v>
@@ -5538,22 +5553,22 @@
         <v>13</v>
       </c>
       <c r="E85">
-        <v>0.61535555179158419</v>
+        <v>0.60892715989690571</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>85.970386776723373</v>
+        <v>91.015080444616117</v>
       </c>
       <c r="H85">
-        <v>1.0486035262275153</v>
+        <v>1.1101349880159681</v>
       </c>
       <c r="I85">
-        <v>64.088623616928359</v>
+        <v>63.595597039274907</v>
       </c>
       <c r="J85">
-        <v>3.9836530942374153E-2</v>
+        <v>4.2501072014704239E-2</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -6562,6 +6577,218 @@
         <v>1</v>
       </c>
       <c r="Q105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106">
+        <v>100</v>
+      </c>
+      <c r="C106" t="s">
+        <v>134</v>
+      </c>
+      <c r="D106" t="s">
+        <v>105</v>
+      </c>
+      <c r="E106">
+        <v>0.64446568395332338</v>
+      </c>
+      <c r="F106">
+        <v>2.223398787505055E-2</v>
+      </c>
+      <c r="G106" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106">
+        <v>66.468379722063446</v>
+      </c>
+      <c r="J106">
+        <v>3.0417641218054108E-2</v>
+      </c>
+      <c r="K106">
+        <v>3.3450473695946281E-2</v>
+      </c>
+      <c r="L106">
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="M106">
+        <v>1.1547005383792781E-2</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" s="1">
+        <v>42929</v>
+      </c>
+      <c r="P106" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107">
+        <v>100</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>0.6254273005681803</v>
+      </c>
+      <c r="F107">
+        <v>9.7783246685129756E-3</v>
+      </c>
+      <c r="G107">
+        <v>135.88119085287926</v>
+      </c>
+      <c r="H107">
+        <v>35.853166414458016</v>
+      </c>
+      <c r="I107">
+        <v>66.468379722063446</v>
+      </c>
+      <c r="J107">
+        <v>5.9060408598200574E-2</v>
+      </c>
+      <c r="K107">
+        <v>1.4711242713303475E-2</v>
+      </c>
+      <c r="L107">
+        <v>6.9933333333333332</v>
+      </c>
+      <c r="M107">
+        <v>4.0414518843273968E-2</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" s="1">
+        <v>42929</v>
+      </c>
+      <c r="P107" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+      <c r="B108">
+        <v>100</v>
+      </c>
+      <c r="C108" t="s">
+        <v>134</v>
+      </c>
+      <c r="D108" t="s">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>0.6135231518984362</v>
+      </c>
+      <c r="F108">
+        <v>5.0031723238699198E-3</v>
+      </c>
+      <c r="G108">
+        <v>168.61313053915657</v>
+      </c>
+      <c r="H108">
+        <v>15.455001533589501</v>
+      </c>
+      <c r="I108">
+        <v>66.468379722063446</v>
+      </c>
+      <c r="J108">
+        <v>7.6969899877393846E-2</v>
+      </c>
+      <c r="K108">
+        <v>7.5271465090477607E-3</v>
+      </c>
+      <c r="L108">
+        <v>6.97</v>
+      </c>
+      <c r="M108">
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" s="1">
+        <v>42929</v>
+      </c>
+      <c r="P108" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+      <c r="B109">
+        <v>100</v>
+      </c>
+      <c r="C109" t="s">
+        <v>134</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109">
+        <v>0.58929033811307296</v>
+      </c>
+      <c r="F109">
+        <v>6.4158228296112537E-3</v>
+      </c>
+      <c r="G109">
+        <v>1057.902812347884</v>
+      </c>
+      <c r="H109">
+        <v>90.025276666086697</v>
+      </c>
+      <c r="I109">
+        <v>66.468379722063446</v>
+      </c>
+      <c r="J109">
+        <v>0.11342755671616804</v>
+      </c>
+      <c r="K109">
+        <v>9.6524435475017385E-3</v>
+      </c>
+      <c r="L109">
+        <v>6.9733333333333327</v>
+      </c>
+      <c r="M109">
+        <v>2.522124325070265E-2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" s="1">
+        <v>42929</v>
+      </c>
+      <c r="P109" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q109" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$T$138</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$T$143</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="180">
   <si>
     <t>Mineral</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>RaFHYASW_2</t>
+  </si>
+  <si>
+    <t>RaPYRASW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total counts based on the original 2P counts, which showed roughly similar amounts (minimal) 2 phase behavior. </t>
   </si>
 </sst>
 </file>
@@ -1159,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T142"/>
+  <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E119" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E145" sqref="E145"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9442,25 +9448,25 @@
         <v>10</v>
       </c>
       <c r="E142">
-        <v>0.74135407702353928</v>
+        <v>0.73837656584066613</v>
       </c>
       <c r="F142">
-        <v>6.209997472009952E-3</v>
+        <v>8.4664962603611081E-3</v>
       </c>
       <c r="G142">
-        <v>-284.64884985479551</v>
+        <v>33.427398485836996</v>
       </c>
       <c r="H142">
-        <v>20.65098681387261</v>
+        <v>28.15484280315329</v>
       </c>
       <c r="I142">
-        <v>65.575678068410468</v>
+        <v>74.842858233575527</v>
       </c>
       <c r="J142">
-        <v>-0.13053207966852745</v>
+        <v>1.3430829249890502E-2</v>
       </c>
       <c r="K142">
-        <v>9.4699706582240303E-3</v>
+        <v>1.131236361115201E-2</v>
       </c>
       <c r="L142">
         <v>6.9966666666666661</v>
@@ -9478,7 +9484,7 @@
         <v>3</v>
       </c>
       <c r="Q142" s="1">
-        <v>42977</v>
+        <v>42996</v>
       </c>
       <c r="R142" t="b">
         <v>1</v>
@@ -9486,12 +9492,74 @@
       <c r="S142" t="b">
         <v>0</v>
       </c>
-      <c r="T142" t="s">
+      <c r="T142" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>178</v>
+      </c>
+      <c r="B143">
+        <v>800</v>
+      </c>
+      <c r="C143" t="s">
+        <v>141</v>
+      </c>
+      <c r="D143" t="s">
+        <v>16</v>
+      </c>
+      <c r="E143">
+        <v>1.1254014290738708</v>
+      </c>
+      <c r="F143">
+        <v>3.8639854837223903E-2</v>
+      </c>
+      <c r="G143">
+        <v>-583.34105101533657</v>
+      </c>
+      <c r="H143">
+        <v>101.66123568642274</v>
+      </c>
+      <c r="I143">
+        <v>94.021846602236735</v>
+      </c>
+      <c r="J143">
+        <v>-0.19695737718801418</v>
+      </c>
+      <c r="K143">
+        <v>4.1096677244269929E-2</v>
+      </c>
+      <c r="L143">
+        <v>6.9833333333333334</v>
+      </c>
+      <c r="M143">
+        <v>3.2145502536643E-2</v>
+      </c>
+      <c r="N143">
+        <v>3.1666666666666669E-2</v>
+      </c>
+      <c r="O143">
+        <v>2.3094010767585032E-3</v>
+      </c>
+      <c r="P143">
+        <v>3</v>
+      </c>
+      <c r="Q143" s="1">
+        <v>42996</v>
+      </c>
+      <c r="R143" t="b">
+        <v>1</v>
+      </c>
+      <c r="S143" t="b">
+        <v>0</v>
+      </c>
+      <c r="T143" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T138" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:T143" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A2:T141">
       <sortCondition ref="A1:A138"/>
     </sortState>

--- a/Sorption Experiments/Sorption Experiment Master Table.xlsx
+++ b/Sorption Experiments/Sorption Experiment Master Table.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1168,10 +1168,10 @@
   <dimension ref="A1:T143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
